--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N402"/>
+  <dimension ref="A1:N405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17928,6 +17928,150 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>404.460909090909</v>
+      </c>
+      <c r="C403" t="n">
+        <v>401.8671428571428</v>
+      </c>
+      <c r="D403" t="n">
+        <v>406.6292307692308</v>
+      </c>
+      <c r="E403" t="n">
+        <v>406.855</v>
+      </c>
+      <c r="F403" t="n">
+        <v>434.2833333333333</v>
+      </c>
+      <c r="G403" t="n">
+        <v>437.1771428571428</v>
+      </c>
+      <c r="H403" t="n">
+        <v>427.670909090909</v>
+      </c>
+      <c r="I403" t="n">
+        <v>426.9533333333333</v>
+      </c>
+      <c r="J403" t="n">
+        <v>431.8733333333333</v>
+      </c>
+      <c r="K403" t="n">
+        <v>425.3692307692308</v>
+      </c>
+      <c r="L403" t="n">
+        <v>423.4892307692308</v>
+      </c>
+      <c r="M403" t="n">
+        <v>416.2844444444444</v>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>408.0818181818182</v>
+      </c>
+      <c r="C404" t="n">
+        <v>405.3942857142857</v>
+      </c>
+      <c r="D404" t="n">
+        <v>413.5923076923077</v>
+      </c>
+      <c r="E404" t="n">
+        <v>412.365</v>
+      </c>
+      <c r="F404" t="n">
+        <v>434.1733333333333</v>
+      </c>
+      <c r="G404" t="n">
+        <v>438.9642857142857</v>
+      </c>
+      <c r="H404" t="n">
+        <v>429.5218181818182</v>
+      </c>
+      <c r="I404" t="n">
+        <v>425.6733333333333</v>
+      </c>
+      <c r="J404" t="n">
+        <v>430.3933333333333</v>
+      </c>
+      <c r="K404" t="n">
+        <v>427.9423076923077</v>
+      </c>
+      <c r="L404" t="n">
+        <v>422.7523076923077</v>
+      </c>
+      <c r="M404" t="n">
+        <v>422.6777777777777</v>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>402.5618181818182</v>
+      </c>
+      <c r="C405" t="n">
+        <v>406.0028571428572</v>
+      </c>
+      <c r="D405" t="n">
+        <v>410.7338461538461</v>
+      </c>
+      <c r="E405" t="n">
+        <v>415.515</v>
+      </c>
+      <c r="F405" t="n">
+        <v>433.7866666666667</v>
+      </c>
+      <c r="G405" t="n">
+        <v>441.0428571428571</v>
+      </c>
+      <c r="H405" t="n">
+        <v>432.6818181818182</v>
+      </c>
+      <c r="I405" t="n">
+        <v>425.5966666666667</v>
+      </c>
+      <c r="J405" t="n">
+        <v>424.0966666666667</v>
+      </c>
+      <c r="K405" t="n">
+        <v>423.5438461538461</v>
+      </c>
+      <c r="L405" t="n">
+        <v>422.4238461538461</v>
+      </c>
+      <c r="M405" t="n">
+        <v>419.6722222222222</v>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17939,7 +18083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B471"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22657,6 +22801,46 @@
       </c>
       <c r="B471" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -22825,28 +23009,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05756172597981244</v>
+        <v>-0.05845541939010451</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002321244443746928</v>
+        <v>0.002443482348325587</v>
       </c>
       <c r="M2" t="n">
-        <v>7.078714193115506</v>
+        <v>7.030725249725251</v>
       </c>
       <c r="N2" t="n">
-        <v>78.2080786586732</v>
+        <v>77.48991646695221</v>
       </c>
       <c r="O2" t="n">
-        <v>8.843533154722337</v>
+        <v>8.802835706007025</v>
       </c>
       <c r="P2" t="n">
-        <v>406.9490539730186</v>
+        <v>406.9575065662228</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22902,28 +23086,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03664654242632041</v>
+        <v>-0.03347521548814374</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007680944600632067</v>
+        <v>0.000653480894715508</v>
       </c>
       <c r="M3" t="n">
-        <v>7.512388684597576</v>
+        <v>7.463530286178806</v>
       </c>
       <c r="N3" t="n">
-        <v>98.16667104539837</v>
+        <v>97.3194545576785</v>
       </c>
       <c r="O3" t="n">
-        <v>9.907909519439425</v>
+        <v>9.865062318996191</v>
       </c>
       <c r="P3" t="n">
-        <v>403.5757267320338</v>
+        <v>403.5465282485491</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22979,28 +23163,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005996114710237837</v>
+        <v>0.01376365319003305</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>1.863288040337974e-05</v>
+        <v>9.988841004693327e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.214656473231047</v>
+        <v>8.177206262072655</v>
       </c>
       <c r="N4" t="n">
-        <v>108.2728258361797</v>
+        <v>107.5321606920147</v>
       </c>
       <c r="O4" t="n">
-        <v>10.40542290520571</v>
+        <v>10.36977148697187</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7583573787517</v>
+        <v>405.6868457252052</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23056,28 +23240,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01077354539101606</v>
+        <v>0.01207891263600658</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L5" t="n">
-        <v>6.217396957708399e-05</v>
+        <v>7.959418615421932e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.143551914980975</v>
+        <v>8.101357323860091</v>
       </c>
       <c r="N5" t="n">
-        <v>105.276075001597</v>
+        <v>104.4527562091445</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26041300346126</v>
+        <v>10.220213119556</v>
       </c>
       <c r="P5" t="n">
-        <v>410.5644436214269</v>
+        <v>410.5523875982429</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23133,28 +23317,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04695034155194376</v>
+        <v>0.05455847741468163</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001176322088434101</v>
+        <v>0.001616755082227472</v>
       </c>
       <c r="M6" t="n">
-        <v>8.249028841974589</v>
+        <v>8.213690012675299</v>
       </c>
       <c r="N6" t="n">
-        <v>105.3911768596433</v>
+        <v>104.6191148154337</v>
       </c>
       <c r="O6" t="n">
-        <v>10.26602049772176</v>
+        <v>10.22834858691439</v>
       </c>
       <c r="P6" t="n">
-        <v>428.5147317844159</v>
+        <v>428.4455144530752</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23210,28 +23394,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003316036240589243</v>
+        <v>0.005607124186743297</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K7" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L7" t="n">
-        <v>5.383800637748237e-06</v>
+        <v>1.566305781253163e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.174035710343464</v>
+        <v>8.144301542841639</v>
       </c>
       <c r="N7" t="n">
-        <v>113.1978030139039</v>
+        <v>112.4401734526376</v>
       </c>
       <c r="O7" t="n">
-        <v>10.63944561590988</v>
+        <v>10.60378109226315</v>
       </c>
       <c r="P7" t="n">
-        <v>434.0389395926743</v>
+        <v>433.9564764260299</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23287,28 +23471,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01112424260247622</v>
+        <v>0.02322945134443577</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L8" t="n">
-        <v>5.560227579992638e-05</v>
+        <v>0.0002462763900576981</v>
       </c>
       <c r="M8" t="n">
-        <v>8.569193592301696</v>
+        <v>8.54941480449205</v>
       </c>
       <c r="N8" t="n">
-        <v>125.7212009849391</v>
+        <v>125.0567518849069</v>
       </c>
       <c r="O8" t="n">
-        <v>11.21254658786036</v>
+        <v>11.18287762093938</v>
       </c>
       <c r="P8" t="n">
-        <v>422.70382609032</v>
+        <v>422.5933864847444</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23364,28 +23548,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03105544131459642</v>
+        <v>0.04092085572732006</v>
       </c>
       <c r="J9" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K9" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004213378882679253</v>
+        <v>0.0007440994149048308</v>
       </c>
       <c r="M9" t="n">
-        <v>8.669420784666915</v>
+        <v>8.643062909165366</v>
       </c>
       <c r="N9" t="n">
-        <v>130.8098843108824</v>
+        <v>129.9338349307598</v>
       </c>
       <c r="O9" t="n">
-        <v>11.43721488435373</v>
+        <v>11.39885235147643</v>
       </c>
       <c r="P9" t="n">
-        <v>419.5485771512685</v>
+        <v>419.4598297095018</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23441,28 +23625,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01595710208260614</v>
+        <v>0.03025533826935423</v>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K10" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001236408213334261</v>
+        <v>0.0004504181653260941</v>
       </c>
       <c r="M10" t="n">
-        <v>8.158688023021337</v>
+        <v>8.152633536853395</v>
       </c>
       <c r="N10" t="n">
-        <v>117.7729088941242</v>
+        <v>117.4315263715654</v>
       </c>
       <c r="O10" t="n">
-        <v>10.85232274188914</v>
+        <v>10.83658278109688</v>
       </c>
       <c r="P10" t="n">
-        <v>420.0303052726442</v>
+        <v>419.902145837914</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23518,28 +23702,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09203372791346565</v>
+        <v>0.1041206683426143</v>
       </c>
       <c r="J11" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K11" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003931469195804449</v>
+        <v>0.005103832636741967</v>
       </c>
       <c r="M11" t="n">
-        <v>8.344629007586793</v>
+        <v>8.325412831238999</v>
       </c>
       <c r="N11" t="n">
-        <v>124.8981241435361</v>
+        <v>124.2332237922945</v>
       </c>
       <c r="O11" t="n">
-        <v>11.17578293201582</v>
+        <v>11.14599586364065</v>
       </c>
       <c r="P11" t="n">
-        <v>416.2078967682806</v>
+        <v>416.0994006330935</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23595,28 +23779,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05050821273700469</v>
+        <v>0.06920497261476688</v>
       </c>
       <c r="J12" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K12" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001254282245070404</v>
+        <v>0.002375810532138756</v>
       </c>
       <c r="M12" t="n">
-        <v>8.454257089569944</v>
+        <v>8.462997951438542</v>
       </c>
       <c r="N12" t="n">
-        <v>112.389469460728</v>
+        <v>112.3474357229462</v>
       </c>
       <c r="O12" t="n">
-        <v>10.60138997776839</v>
+        <v>10.59940732885317</v>
       </c>
       <c r="P12" t="n">
-        <v>411.0808370360064</v>
+        <v>410.9034292951371</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -23672,28 +23856,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2098113135883763</v>
+        <v>0.2346167901208248</v>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K13" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01333420988842593</v>
+        <v>0.01676896583767384</v>
       </c>
       <c r="M13" t="n">
-        <v>10.34820722437846</v>
+        <v>10.3661463801508</v>
       </c>
       <c r="N13" t="n">
-        <v>170.1561519905893</v>
+        <v>170.2182389468113</v>
       </c>
       <c r="O13" t="n">
-        <v>13.04439159143075</v>
+        <v>13.04677120772842</v>
       </c>
       <c r="P13" t="n">
-        <v>401.0110269409426</v>
+        <v>400.7629654968125</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -23730,7 +23914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N402"/>
+  <dimension ref="A1:N405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49026,6 +49210,222 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-34.80137473449787,173.38883671321503</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-34.80144109892026,173.38971174430324</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-34.80138805077344,173.3905642495161</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-34.80128408119363,173.39143950901504</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-34.801002165666254,173.3922580277351</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-34.800828587203696,173.39293647153747</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-34.80056931256125,173.3936701401982</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-34.800221790454735,173.39443702362902</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-34.799814684162854,173.39508977373248</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-34.799423529891065,173.39572917522034</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-34.798933357133535,173.3962764645746</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-34.79839573282606,173.3968149356126</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-34.80134213536481,173.3888389626628</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-34.801409298497454,173.3897124885399</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-34.80132546362776,173.39055813249152</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-34.80123464622593,173.39143345028066</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-34.80100314448075,173.39225822267986</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-34.80081374420695,173.3929288617379</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-34.800554872891006,173.39365999175604</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-34.800231607065825,173.3944443841874</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-34.799825209551514,173.3950997214097</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-34.79940731254982,173.39570905798794</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-34.7989373903122,173.39628286710672</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-34.798363546078896,173.3967569511821</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-34.80139183205966,173.38883553342617</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-34.80140381166871,173.3897126169501</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-34.80135115671597,173.390560643633</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-34.80120638485567,173.39142998657925</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-34.80100658516198,173.3922589079402</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-34.800796480768824,173.3929200110152</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-34.800530220485335,173.39364266564195</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-34.800232195039904,173.39444482505425</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-34.79986998985549,173.39514204387544</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-34.79943503474723,173.39574344673255</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-34.7989391879815,173.39628572084513</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-34.798378677321715,173.39678421010672</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -22854,7 +22854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22945,35 +22945,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23032,27 +23037,28 @@
       <c r="P2" t="n">
         <v>406.9575065662228</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.38858543620475 -34.80501610466215, 173.38916144278235 -34.79666848498368)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3885854362047</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.80501610466215</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3891614427824</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.79666848498368</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3888734394936</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.80084229482291</v>
       </c>
     </row>
@@ -23109,27 +23115,28 @@
       <c r="P3" t="n">
         <v>403.5465282485491</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.38962694628535 -34.805064298127505, 173.38982258536583 -34.796704766542966)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3896269462853</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.8050642981275</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3898225853658</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.79670476654297</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3897247658256</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.80088453233523</v>
       </c>
     </row>
@@ -23186,27 +23193,28 @@
       <c r="P4" t="n">
         <v>405.6868457252052</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.39092148788666 -34.8050430083382, 173.3901069526359 -34.796708880665776)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3909214878867</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.8050430083382</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3901069526359</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.79670888066578</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3905142202613</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.80087594450199</v>
       </c>
     </row>
@@ -23263,27 +23271,28 @@
       <c r="P5" t="n">
         <v>410.5523875982429</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.39188690300665 -34.80493432662811, 173.39086736392244 -34.79661550971443)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3918869030067</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.80493432662811</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3908673639224</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.79661550971443</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3913771334645</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.80077491817127</v>
       </c>
     </row>
@@ -23340,27 +23349,28 @@
       <c r="P6" t="n">
         <v>428.4455144530752</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.39302771225564 -34.80486655102532, 173.39138445300736 -34.79661571765036)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3930277122556</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.80486655102532</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3913844530074</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.79661571765036</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3922060826315</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.80074113433784</v>
       </c>
     </row>
@@ -23417,27 +23427,28 @@
       <c r="P7" t="n">
         <v>433.9564764260299</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.3947980899697 -34.80445951710079, 173.39084907359242 -34.79675687392866)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.3947980899697</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.80445951710079</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3908490735924</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.79675687392866</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.392823581781</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.80060819551473</v>
       </c>
     </row>
@@ -23494,27 +23505,28 @@
       <c r="P8" t="n">
         <v>422.5933864847444</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.3960151337853 -34.80390571738243, 173.3909293417228 -34.796669361760145)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3960151337853</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.80390571738243</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3909293417228</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.79666936176015</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3934722377541</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.80028753957129</v>
       </c>
     </row>
@@ -23571,27 +23583,28 @@
       <c r="P9" t="n">
         <v>419.4598297095018</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.39689228874593 -34.803496166436275, 173.39155816488142 -34.796382105881456)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.3968922887459</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.80349616643628</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3915581648814</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.79638210588146</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3942252268137</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.79993913615887</v>
       </c>
     </row>
@@ -23648,27 +23661,28 @@
       <c r="P10" t="n">
         <v>419.902145837914</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.39799267619216 -34.80288602295063, 173.391756849743 -34.79628800188187)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.3979926761922</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.80288602295063</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.391756849743</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.79628800188187</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.3948747629676</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.79958701241625</v>
       </c>
     </row>
@@ -23725,27 +23739,28 @@
       <c r="P11" t="n">
         <v>416.0994006330935</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.39905497176446 -34.80210445903999, 173.39179987458704 -34.79625577108245)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3990549717645</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.80210445903999</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.391799874587</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.79625577108245</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.3954274231758</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.79918011506122</v>
       </c>
     </row>
@@ -23802,27 +23817,28 @@
       <c r="P12" t="n">
         <v>410.9034292951371</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.39995592456918 -34.8012510562704, 173.39189207925097 -34.796171306880446)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.3999559245692</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.8012510562704</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.391892079251</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.79617130688045</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.3959240019101</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.79871118157543</v>
       </c>
     </row>
@@ -23879,27 +23895,28 @@
       <c r="P13" t="n">
         <v>400.7629654968125</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.40059053018 -34.80049142449953, 173.39217198144019 -34.795818293907)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.40059053018</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.80049142449953</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.3921719814402</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.795818293907</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.3963812558101</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.79815485920327</v>
       </c>
     </row>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N405"/>
+  <dimension ref="A1:N408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18072,6 +18072,150 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>416.7545454545455</v>
+      </c>
+      <c r="C406" t="n">
+        <v>414.1057142857143</v>
+      </c>
+      <c r="D406" t="n">
+        <v>423.0592307692308</v>
+      </c>
+      <c r="E406" t="n">
+        <v>424.665</v>
+      </c>
+      <c r="F406" t="n">
+        <v>443.2866666666667</v>
+      </c>
+      <c r="G406" t="n">
+        <v>445.7257142857143</v>
+      </c>
+      <c r="H406" t="n">
+        <v>434.9145454545454</v>
+      </c>
+      <c r="I406" t="n">
+        <v>433.6266666666667</v>
+      </c>
+      <c r="J406" t="n">
+        <v>434.5166666666667</v>
+      </c>
+      <c r="K406" t="n">
+        <v>433.5492307692308</v>
+      </c>
+      <c r="L406" t="n">
+        <v>430.3792307692308</v>
+      </c>
+      <c r="M406" t="n">
+        <v>419.2955555555556</v>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>415.7418181818182</v>
+      </c>
+      <c r="C407" t="n">
+        <v>415.6257142857143</v>
+      </c>
+      <c r="D407" t="n">
+        <v>424.5023076923077</v>
+      </c>
+      <c r="E407" t="n">
+        <v>429.6</v>
+      </c>
+      <c r="F407" t="n">
+        <v>445.58</v>
+      </c>
+      <c r="G407" t="n">
+        <v>452.2657142857143</v>
+      </c>
+      <c r="H407" t="n">
+        <v>439.4918181818182</v>
+      </c>
+      <c r="I407" t="n">
+        <v>438.36</v>
+      </c>
+      <c r="J407" t="n">
+        <v>438.6</v>
+      </c>
+      <c r="K407" t="n">
+        <v>439.6023076923077</v>
+      </c>
+      <c r="L407" t="n">
+        <v>433.8623076923077</v>
+      </c>
+      <c r="M407" t="n">
+        <v>425.07</v>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>406.3490909090909</v>
+      </c>
+      <c r="C408" t="n">
+        <v>401.5814285714285</v>
+      </c>
+      <c r="D408" t="n">
+        <v>401.5046153846154</v>
+      </c>
+      <c r="E408" t="n">
+        <v>403.505</v>
+      </c>
+      <c r="F408" t="n">
+        <v>423.9766666666667</v>
+      </c>
+      <c r="G408" t="n">
+        <v>432.4414285714286</v>
+      </c>
+      <c r="H408" t="n">
+        <v>423.5190909090909</v>
+      </c>
+      <c r="I408" t="n">
+        <v>421.7766666666667</v>
+      </c>
+      <c r="J408" t="n">
+        <v>422.6466666666667</v>
+      </c>
+      <c r="K408" t="n">
+        <v>419.5246153846153</v>
+      </c>
+      <c r="L408" t="n">
+        <v>412.3046153846154</v>
+      </c>
+      <c r="M408" t="n">
+        <v>420.5722222222223</v>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18083,7 +18227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22841,6 +22985,46 @@
       </c>
       <c r="B475" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -23014,28 +23198,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05845541939010451</v>
+        <v>-0.04415090958119271</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002443482348325587</v>
+        <v>0.001412082170035411</v>
       </c>
       <c r="M2" t="n">
-        <v>7.030725249725251</v>
+        <v>7.028267248902865</v>
       </c>
       <c r="N2" t="n">
-        <v>77.48991646695221</v>
+        <v>77.47801560775093</v>
       </c>
       <c r="O2" t="n">
-        <v>8.802835706007025</v>
+        <v>8.802159712692728</v>
       </c>
       <c r="P2" t="n">
-        <v>406.9575065662228</v>
+        <v>406.8218328659648</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23092,28 +23276,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03347521548814374</v>
+        <v>-0.01976936804951783</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000653480894715508</v>
+        <v>0.000230522577210901</v>
       </c>
       <c r="M3" t="n">
-        <v>7.463530286178806</v>
+        <v>7.469668297082406</v>
       </c>
       <c r="N3" t="n">
-        <v>97.3194545576785</v>
+        <v>97.32470433184403</v>
       </c>
       <c r="O3" t="n">
-        <v>9.865062318996191</v>
+        <v>9.865328394526156</v>
       </c>
       <c r="P3" t="n">
-        <v>403.5465282485491</v>
+        <v>403.4190245889365</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23170,28 +23354,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01376365319003305</v>
+        <v>0.03178239401366938</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>9.988841004693327e-05</v>
+        <v>0.0005334393704250484</v>
       </c>
       <c r="M4" t="n">
-        <v>8.177206262072655</v>
+        <v>8.217092912882086</v>
       </c>
       <c r="N4" t="n">
-        <v>107.5321606920147</v>
+        <v>108.4945114808424</v>
       </c>
       <c r="O4" t="n">
-        <v>10.36977148697187</v>
+        <v>10.41606986731764</v>
       </c>
       <c r="P4" t="n">
-        <v>405.6868457252052</v>
+        <v>405.519095764517</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23248,28 +23432,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01207891263600658</v>
+        <v>0.02647365084937685</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K5" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>7.959418615421932e-05</v>
+        <v>0.0003833758040873159</v>
       </c>
       <c r="M5" t="n">
-        <v>8.101357323860091</v>
+        <v>8.150350065846391</v>
       </c>
       <c r="N5" t="n">
-        <v>104.4527562091445</v>
+        <v>105.2709300893615</v>
       </c>
       <c r="O5" t="n">
-        <v>10.220213119556</v>
+        <v>10.26016228377317</v>
       </c>
       <c r="P5" t="n">
-        <v>410.5523875982429</v>
+        <v>410.419336892857</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23326,28 +23510,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05455847741468163</v>
+        <v>0.06793979067291585</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001616755082227472</v>
+        <v>0.002522576640151653</v>
       </c>
       <c r="M6" t="n">
-        <v>8.213690012675299</v>
+        <v>8.244131195307034</v>
       </c>
       <c r="N6" t="n">
-        <v>104.6191148154337</v>
+        <v>105.0426433126479</v>
       </c>
       <c r="O6" t="n">
-        <v>10.22834858691439</v>
+        <v>10.2490313353335</v>
       </c>
       <c r="P6" t="n">
-        <v>428.4455144530752</v>
+        <v>428.3224634980515</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23404,28 +23588,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005607124186743297</v>
+        <v>0.02186181608501446</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K7" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L7" t="n">
-        <v>1.566305781253163e-05</v>
+        <v>0.000239923299770517</v>
       </c>
       <c r="M7" t="n">
-        <v>8.144301542841639</v>
+        <v>8.160980948380697</v>
       </c>
       <c r="N7" t="n">
-        <v>112.4401734526376</v>
+        <v>112.8013526065016</v>
       </c>
       <c r="O7" t="n">
-        <v>10.60378109226315</v>
+        <v>10.6207981153255</v>
       </c>
       <c r="P7" t="n">
-        <v>433.9564764260299</v>
+        <v>433.8045784738956</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23482,28 +23666,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02322945134443577</v>
+        <v>0.03951925176124174</v>
       </c>
       <c r="J8" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K8" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002462763900576981</v>
+        <v>0.000719906895856548</v>
       </c>
       <c r="M8" t="n">
-        <v>8.54941480449205</v>
+        <v>8.550744654146721</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0567518849069</v>
+        <v>125.1180616615164</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18287762093938</v>
+        <v>11.18561851939875</v>
       </c>
       <c r="P8" t="n">
-        <v>422.5933864847444</v>
+        <v>422.4430076911536</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23560,28 +23744,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04092085572732006</v>
+        <v>0.05928644951011638</v>
       </c>
       <c r="J9" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007440994149048308</v>
+        <v>0.00157449637430318</v>
       </c>
       <c r="M9" t="n">
-        <v>8.643062909165366</v>
+        <v>8.661326123476814</v>
       </c>
       <c r="N9" t="n">
-        <v>129.9338349307598</v>
+        <v>130.2070930327268</v>
       </c>
       <c r="O9" t="n">
-        <v>11.39885235147643</v>
+        <v>11.41083226731192</v>
       </c>
       <c r="P9" t="n">
-        <v>419.4598297095018</v>
+        <v>419.29246856778</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23638,28 +23822,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03025533826935423</v>
+        <v>0.0494218951099473</v>
       </c>
       <c r="J10" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004504181653260941</v>
+        <v>0.001209633965857049</v>
       </c>
       <c r="M10" t="n">
-        <v>8.152633536853395</v>
+        <v>8.170075337877986</v>
       </c>
       <c r="N10" t="n">
-        <v>117.4315263715654</v>
+        <v>117.8810035050011</v>
       </c>
       <c r="O10" t="n">
-        <v>10.83658278109688</v>
+        <v>10.85730185197967</v>
       </c>
       <c r="P10" t="n">
-        <v>419.902145837914</v>
+        <v>419.7279548574295</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23716,28 +23900,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1041206683426143</v>
+        <v>0.1247221421494504</v>
       </c>
       <c r="J11" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K11" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005103832636741967</v>
+        <v>0.007335526061206576</v>
       </c>
       <c r="M11" t="n">
-        <v>8.325412831238999</v>
+        <v>8.345507784220823</v>
       </c>
       <c r="N11" t="n">
-        <v>124.2332237922945</v>
+        <v>125.0416022794878</v>
       </c>
       <c r="O11" t="n">
-        <v>11.14599586364065</v>
+        <v>11.18220024322082</v>
       </c>
       <c r="P11" t="n">
-        <v>416.0994006330935</v>
+        <v>415.911908110735</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23794,28 +23978,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06920497261476688</v>
+        <v>0.09188161838744506</v>
       </c>
       <c r="J12" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K12" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002375810532138756</v>
+        <v>0.00417507525967975</v>
       </c>
       <c r="M12" t="n">
-        <v>8.462997951438542</v>
+        <v>8.494206833118421</v>
       </c>
       <c r="N12" t="n">
-        <v>112.3474357229462</v>
+        <v>113.625603093003</v>
       </c>
       <c r="O12" t="n">
-        <v>10.59940732885317</v>
+        <v>10.65953109161013</v>
       </c>
       <c r="P12" t="n">
-        <v>410.9034292951371</v>
+        <v>410.6854953328015</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23872,28 +24056,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2346167901208248</v>
+        <v>0.2624898141579443</v>
       </c>
       <c r="J13" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K13" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01676896583767384</v>
+        <v>0.02104809365737259</v>
       </c>
       <c r="M13" t="n">
-        <v>10.3661463801508</v>
+        <v>10.39639719851889</v>
       </c>
       <c r="N13" t="n">
-        <v>170.2182389468113</v>
+        <v>170.7082686695914</v>
       </c>
       <c r="O13" t="n">
-        <v>13.04677120772842</v>
+        <v>13.06553744281464</v>
       </c>
       <c r="P13" t="n">
-        <v>400.7629654968125</v>
+        <v>400.4801851025398</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23931,7 +24115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N405"/>
+  <dimension ref="A1:N408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49443,6 +49627,222 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-34.80126405458837,173.3888443504873</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-34.80133075699073,173.38971432667307</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-34.80124037082876,173.39054981586747</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-34.80112429230257,173.39141992536534</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-34.80092205118179,173.39224207181942</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-34.800757587604565,173.39290007105018</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-34.80051280209814,173.39363042372182</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-34.80017061113619,173.39439864907948</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-34.79979588543729,173.39507200682885</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-34.79937197376355,173.39566522109237</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-34.79889564815929,173.39621660293454</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-34.798380573621216,173.39678762629057</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-34.80127317219692,173.3888437213435</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-34.80131705279858,173.38971464739654</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-34.80122739982908,173.3905485481363</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-34.80108001615423,173.39141449891596</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-34.80090164438179,173.3922380075261</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-34.80070327005546,173.39287222325993</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-34.80047709298185,173.3936053268048</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-34.80013431011325,173.3943714303969</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-34.799766845786586,173.39504456112348</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-34.799333822982646,173.39561789605122</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-34.79887658526571,173.39618634131563</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-34.79835150261206,173.39673525489908</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-34.80135773515083,173.38883788622627</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-34.801443674896184,173.3897116840167</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-34.80143411303136,173.39056875146863</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-34.80131413693588,173.39144319264128</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-34.80109387761551,173.39227629348707</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-34.800867919362766,173.39295663660724</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-34.80060170252551,173.393692904423</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-34.8002614914857,173.39446679173145</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-34.79988030188732,173.39515178992357</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-34.79946036675694,173.3957748705356</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-34.79899457047644,173.39637363877176</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-34.79837414634024,173.39677604754417</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N408"/>
+  <dimension ref="A1:N412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18216,6 +18216,154 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>397.4345454545455</v>
+      </c>
+      <c r="C409" t="n">
+        <v>399.9442857142857</v>
+      </c>
+      <c r="D409" t="n">
+        <v>392.4130769230769</v>
+      </c>
+      <c r="E409" t="n">
+        <v>399.725</v>
+      </c>
+      <c r="F409" t="n">
+        <v>421.4366666666667</v>
+      </c>
+      <c r="G409" t="n">
+        <v>421.7042857142857</v>
+      </c>
+      <c r="H409" t="n">
+        <v>407.6445454545454</v>
+      </c>
+      <c r="I409" t="n">
+        <v>411.1166666666667</v>
+      </c>
+      <c r="J409" t="n">
+        <v>417.5966666666667</v>
+      </c>
+      <c r="K409" t="n">
+        <v>411.5030769230769</v>
+      </c>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>407.0936363636364</v>
+      </c>
+      <c r="C410" t="n">
+        <v>404.5328571428572</v>
+      </c>
+      <c r="D410" t="n">
+        <v>402.2830769230769</v>
+      </c>
+      <c r="E410" t="n">
+        <v>409.25</v>
+      </c>
+      <c r="F410" t="n">
+        <v>429.1866666666667</v>
+      </c>
+      <c r="G410" t="n">
+        <v>433.3528571428572</v>
+      </c>
+      <c r="H410" t="n">
+        <v>424.1836363636364</v>
+      </c>
+      <c r="I410" t="n">
+        <v>420.8966666666667</v>
+      </c>
+      <c r="J410" t="n">
+        <v>422.6666666666667</v>
+      </c>
+      <c r="K410" t="n">
+        <v>418.6030769230769</v>
+      </c>
+      <c r="L410" t="n">
+        <v>422.7330769230769</v>
+      </c>
+      <c r="M410" t="n">
+        <v>424.7055555555555</v>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>420.1284615384615</v>
+      </c>
+      <c r="L411" t="n">
+        <v>425.2884615384616</v>
+      </c>
+      <c r="M411" t="n">
+        <v>423.0977777777778</v>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>422.8907692307693</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18227,7 +18375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23025,6 +23173,46 @@
       </c>
       <c r="B479" t="n">
         <v>-0.17</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -23198,28 +23386,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04415090958119271</v>
+        <v>-0.0484740219524671</v>
       </c>
       <c r="J2" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001412082170035411</v>
+        <v>0.001720937302596259</v>
       </c>
       <c r="M2" t="n">
-        <v>7.028267248902865</v>
+        <v>7.01588882765465</v>
       </c>
       <c r="N2" t="n">
-        <v>77.47801560775093</v>
+        <v>77.20173797576082</v>
       </c>
       <c r="O2" t="n">
-        <v>8.802159712692728</v>
+        <v>8.786451956037819</v>
       </c>
       <c r="P2" t="n">
-        <v>406.8218328659648</v>
+        <v>406.8631228200979</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23276,28 +23464,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01976936804951783</v>
+        <v>-0.02055509927058534</v>
       </c>
       <c r="J3" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000230522577210901</v>
+        <v>0.0002524577760182334</v>
       </c>
       <c r="M3" t="n">
-        <v>7.469668297082406</v>
+        <v>7.438455432155782</v>
       </c>
       <c r="N3" t="n">
-        <v>97.32470433184403</v>
+        <v>96.7694453350845</v>
       </c>
       <c r="O3" t="n">
-        <v>9.865328394526156</v>
+        <v>9.837146198724735</v>
       </c>
       <c r="P3" t="n">
-        <v>403.4190245889365</v>
+        <v>403.4263814914633</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23354,28 +23542,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03178239401366938</v>
+        <v>0.02134983213307546</v>
       </c>
       <c r="J4" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005334393704250484</v>
+        <v>0.0002425789978494075</v>
       </c>
       <c r="M4" t="n">
-        <v>8.217092912882086</v>
+        <v>8.224539828137337</v>
       </c>
       <c r="N4" t="n">
-        <v>108.4945114808424</v>
+        <v>108.4653539307409</v>
       </c>
       <c r="O4" t="n">
-        <v>10.41606986731764</v>
+        <v>10.41467013067341</v>
       </c>
       <c r="P4" t="n">
-        <v>405.519095764517</v>
+        <v>405.6170659049666</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23432,28 +23620,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02647365084937685</v>
+        <v>0.01892818145906739</v>
       </c>
       <c r="J5" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003833758040873159</v>
+        <v>0.0001978565390270415</v>
       </c>
       <c r="M5" t="n">
-        <v>8.150350065846391</v>
+        <v>8.139122517684017</v>
       </c>
       <c r="N5" t="n">
-        <v>105.2709300893615</v>
+        <v>105.0375569996507</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26016228377317</v>
+        <v>10.24878319605068</v>
       </c>
       <c r="P5" t="n">
-        <v>410.419336892857</v>
+        <v>410.4897364783158</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23510,28 +23698,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06793979067291585</v>
+        <v>0.0624894683256867</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002522576640151653</v>
+        <v>0.002158677040296486</v>
       </c>
       <c r="M6" t="n">
-        <v>8.244131195307034</v>
+        <v>8.223042899806691</v>
       </c>
       <c r="N6" t="n">
-        <v>105.0426433126479</v>
+        <v>104.6461407593834</v>
       </c>
       <c r="O6" t="n">
-        <v>10.2490313353335</v>
+        <v>10.22966963099901</v>
       </c>
       <c r="P6" t="n">
-        <v>428.3224634980515</v>
+        <v>428.3730384661154</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23588,28 +23776,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02186181608501446</v>
+        <v>0.01399791654975608</v>
       </c>
       <c r="J7" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000239923299770517</v>
+        <v>9.926303118479307e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.160980948380697</v>
+        <v>8.154003381160795</v>
       </c>
       <c r="N7" t="n">
-        <v>112.8013526065016</v>
+        <v>112.6089946629218</v>
       </c>
       <c r="O7" t="n">
-        <v>10.6207981153255</v>
+        <v>10.61173853159424</v>
       </c>
       <c r="P7" t="n">
-        <v>433.8045784738956</v>
+        <v>433.8786207870763</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23666,28 +23854,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03951925176124174</v>
+        <v>0.03090113140812661</v>
       </c>
       <c r="J8" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K8" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000719906895856548</v>
+        <v>0.000443468353301002</v>
       </c>
       <c r="M8" t="n">
-        <v>8.550744654146721</v>
+        <v>8.552013996496306</v>
       </c>
       <c r="N8" t="n">
-        <v>125.1180616615164</v>
+        <v>125.1129998026765</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18561851939875</v>
+        <v>11.18539225072936</v>
       </c>
       <c r="P8" t="n">
-        <v>422.4430076911536</v>
+        <v>422.5231403356694</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23744,28 +23932,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05928644951011638</v>
+        <v>0.0538376184599212</v>
       </c>
       <c r="J9" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00157449637430318</v>
+        <v>0.001313063493969868</v>
       </c>
       <c r="M9" t="n">
-        <v>8.661326123476814</v>
+        <v>8.639314223031995</v>
       </c>
       <c r="N9" t="n">
-        <v>130.2070930327268</v>
+        <v>129.7183334064112</v>
       </c>
       <c r="O9" t="n">
-        <v>11.41083226731192</v>
+        <v>11.38939565589023</v>
       </c>
       <c r="P9" t="n">
-        <v>419.29246856778</v>
+        <v>419.3424772869702</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23822,28 +24010,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0494218951099473</v>
+        <v>0.04844274523595325</v>
       </c>
       <c r="J10" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001209633965857049</v>
+        <v>0.001177119784231961</v>
       </c>
       <c r="M10" t="n">
-        <v>8.170075337877986</v>
+        <v>8.137700145539299</v>
       </c>
       <c r="N10" t="n">
-        <v>117.8810035050011</v>
+        <v>117.2373005542598</v>
       </c>
       <c r="O10" t="n">
-        <v>10.85730185197967</v>
+        <v>10.8276174920552</v>
       </c>
       <c r="P10" t="n">
-        <v>419.7279548574295</v>
+        <v>419.7369069248713</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23900,28 +24088,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1247221421494504</v>
+        <v>0.1207414452599708</v>
       </c>
       <c r="J11" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K11" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007335526061206576</v>
+        <v>0.007000293434799132</v>
       </c>
       <c r="M11" t="n">
-        <v>8.345507784220823</v>
+        <v>8.300404569629954</v>
       </c>
       <c r="N11" t="n">
-        <v>125.0416022794878</v>
+        <v>124.0975058348875</v>
       </c>
       <c r="O11" t="n">
-        <v>11.18220024322082</v>
+        <v>11.13990600655533</v>
       </c>
       <c r="P11" t="n">
-        <v>415.911908110735</v>
+        <v>415.9484067143298</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23978,28 +24166,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09188161838744506</v>
+        <v>0.1103636058768611</v>
       </c>
       <c r="J12" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K12" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00417507525967975</v>
+        <v>0.006073697342315998</v>
       </c>
       <c r="M12" t="n">
-        <v>8.494206833118421</v>
+        <v>8.504201624788916</v>
       </c>
       <c r="N12" t="n">
-        <v>113.625603093003</v>
+        <v>113.5944926344118</v>
       </c>
       <c r="O12" t="n">
-        <v>10.65953109161013</v>
+        <v>10.65807171276361</v>
       </c>
       <c r="P12" t="n">
-        <v>410.6854953328015</v>
+        <v>410.5062327127386</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24056,28 +24244,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2624898141579443</v>
+        <v>0.2831694357267965</v>
       </c>
       <c r="J13" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K13" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02104809365737259</v>
+        <v>0.02447776207705821</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39639719851889</v>
+        <v>10.42580109290556</v>
       </c>
       <c r="N13" t="n">
-        <v>170.7082686695914</v>
+        <v>171.3629939736426</v>
       </c>
       <c r="O13" t="n">
-        <v>13.06553744281464</v>
+        <v>13.09056889419412</v>
       </c>
       <c r="P13" t="n">
-        <v>400.4801851025398</v>
+        <v>400.2690240487684</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24115,7 +24303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N408"/>
+  <dimension ref="A1:N412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49843,6 +50031,206 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-34.80143799302085,173.38883234816345</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-34.80145843523817,173.38971133857495</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-34.80151583170702,173.39057673835887</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-34.80134805057904,173.39144734909448</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-34.801116479330645,173.39228079494978</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-34.80095709597268,173.39300235633618</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-34.80072554604736,173.39377994397788</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-34.800343245419505,173.39452809149438</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-34.79991621619871,173.39518573307564</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-34.79951092409031,173.39583758588842</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-34.8013510319899,173.38883834876646</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-34.80141706506487,173.3897123067762</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-34.80142711588262,173.3905680675932</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-34.80126259358072,173.3914368754989</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-34.801047517403674,173.3922670601797</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-34.80086034955387,173.39295275566622</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-34.800596518145724,173.39368926075016</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-34.80026824040457,173.39447185212003</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-34.79988015965242,173.3951516554953</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-34.79946617493714,173.39578207546006</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-34.798937495562164,173.3962830341874</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-34.79835333738106,173.39673856023117</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-34.799456560895734,173.39577014944626</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-34.798923509945325,173.39626083250772</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-34.79836143162006,173.39675314198752</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-34.79893663251248,173.3962816641257</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N412"/>
+  <dimension ref="A1:N413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18364,6 +18364,54 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>399.33</v>
+      </c>
+      <c r="C413" t="n">
+        <v>392.3514285714285</v>
+      </c>
+      <c r="D413" t="n">
+        <v>388.2661538461539</v>
+      </c>
+      <c r="E413" t="n">
+        <v>393.96</v>
+      </c>
+      <c r="F413" t="n">
+        <v>411.36</v>
+      </c>
+      <c r="G413" t="n">
+        <v>417.0814285714285</v>
+      </c>
+      <c r="H413" t="n">
+        <v>408.3</v>
+      </c>
+      <c r="I413" t="n">
+        <v>403.59</v>
+      </c>
+      <c r="J413" t="n">
+        <v>406.43</v>
+      </c>
+      <c r="K413" t="n">
+        <v>402.8961538461539</v>
+      </c>
+      <c r="L413" t="n">
+        <v>397.2961538461539</v>
+      </c>
+      <c r="M413" t="n">
+        <v>392.5033333333333</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18375,7 +18423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B483"/>
+  <dimension ref="A1:B484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23213,6 +23261,16 @@
       </c>
       <c r="B483" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -23386,28 +23444,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0484740219524671</v>
+        <v>-0.05242799503358861</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001720937302596259</v>
+        <v>0.002023409238073759</v>
       </c>
       <c r="M2" t="n">
-        <v>7.01588882765465</v>
+        <v>7.015184640255185</v>
       </c>
       <c r="N2" t="n">
-        <v>77.20173797576082</v>
+        <v>77.07871925024318</v>
       </c>
       <c r="O2" t="n">
-        <v>8.786451956037819</v>
+        <v>8.779448687146772</v>
       </c>
       <c r="P2" t="n">
-        <v>406.8631228200979</v>
+        <v>406.9010149158982</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23464,28 +23522,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02055509927058534</v>
+        <v>-0.02671602836564009</v>
       </c>
       <c r="J3" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002524577760182334</v>
+        <v>0.000427748584119203</v>
       </c>
       <c r="M3" t="n">
-        <v>7.438455432155782</v>
+        <v>7.448913547649081</v>
       </c>
       <c r="N3" t="n">
-        <v>96.7694453350845</v>
+        <v>96.80978973239766</v>
       </c>
       <c r="O3" t="n">
-        <v>9.837146198724735</v>
+        <v>9.839196599946444</v>
       </c>
       <c r="P3" t="n">
-        <v>403.4263814914633</v>
+        <v>403.4843283008352</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23542,28 +23600,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02134983213307546</v>
+        <v>0.01100433950301652</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002425789978494075</v>
+        <v>6.431522445826676e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.224539828137337</v>
+        <v>8.255800315441942</v>
       </c>
       <c r="N4" t="n">
-        <v>108.4653539307409</v>
+        <v>109.089156518343</v>
       </c>
       <c r="O4" t="n">
-        <v>10.41467013067341</v>
+        <v>10.44457545898075</v>
       </c>
       <c r="P4" t="n">
-        <v>405.6170659049666</v>
+        <v>405.7145067032541</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23620,28 +23678,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01892818145906739</v>
+        <v>0.009257135513793969</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001978565390270415</v>
+        <v>4.725828083251837e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.139122517684017</v>
+        <v>8.161915050419699</v>
       </c>
       <c r="N5" t="n">
-        <v>105.0375569996507</v>
+        <v>105.5709070217413</v>
       </c>
       <c r="O5" t="n">
-        <v>10.24878319605068</v>
+        <v>10.27477041211828</v>
       </c>
       <c r="P5" t="n">
-        <v>410.4897364783158</v>
+        <v>410.5802438235688</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23698,28 +23756,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0624894683256867</v>
+        <v>0.0518673219000741</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002158677040296486</v>
+        <v>0.001483684986023248</v>
       </c>
       <c r="M6" t="n">
-        <v>8.223042899806691</v>
+        <v>8.252633875769531</v>
       </c>
       <c r="N6" t="n">
-        <v>104.6461407593834</v>
+        <v>105.3429185422686</v>
       </c>
       <c r="O6" t="n">
-        <v>10.22966963099901</v>
+        <v>10.26366983794143</v>
       </c>
       <c r="P6" t="n">
-        <v>428.3730384661154</v>
+        <v>428.4719067430751</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23776,28 +23834,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01399791654975608</v>
+        <v>0.004169643298481975</v>
       </c>
       <c r="J7" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>9.926303118479307e-05</v>
+        <v>8.799435459616589e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>8.154003381160795</v>
+        <v>8.181591564921623</v>
       </c>
       <c r="N7" t="n">
-        <v>112.6089946629218</v>
+        <v>113.129465180137</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61173853159424</v>
+        <v>10.63623359935917</v>
       </c>
       <c r="P7" t="n">
-        <v>433.8786207870763</v>
+        <v>433.9714408594829</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23854,28 +23912,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03090113140812661</v>
+        <v>0.02235447599005744</v>
       </c>
       <c r="J8" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K8" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000443468353301002</v>
+        <v>0.0002324198323430116</v>
       </c>
       <c r="M8" t="n">
-        <v>8.552013996496306</v>
+        <v>8.574738466316477</v>
       </c>
       <c r="N8" t="n">
-        <v>125.1129998026765</v>
+        <v>125.4015211487551</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18539225072936</v>
+        <v>11.19828206238596</v>
       </c>
       <c r="P8" t="n">
-        <v>422.5231403356694</v>
+        <v>422.6028673579763</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23932,28 +23990,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0538376184599212</v>
+        <v>0.04416827560355412</v>
       </c>
       <c r="J9" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K9" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001313063493969868</v>
+        <v>0.0008840921359046794</v>
       </c>
       <c r="M9" t="n">
-        <v>8.639314223031995</v>
+        <v>8.663782442186927</v>
       </c>
       <c r="N9" t="n">
-        <v>129.7183334064112</v>
+        <v>130.1887842678242</v>
       </c>
       <c r="O9" t="n">
-        <v>11.38939565589023</v>
+        <v>11.41002998540425</v>
       </c>
       <c r="P9" t="n">
-        <v>419.3424772869702</v>
+        <v>419.4315084898799</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24010,28 +24068,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04844274523595325</v>
+        <v>0.04025428746972649</v>
       </c>
       <c r="J10" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K10" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001177119784231961</v>
+        <v>0.000814158997812231</v>
       </c>
       <c r="M10" t="n">
-        <v>8.137700145539299</v>
+        <v>8.159596163359669</v>
       </c>
       <c r="N10" t="n">
-        <v>117.2373005542598</v>
+        <v>117.5059444580729</v>
       </c>
       <c r="O10" t="n">
-        <v>10.8276174920552</v>
+        <v>10.84001588827585</v>
       </c>
       <c r="P10" t="n">
-        <v>419.7369069248713</v>
+        <v>419.812089944831</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24088,28 +24146,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1207414452599708</v>
+        <v>0.111752522651121</v>
       </c>
       <c r="J11" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K11" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007000293434799132</v>
+        <v>0.006003292179924458</v>
       </c>
       <c r="M11" t="n">
-        <v>8.300404569629954</v>
+        <v>8.328780756128227</v>
       </c>
       <c r="N11" t="n">
-        <v>124.0975058348875</v>
+        <v>124.4989346369966</v>
       </c>
       <c r="O11" t="n">
-        <v>11.13990600655533</v>
+        <v>11.15790906205086</v>
       </c>
       <c r="P11" t="n">
-        <v>415.9484067143298</v>
+        <v>416.0311133708101</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24166,28 +24224,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1103636058768611</v>
+        <v>0.1010740926416519</v>
       </c>
       <c r="J12" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006073697342315998</v>
+        <v>0.005096116120969718</v>
       </c>
       <c r="M12" t="n">
-        <v>8.504201624788916</v>
+        <v>8.531060511101323</v>
       </c>
       <c r="N12" t="n">
-        <v>113.5944926344118</v>
+        <v>114.0296260674958</v>
       </c>
       <c r="O12" t="n">
-        <v>10.65807171276361</v>
+        <v>10.67846552962999</v>
       </c>
       <c r="P12" t="n">
-        <v>410.5062327127386</v>
+        <v>410.5964940750457</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24244,28 +24302,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2831694357267965</v>
+        <v>0.2738672247999876</v>
       </c>
       <c r="J13" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K13" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02447776207705821</v>
+        <v>0.02298286251763826</v>
       </c>
       <c r="M13" t="n">
-        <v>10.42580109290556</v>
+        <v>10.44499232149266</v>
       </c>
       <c r="N13" t="n">
-        <v>171.3629939736426</v>
+        <v>171.534291014374</v>
       </c>
       <c r="O13" t="n">
-        <v>13.09056889419412</v>
+        <v>13.09711002528321</v>
       </c>
       <c r="P13" t="n">
-        <v>400.2690240487684</v>
+        <v>400.3642054042248</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24303,7 +24361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N412"/>
+  <dimension ref="A1:N413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25574,7 +25632,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-34.80111899890291,173.39141927661018</t>
+          <t>-34.8011189989029,173.39141927661018</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -25866,7 +25924,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-34.80035324097326,173.3945355862517</t>
+          <t>-34.800353240973266,173.3945355862517</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -29189,7 +29247,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-34.80058415648456,173.39368057276056</t>
+          <t>-34.800584156484554,173.39368057276056</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -37704,7 +37762,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.8013966504556,173.38971278454648</t>
+          <t>-34.80139665045561,173.38971278454648</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -46779,7 +46837,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>-34.80103962756586,173.39226548880538</t>
+          <t>-34.80103962756585,173.39226548880538</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -49555,7 +49613,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>-34.800930652885214,173.39224378496695</t>
+          <t>-34.80093065288521,173.39224378496695</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -50231,6 +50289,78 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-34.80142092819747,173.38883352569445</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-34.80152689179766,173.38970973645945</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-34.80155310604272,173.3905803814243</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-34.801399773370086,173.39145368824222</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-34.801206144662515,173.39229865313962</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-34.80099549079243,173.3930220409121</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-34.80072043259207,173.39377635013926</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-34.8004009690966,173.39457137326383</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-34.79999563064758,173.39526078899516</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-34.79956517088906,173.39590487807965</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-34.799076711585414,173.39650403554177</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-34.79851545676248,173.39703061914315</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N413"/>
+  <dimension ref="A1:N414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18412,6 +18412,54 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>410.9809090909091</v>
+      </c>
+      <c r="C414" t="n">
+        <v>399.2042857142857</v>
+      </c>
+      <c r="D414" t="n">
+        <v>394.4823076923077</v>
+      </c>
+      <c r="E414" t="n">
+        <v>395.605</v>
+      </c>
+      <c r="F414" t="n">
+        <v>412.83</v>
+      </c>
+      <c r="G414" t="n">
+        <v>417.5642857142857</v>
+      </c>
+      <c r="H414" t="n">
+        <v>422.6609090909091</v>
+      </c>
+      <c r="I414" t="n">
+        <v>405.57</v>
+      </c>
+      <c r="J414" t="n">
+        <v>405.84</v>
+      </c>
+      <c r="K414" t="n">
+        <v>400.2723076923077</v>
+      </c>
+      <c r="L414" t="n">
+        <v>407.7523076923077</v>
+      </c>
+      <c r="M414" t="n">
+        <v>421.2733333333333</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18423,7 +18471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23271,6 +23319,16 @@
       </c>
       <c r="B484" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -23444,28 +23502,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05242799503358861</v>
+        <v>-0.04902879534897903</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002023409238073759</v>
+        <v>0.001780204718281997</v>
       </c>
       <c r="M2" t="n">
-        <v>7.015184640255185</v>
+        <v>7.008475880152151</v>
       </c>
       <c r="N2" t="n">
-        <v>77.07871925024318</v>
+        <v>76.92489124976473</v>
       </c>
       <c r="O2" t="n">
-        <v>8.779448687146772</v>
+        <v>8.770683624995529</v>
       </c>
       <c r="P2" t="n">
-        <v>406.9010149158982</v>
+        <v>406.8683708470468</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23522,28 +23580,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02671602836564009</v>
+        <v>-0.02880141191791935</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000427748584119203</v>
+        <v>0.0005001733443608103</v>
       </c>
       <c r="M3" t="n">
-        <v>7.448913547649081</v>
+        <v>7.437575472377019</v>
       </c>
       <c r="N3" t="n">
-        <v>96.80978973239766</v>
+        <v>96.55663379663207</v>
       </c>
       <c r="O3" t="n">
-        <v>9.839196599946444</v>
+        <v>9.826323513737581</v>
       </c>
       <c r="P3" t="n">
-        <v>403.4843283008352</v>
+        <v>403.5039843570196</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23600,28 +23658,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01100433950301652</v>
+        <v>0.004385859362112078</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>6.431522445826676e-05</v>
+        <v>1.024660438986302e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.255800315441942</v>
+        <v>8.266955931984592</v>
       </c>
       <c r="N4" t="n">
-        <v>109.089156518343</v>
+        <v>109.1555035205909</v>
       </c>
       <c r="O4" t="n">
-        <v>10.44457545898075</v>
+        <v>10.44775112263835</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7145067032541</v>
+        <v>405.7769769788005</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23678,28 +23736,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009257135513793969</v>
+        <v>0.0006582559859601611</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>4.725828083251837e-05</v>
+        <v>2.389824241832983e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>8.161915050419699</v>
+        <v>8.179862587822871</v>
       </c>
       <c r="N5" t="n">
-        <v>105.5709070217413</v>
+        <v>105.932765839323</v>
       </c>
       <c r="O5" t="n">
-        <v>10.27477041211828</v>
+        <v>10.29236444357287</v>
       </c>
       <c r="P5" t="n">
-        <v>410.5802438235688</v>
+        <v>410.660888823251</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23756,28 +23814,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0518673219000741</v>
+        <v>0.04223594915503649</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001483684986023248</v>
+        <v>0.0009829674396043542</v>
       </c>
       <c r="M6" t="n">
-        <v>8.252633875769531</v>
+        <v>8.277697501191065</v>
       </c>
       <c r="N6" t="n">
-        <v>105.3429185422686</v>
+        <v>105.8672161987443</v>
       </c>
       <c r="O6" t="n">
-        <v>10.26366983794143</v>
+        <v>10.28917956878702</v>
       </c>
       <c r="P6" t="n">
-        <v>428.4719067430751</v>
+        <v>428.5617419208318</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23834,28 +23892,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004169643298481975</v>
+        <v>-0.005238179738571908</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L7" t="n">
-        <v>8.799435459616589e-06</v>
+        <v>1.388103450417066e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.181591564921623</v>
+        <v>8.206943420335577</v>
       </c>
       <c r="N7" t="n">
-        <v>113.129465180137</v>
+        <v>113.5847346370291</v>
       </c>
       <c r="O7" t="n">
-        <v>10.63623359935917</v>
+        <v>10.6576139279404</v>
       </c>
       <c r="P7" t="n">
-        <v>433.9714408594829</v>
+        <v>434.0604747833688</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23912,28 +23970,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02235447599005744</v>
+        <v>0.02206038310336302</v>
       </c>
       <c r="J8" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002324198323430116</v>
+        <v>0.0002278091237939428</v>
       </c>
       <c r="M8" t="n">
-        <v>8.574738466316477</v>
+        <v>8.551308970825083</v>
       </c>
       <c r="N8" t="n">
-        <v>125.4015211487551</v>
+        <v>125.0356324434218</v>
       </c>
       <c r="O8" t="n">
-        <v>11.19828206238596</v>
+        <v>11.18193330526621</v>
       </c>
       <c r="P8" t="n">
-        <v>422.6028673579763</v>
+        <v>422.6056166311175</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23990,28 +24048,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04416827560355412</v>
+        <v>0.03575199280758991</v>
       </c>
       <c r="J9" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K9" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008840921359046794</v>
+        <v>0.000580295350182114</v>
       </c>
       <c r="M9" t="n">
-        <v>8.663782442186927</v>
+        <v>8.682171419498818</v>
       </c>
       <c r="N9" t="n">
-        <v>130.1887842678242</v>
+        <v>130.4585645347932</v>
       </c>
       <c r="O9" t="n">
-        <v>11.41002998540425</v>
+        <v>11.42184593377065</v>
       </c>
       <c r="P9" t="n">
-        <v>419.4315084898799</v>
+        <v>419.5091681873334</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24068,28 +24126,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04025428746972649</v>
+        <v>0.03185617487683871</v>
       </c>
       <c r="J10" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000814158997812231</v>
+        <v>0.0005105336587603038</v>
       </c>
       <c r="M10" t="n">
-        <v>8.159596163359669</v>
+        <v>8.183061574685187</v>
       </c>
       <c r="N10" t="n">
-        <v>117.5059444580729</v>
+        <v>117.8116381463886</v>
       </c>
       <c r="O10" t="n">
-        <v>10.84001588827585</v>
+        <v>10.85410697139053</v>
       </c>
       <c r="P10" t="n">
-        <v>419.812089944831</v>
+        <v>419.8893626105631</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24146,28 +24204,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.111752522651121</v>
+        <v>0.1014403271504763</v>
       </c>
       <c r="J11" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K11" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006003292179924458</v>
+        <v>0.004942170619962272</v>
       </c>
       <c r="M11" t="n">
-        <v>8.328780756128227</v>
+        <v>8.365480728388874</v>
       </c>
       <c r="N11" t="n">
-        <v>124.4989346369966</v>
+        <v>125.1518077326575</v>
       </c>
       <c r="O11" t="n">
-        <v>11.15790906205086</v>
+        <v>11.18712687568428</v>
       </c>
       <c r="P11" t="n">
-        <v>416.0311133708101</v>
+        <v>416.1262095564253</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24224,28 +24282,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1010740926416519</v>
+        <v>0.09793401515051006</v>
       </c>
       <c r="J12" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K12" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005096116120969718</v>
+        <v>0.004811944053485728</v>
       </c>
       <c r="M12" t="n">
-        <v>8.531060511101323</v>
+        <v>8.523016573663062</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0296260674958</v>
+        <v>113.771117026975</v>
       </c>
       <c r="O12" t="n">
-        <v>10.67846552962999</v>
+        <v>10.66635443940314</v>
       </c>
       <c r="P12" t="n">
-        <v>410.5964940750457</v>
+        <v>410.6270719408994</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24302,28 +24360,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2738672247999876</v>
+        <v>0.2823574731569183</v>
       </c>
       <c r="J13" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02298286251763826</v>
+        <v>0.0244638729225698</v>
       </c>
       <c r="M13" t="n">
-        <v>10.44499232149266</v>
+        <v>10.45140628606446</v>
       </c>
       <c r="N13" t="n">
-        <v>171.534291014374</v>
+        <v>171.5913924481992</v>
       </c>
       <c r="O13" t="n">
-        <v>13.09711002528321</v>
+        <v>13.09928976884622</v>
       </c>
       <c r="P13" t="n">
-        <v>400.3642054042248</v>
+        <v>400.2771476790181</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24361,7 +24419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N413"/>
+  <dimension ref="A1:N414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50361,6 +50419,78 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-34.80131603477836,173.3888407636882</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-34.801465107015794,173.38971118243285</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-34.801497232566994,173.39057492054417</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-34.80138501465529,173.39145187941259</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-34.80119306414298,173.3922960479563</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-34.80099148045605,173.39301998485848</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-34.80060839753834,173.393697609796</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-34.80038578403876,173.39455998735403</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-34.79999982657384,173.3952647546403</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-34.79958170817973,173.39592539232225</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-34.79901948521052,173.39641319018136</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-34.79837061664932,173.39676968880775</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N414"/>
+  <dimension ref="A1:N417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18460,6 +18460,150 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>407.0218181818182</v>
+      </c>
+      <c r="C415" t="n">
+        <v>402.9314285714286</v>
+      </c>
+      <c r="D415" t="n">
+        <v>398.6376923076923</v>
+      </c>
+      <c r="E415" t="n">
+        <v>403.705</v>
+      </c>
+      <c r="F415" t="n">
+        <v>427.9466666666667</v>
+      </c>
+      <c r="G415" t="n">
+        <v>426.1014285714285</v>
+      </c>
+      <c r="H415" t="n">
+        <v>414.8618181818182</v>
+      </c>
+      <c r="I415" t="n">
+        <v>414.8866666666667</v>
+      </c>
+      <c r="J415" t="n">
+        <v>419.9766666666667</v>
+      </c>
+      <c r="K415" t="n">
+        <v>418.7576923076923</v>
+      </c>
+      <c r="L415" t="n">
+        <v>411.3776923076923</v>
+      </c>
+      <c r="M415" t="n">
+        <v>406.8788888888889</v>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>398.5390909090909</v>
+      </c>
+      <c r="C416" t="n">
+        <v>392.4385714285714</v>
+      </c>
+      <c r="D416" t="n">
+        <v>388.7061538461539</v>
+      </c>
+      <c r="E416" t="n">
+        <v>396.05</v>
+      </c>
+      <c r="F416" t="n">
+        <v>418.4933333333333</v>
+      </c>
+      <c r="G416" t="n">
+        <v>421.3285714285714</v>
+      </c>
+      <c r="H416" t="n">
+        <v>409.7090909090909</v>
+      </c>
+      <c r="I416" t="n">
+        <v>410.1633333333333</v>
+      </c>
+      <c r="J416" t="n">
+        <v>409.4433333333333</v>
+      </c>
+      <c r="K416" t="n">
+        <v>411.7561538461539</v>
+      </c>
+      <c r="L416" t="n">
+        <v>403.6661538461539</v>
+      </c>
+      <c r="M416" t="n">
+        <v>398.6244444444445</v>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>397.7509090909091</v>
+      </c>
+      <c r="C417" t="n">
+        <v>397.0114285714286</v>
+      </c>
+      <c r="D417" t="n">
+        <v>395.4338461538461</v>
+      </c>
+      <c r="E417" t="n">
+        <v>399.03</v>
+      </c>
+      <c r="F417" t="n">
+        <v>417.8566666666667</v>
+      </c>
+      <c r="G417" t="n">
+        <v>422.1814285714286</v>
+      </c>
+      <c r="H417" t="n">
+        <v>415.2009090909091</v>
+      </c>
+      <c r="I417" t="n">
+        <v>414.1866666666667</v>
+      </c>
+      <c r="J417" t="n">
+        <v>410.9366666666667</v>
+      </c>
+      <c r="K417" t="n">
+        <v>409.9638461538461</v>
+      </c>
+      <c r="L417" t="n">
+        <v>402.9138461538461</v>
+      </c>
+      <c r="M417" t="n">
+        <v>399.5755555555555</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18471,7 +18615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23329,6 +23473,56 @@
       </c>
       <c r="B485" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -23502,28 +23696,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04902879534897903</v>
+        <v>-0.05725770603100443</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001780204718281997</v>
+        <v>0.002465213517287901</v>
       </c>
       <c r="M2" t="n">
-        <v>7.008475880152151</v>
+        <v>6.997196704104374</v>
       </c>
       <c r="N2" t="n">
-        <v>76.92489124976473</v>
+        <v>76.54545391436621</v>
       </c>
       <c r="O2" t="n">
-        <v>8.770683624995529</v>
+        <v>8.749025883740783</v>
       </c>
       <c r="P2" t="n">
-        <v>406.8683708470468</v>
+        <v>406.9476321212574</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23580,28 +23774,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02880141191791935</v>
+        <v>-0.03781454333200148</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005001733443608103</v>
+        <v>0.0008749963905542169</v>
       </c>
       <c r="M3" t="n">
-        <v>7.437575472377019</v>
+        <v>7.420407860457019</v>
       </c>
       <c r="N3" t="n">
-        <v>96.55663379663207</v>
+        <v>96.10148631739808</v>
       </c>
       <c r="O3" t="n">
-        <v>9.826323513737581</v>
+        <v>9.803136555072468</v>
       </c>
       <c r="P3" t="n">
-        <v>403.5039843570196</v>
+        <v>403.5891355898443</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23658,28 +23852,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004385859362112078</v>
+        <v>-0.01518730300606824</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>1.024660438986302e-05</v>
+        <v>0.0001237233705698726</v>
       </c>
       <c r="M4" t="n">
-        <v>8.266955931984592</v>
+        <v>8.299476832071425</v>
       </c>
       <c r="N4" t="n">
-        <v>109.1555035205909</v>
+        <v>109.5052384428578</v>
       </c>
       <c r="O4" t="n">
-        <v>10.44775112263835</v>
+        <v>10.46447506771638</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7769769788005</v>
+        <v>405.9621091919156</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23736,28 +23930,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006582559859601611</v>
+        <v>-0.01769475591078779</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>2.389824241832983e-07</v>
+        <v>0.0001740971291187554</v>
       </c>
       <c r="M5" t="n">
-        <v>8.179862587822871</v>
+        <v>8.196835136115141</v>
       </c>
       <c r="N5" t="n">
-        <v>105.932765839323</v>
+        <v>106.1368546208611</v>
       </c>
       <c r="O5" t="n">
-        <v>10.29236444357287</v>
+        <v>10.30227424508109</v>
       </c>
       <c r="P5" t="n">
-        <v>410.660888823251</v>
+        <v>410.8333999778509</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23814,28 +24008,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04223594915503649</v>
+        <v>0.02856440451350001</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009829674396043542</v>
+        <v>0.0004552831107876854</v>
       </c>
       <c r="M6" t="n">
-        <v>8.277697501191065</v>
+        <v>8.274830420561303</v>
       </c>
       <c r="N6" t="n">
-        <v>105.8672161987443</v>
+        <v>105.7045394456016</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28917956878702</v>
+        <v>10.28127129520477</v>
       </c>
       <c r="P6" t="n">
-        <v>428.5617419208318</v>
+        <v>428.6895969707913</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23892,28 +24086,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.005238179738571908</v>
+        <v>-0.02313262979656614</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K7" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L7" t="n">
-        <v>1.388103450417066e-05</v>
+        <v>0.0002734328333536817</v>
       </c>
       <c r="M7" t="n">
-        <v>8.206943420335577</v>
+        <v>8.229664298808498</v>
       </c>
       <c r="N7" t="n">
-        <v>113.5847346370291</v>
+        <v>113.6065235615267</v>
       </c>
       <c r="O7" t="n">
-        <v>10.6576139279404</v>
+        <v>10.65863610231284</v>
       </c>
       <c r="P7" t="n">
-        <v>434.0604747833688</v>
+        <v>434.2302021874827</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23970,28 +24164,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02206038310336302</v>
+        <v>0.005623226107165085</v>
       </c>
       <c r="J8" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K8" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002278091237939428</v>
+        <v>1.498229006480223e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.551308970825083</v>
+        <v>8.568999922822815</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0356324434218</v>
+        <v>124.8354532648456</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18193330526621</v>
+        <v>11.17297871048028</v>
       </c>
       <c r="P8" t="n">
-        <v>422.6056166311175</v>
+        <v>422.7595799482945</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24048,28 +24242,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03575199280758991</v>
+        <v>0.02366723420558472</v>
       </c>
       <c r="J9" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K9" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000580295350182114</v>
+        <v>0.0002582883067542285</v>
       </c>
       <c r="M9" t="n">
-        <v>8.682171419498818</v>
+        <v>8.670930552409445</v>
       </c>
       <c r="N9" t="n">
-        <v>130.4585645347932</v>
+        <v>129.8231330828988</v>
       </c>
       <c r="O9" t="n">
-        <v>11.42184593377065</v>
+        <v>11.39399548371417</v>
       </c>
       <c r="P9" t="n">
-        <v>419.5091681873334</v>
+        <v>419.6209056004258</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24126,28 +24320,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03185617487683871</v>
+        <v>0.01994734790820672</v>
       </c>
       <c r="J10" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005105336587603038</v>
+        <v>0.0002029992537549985</v>
       </c>
       <c r="M10" t="n">
-        <v>8.183061574685187</v>
+        <v>8.179820522931063</v>
       </c>
       <c r="N10" t="n">
-        <v>117.8116381463886</v>
+        <v>117.4260325832791</v>
       </c>
       <c r="O10" t="n">
-        <v>10.85410697139053</v>
+        <v>10.83632929470488</v>
       </c>
       <c r="P10" t="n">
-        <v>419.8893626105631</v>
+        <v>419.9992210538822</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24204,28 +24398,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1014403271504763</v>
+        <v>0.09290407777669442</v>
       </c>
       <c r="J11" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004942170619962272</v>
+        <v>0.004213454685361717</v>
       </c>
       <c r="M11" t="n">
-        <v>8.365480728388874</v>
+        <v>8.342918533453847</v>
       </c>
       <c r="N11" t="n">
-        <v>125.1518077326575</v>
+        <v>124.4122154007004</v>
       </c>
       <c r="O11" t="n">
-        <v>11.18712687568428</v>
+        <v>11.1540223865967</v>
       </c>
       <c r="P11" t="n">
-        <v>416.1262095564253</v>
+        <v>416.2051718718183</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24282,28 +24476,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09793401515051006</v>
+        <v>0.0858201471368728</v>
       </c>
       <c r="J12" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K12" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004811944053485728</v>
+        <v>0.003748397562723493</v>
       </c>
       <c r="M12" t="n">
-        <v>8.523016573663062</v>
+        <v>8.51501924030201</v>
       </c>
       <c r="N12" t="n">
-        <v>113.771117026975</v>
+        <v>113.3254322051084</v>
       </c>
       <c r="O12" t="n">
-        <v>10.66635443940314</v>
+        <v>10.64544185109798</v>
       </c>
       <c r="P12" t="n">
-        <v>410.6270719408994</v>
+        <v>410.7453604059562</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24360,28 +24554,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2823574731569183</v>
+        <v>0.2717531694099862</v>
       </c>
       <c r="J13" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K13" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0244638729225698</v>
+        <v>0.02306679029079517</v>
       </c>
       <c r="M13" t="n">
-        <v>10.45140628606446</v>
+        <v>10.41210701086451</v>
       </c>
       <c r="N13" t="n">
-        <v>171.5913924481992</v>
+        <v>170.4160188271027</v>
       </c>
       <c r="O13" t="n">
-        <v>13.09928976884622</v>
+        <v>13.05434865579676</v>
       </c>
       <c r="P13" t="n">
-        <v>400.2771476790181</v>
+        <v>400.3861632739001</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24419,7 +24613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N414"/>
+  <dimension ref="A1:N417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50491,6 +50685,222 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-34.801351678570754,173.38883830415025</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-34.80143150340995,173.38971196887044</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-34.80145988217479,173.39057127005046</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-34.801312342563214,173.39144297272318</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-34.80105855131216,173.39226925774136</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-34.80092057580398,173.39298363289075</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-34.80066924129556,173.3937403719018</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-34.80031433244665,173.39450641229604</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-34.79989929024725,173.39516973610128</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-34.79946520044282,173.39578086662038</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-34.79899964351815,173.3963816920731</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-34.798443084324276,173.3969002395184</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-34.80142804877127,173.38883303435065</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-34.80152610612502,173.38970975484688</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-34.801549151132704,173.3905799948848</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-34.80138102217621,173.39145139009406</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-34.801142670031716,173.39228601121485</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-34.800960216441766,173.3930039561635</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-34.800709439726646,173.3937686241355</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-34.80035055674532,173.3945335735929</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-34.79997420060404,173.39524053508507</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-34.79950932902344,173.3958356072383</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-34.79904184867815,173.39644869156822</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-34.7984846405979,173.3969751034752</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-34.80143514479134,173.38883254470102</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-34.80148487763086,173.38971071973359</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-34.801488679728244,173.39057408462</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-34.801354286023965,173.39144811331047</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-34.80114833529091,173.39228713953534</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-34.80095313309552,173.39300032461648</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-34.800666595915146,173.39373851267848</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-34.80031970090347,173.39451043761022</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-34.79996358040418,173.39523049775295</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-34.799520625393,173.39584962017227</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-34.79904596604736,173.39645522778196</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-34.79847985231516,173.3969664773377</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N417"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18604,6 +18604,54 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>378.6172727272727</v>
+      </c>
+      <c r="C418" t="n">
+        <v>388.6028571428572</v>
+      </c>
+      <c r="D418" t="n">
+        <v>376.9815384615384</v>
+      </c>
+      <c r="E418" t="n">
+        <v>377.89</v>
+      </c>
+      <c r="F418" t="n">
+        <v>390.1366666666667</v>
+      </c>
+      <c r="G418" t="n">
+        <v>397.8028571428572</v>
+      </c>
+      <c r="H418" t="n">
+        <v>376.0472727272728</v>
+      </c>
+      <c r="I418" t="n">
+        <v>387.1166666666667</v>
+      </c>
+      <c r="J418" t="n">
+        <v>391.8766666666667</v>
+      </c>
+      <c r="K418" t="n">
+        <v>393.6515384615385</v>
+      </c>
+      <c r="L418" t="n">
+        <v>385.3415384615385</v>
+      </c>
+      <c r="M418" t="n">
+        <v>386.9522222222223</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18615,7 +18663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23523,6 +23571,16 @@
       </c>
       <c r="B490" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -23696,28 +23754,28 @@
         <v>0.0571</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05725770603100443</v>
+        <v>-0.0736125613254387</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002465213517287901</v>
+        <v>0.003978238237549947</v>
       </c>
       <c r="M2" t="n">
-        <v>6.997196704104374</v>
+        <v>7.066921024538163</v>
       </c>
       <c r="N2" t="n">
-        <v>76.54545391436621</v>
+        <v>78.56690928908804</v>
       </c>
       <c r="O2" t="n">
-        <v>8.749025883740783</v>
+        <v>8.863797678709055</v>
       </c>
       <c r="P2" t="n">
-        <v>406.9476321212574</v>
+        <v>407.1058862200808</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23774,28 +23832,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03781454333200148</v>
+        <v>-0.04575768242106337</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008749963905542169</v>
+        <v>0.001281202294359129</v>
       </c>
       <c r="M3" t="n">
-        <v>7.420407860457019</v>
+        <v>7.441783812138743</v>
       </c>
       <c r="N3" t="n">
-        <v>96.10148631739808</v>
+        <v>96.39359421928799</v>
       </c>
       <c r="O3" t="n">
-        <v>9.803136555072468</v>
+        <v>9.818023946766884</v>
       </c>
       <c r="P3" t="n">
-        <v>403.5891355898443</v>
+        <v>403.6645803757927</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23852,28 +23910,28 @@
         <v>0.0711</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01518730300606824</v>
+        <v>-0.03123440493706785</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001237233705698726</v>
+        <v>0.0005152015570002444</v>
       </c>
       <c r="M4" t="n">
-        <v>8.299476832071425</v>
+        <v>8.362335353672936</v>
       </c>
       <c r="N4" t="n">
-        <v>109.5052384428578</v>
+        <v>111.564272368458</v>
       </c>
       <c r="O4" t="n">
-        <v>10.46447506771638</v>
+        <v>10.56239898737299</v>
       </c>
       <c r="P4" t="n">
-        <v>405.9621091919156</v>
+        <v>406.1147362012682</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23930,28 +23988,28 @@
         <v>0.0941</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01769475591078779</v>
+        <v>-0.03563507914669187</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001740971291187554</v>
+        <v>0.0006904593779724078</v>
       </c>
       <c r="M5" t="n">
-        <v>8.196835136115141</v>
+        <v>8.259388626236293</v>
       </c>
       <c r="N5" t="n">
-        <v>106.1368546208611</v>
+        <v>108.851835800312</v>
       </c>
       <c r="O5" t="n">
-        <v>10.30227424508109</v>
+        <v>10.43320831768982</v>
       </c>
       <c r="P5" t="n">
-        <v>410.8333999778509</v>
+        <v>411.0029444031807</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24008,28 +24066,28 @@
         <v>0.0643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02856440451350001</v>
+        <v>0.006794163602220576</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004552831107876854</v>
+        <v>2.489467077027019e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>8.274830420561303</v>
+        <v>8.36010369285883</v>
       </c>
       <c r="N6" t="n">
-        <v>105.7045394456016</v>
+        <v>109.7971811562974</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28127129520477</v>
+        <v>10.47841501164644</v>
       </c>
       <c r="P6" t="n">
-        <v>428.6895969707913</v>
+        <v>428.8941937187774</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24086,28 +24144,28 @@
         <v>0.0771</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02313262979656614</v>
+        <v>-0.04307383622849204</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002734328333536817</v>
+        <v>0.0009237361099202479</v>
       </c>
       <c r="M7" t="n">
-        <v>8.229664298808498</v>
+        <v>8.312756650216212</v>
       </c>
       <c r="N7" t="n">
-        <v>113.6065235615267</v>
+        <v>116.9249247273227</v>
       </c>
       <c r="O7" t="n">
-        <v>10.65863610231284</v>
+        <v>10.81318291380122</v>
       </c>
       <c r="P7" t="n">
-        <v>434.2302021874827</v>
+        <v>434.4203327088593</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24164,28 +24222,28 @@
         <v>0.0604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005623226107165085</v>
+        <v>-0.020284240229618</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>1.498229006480223e-05</v>
+        <v>0.0001867198885954213</v>
       </c>
       <c r="M8" t="n">
-        <v>8.568999922822815</v>
+        <v>8.689229107944763</v>
       </c>
       <c r="N8" t="n">
-        <v>124.8354532648456</v>
+        <v>130.7624928444476</v>
       </c>
       <c r="O8" t="n">
-        <v>11.17297871048028</v>
+        <v>11.43514288692745</v>
       </c>
       <c r="P8" t="n">
-        <v>422.7595799482945</v>
+        <v>423.0036262606696</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24242,28 +24300,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02366723420558472</v>
+        <v>0.005515750357626033</v>
       </c>
       <c r="J9" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002582883067542285</v>
+        <v>1.378845636124115e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.670930552409445</v>
+        <v>8.742482705861708</v>
       </c>
       <c r="N9" t="n">
-        <v>129.8231330828988</v>
+        <v>132.5732617340168</v>
       </c>
       <c r="O9" t="n">
-        <v>11.39399548371417</v>
+        <v>11.51404627982782</v>
       </c>
       <c r="P9" t="n">
-        <v>419.6209056004258</v>
+        <v>419.7896865902034</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24320,28 +24378,28 @@
         <v>0.0693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01994734790820672</v>
+        <v>0.004294091503656904</v>
       </c>
       <c r="J10" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002029992537549985</v>
+        <v>9.284701592449096e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>8.179820522931063</v>
+        <v>8.245813406112728</v>
       </c>
       <c r="N10" t="n">
-        <v>117.4260325832791</v>
+        <v>119.4128689571233</v>
       </c>
       <c r="O10" t="n">
-        <v>10.83632929470488</v>
+        <v>10.92761954668643</v>
       </c>
       <c r="P10" t="n">
-        <v>419.9992210538822</v>
+        <v>420.1443561232082</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24398,28 +24456,28 @@
         <v>0.0732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09290407777669442</v>
+        <v>0.07940376179841095</v>
       </c>
       <c r="J11" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004213454685361717</v>
+        <v>0.003055786532909388</v>
       </c>
       <c r="M11" t="n">
-        <v>8.342918533453847</v>
+        <v>8.40049053619199</v>
       </c>
       <c r="N11" t="n">
-        <v>124.4122154007004</v>
+        <v>125.8591977283023</v>
       </c>
       <c r="O11" t="n">
-        <v>11.1540223865967</v>
+        <v>11.21869857551678</v>
       </c>
       <c r="P11" t="n">
-        <v>416.2051718718183</v>
+        <v>416.3306778880089</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24476,28 +24534,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0858201471368728</v>
+        <v>0.07026713319777084</v>
       </c>
       <c r="J12" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003748397562723493</v>
+        <v>0.002481324248443162</v>
       </c>
       <c r="M12" t="n">
-        <v>8.51501924030201</v>
+        <v>8.57856232414343</v>
       </c>
       <c r="N12" t="n">
-        <v>113.3254322051084</v>
+        <v>115.269315367202</v>
       </c>
       <c r="O12" t="n">
-        <v>10.64544185109798</v>
+        <v>10.73635484543995</v>
       </c>
       <c r="P12" t="n">
-        <v>410.7453604059562</v>
+        <v>410.8980159000113</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24554,28 +24612,28 @@
         <v>0.0505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2717531694099862</v>
+        <v>0.2594543245312781</v>
       </c>
       <c r="J13" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02306679029079517</v>
+        <v>0.02104068168772</v>
       </c>
       <c r="M13" t="n">
-        <v>10.41210701086451</v>
+        <v>10.44762581369698</v>
       </c>
       <c r="N13" t="n">
-        <v>170.4160188271027</v>
+        <v>171.189223473224</v>
       </c>
       <c r="O13" t="n">
-        <v>13.05434865579676</v>
+        <v>13.08392997051054</v>
       </c>
       <c r="P13" t="n">
-        <v>400.3861632739001</v>
+        <v>400.5132360294056</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24613,7 +24671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N417"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50901,6 +50959,78 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-34.80160740538181,173.388820658108</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-34.80156068860115,173.38970894549894</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-34.801654537037905,173.39059029495866</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-34.80154395120658,173.39147135872884</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-34.801394996507184,173.39233626593693</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-34.8011556075937,173.393104131145</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-34.80097204850025,173.3939531914525</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-34.80052730668891,173.39466610266246</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-34.80009913012248,173.39535860835932</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-34.79962343682437,173.39597715608957</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-34.79914213893329,173.39660790001847</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>-34.79854340329279,173.39708096520835</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -18663,7 +18663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23581,6 +23581,16 @@
       </c>
       <c r="B491" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -18663,7 +18663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B492"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23591,6 +23591,16 @@
       </c>
       <c r="B492" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -23765,13 +23765,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0499</v>
+        <v>0.0623</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0571</v>
+        <v>0.0678</v>
       </c>
       <c r="I2" t="n">
         <v>-0.07361428808398632</v>
@@ -23843,13 +23843,13 @@
         <v>0.9090582384206078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.1033</v>
       </c>
       <c r="I3" t="n">
         <v>-0.04576618959005829</v>
@@ -23921,13 +23921,13 @@
         <v>0.8176622875792414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0568</v>
+        <v>0.0878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0711</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="n">
         <v>-0.03124730629542198</v>
@@ -23999,13 +23999,13 @@
         <v>0.7267278718836905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0693</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0941</v>
+        <v>0.1115</v>
       </c>
       <c r="I5" t="n">
         <v>-0.03561544739809588</v>
@@ -24077,13 +24077,13 @@
         <v>0.6354156520731886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0528</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0643</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.006808064323235328</v>
@@ -24155,13 +24155,13 @@
         <v>0.5441765722074275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0623</v>
+        <v>0.0644</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0771</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.04308214130632837</v>
@@ -24233,13 +24233,13 @@
         <v>0.4532553377627466</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0504</v>
+        <v>0.065</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0604</v>
+        <v>0.0961</v>
       </c>
       <c r="I8" t="n">
         <v>-0.02029434732107778</v>
@@ -24311,13 +24311,13 @@
         <v>0.3621477133636967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0539</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.1398</v>
       </c>
       <c r="I9" t="n">
         <v>0.005528063375617094</v>
@@ -24389,13 +24389,13 @@
         <v>0.2709175316790139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0565</v>
+        <v>0.0643</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0693</v>
+        <v>0.117</v>
       </c>
       <c r="I10" t="n">
         <v>0.004305059877814883</v>
@@ -24467,13 +24467,13 @@
         <v>0.1803993103271312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0595</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0732</v>
+        <v>0.1263</v>
       </c>
       <c r="I11" t="n">
         <v>0.07940660443356136</v>
@@ -24548,10 +24548,10 @@
         <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0593</v>
+        <v>0.0549</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="I12" t="n">
         <v>0.07025930586421769</v>
@@ -24623,13 +24623,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0436</v>
+        <v>0.0489</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0505</v>
+        <v>0.0759</v>
       </c>
       <c r="I13" t="n">
         <v>0.2594626926777222</v>

--- a/data/nzd0019/nzd0019.xlsx
+++ b/data/nzd0019/nzd0019.xlsx
@@ -533,7 +533,7 @@
         <v>420.92</v>
       </c>
       <c r="H2" t="n">
-        <v>403.3</v>
+        <v>403.47</v>
       </c>
       <c r="I2" t="n">
         <v>405.7</v>
@@ -601,7 +601,7 @@
         <v>431.08</v>
       </c>
       <c r="H4" t="n">
-        <v>413.58</v>
+        <v>414.23</v>
       </c>
       <c r="I4" t="n">
         <v>407.8</v>
@@ -681,7 +681,7 @@
         <v>422.37</v>
       </c>
       <c r="H6" t="n">
-        <v>411.12</v>
+        <v>410.82</v>
       </c>
       <c r="I6" t="n">
         <v>412.64</v>
@@ -729,7 +729,7 @@
         <v>450.55</v>
       </c>
       <c r="H7" t="n">
-        <v>436.83</v>
+        <v>437.58</v>
       </c>
       <c r="I7" t="n">
         <v>433.8</v>
@@ -777,7 +777,7 @@
         <v>443.99</v>
       </c>
       <c r="H8" t="n">
-        <v>433.42</v>
+        <v>432.94</v>
       </c>
       <c r="I8" t="n">
         <v>435.06</v>
@@ -823,7 +823,7 @@
         <v>432.98</v>
       </c>
       <c r="H9" t="n">
-        <v>424.08</v>
+        <v>423.73</v>
       </c>
       <c r="I9" t="n">
         <v>421.96</v>
@@ -869,7 +869,7 @@
         <v>423.53</v>
       </c>
       <c r="H10" t="n">
-        <v>412.04</v>
+        <v>412.81</v>
       </c>
       <c r="I10" t="n">
         <v>407.98</v>
@@ -913,7 +913,7 @@
         <v>416.56</v>
       </c>
       <c r="H11" t="n">
-        <v>404.68</v>
+        <v>405.25</v>
       </c>
       <c r="I11" t="n">
         <v>397.63</v>
@@ -961,7 +961,7 @@
         <v>431</v>
       </c>
       <c r="H12" t="n">
-        <v>417.31</v>
+        <v>417.35</v>
       </c>
       <c r="I12" t="n">
         <v>416.41</v>
@@ -1009,7 +1009,7 @@
         <v>436.31</v>
       </c>
       <c r="H13" t="n">
-        <v>428.92</v>
+        <v>428.56</v>
       </c>
       <c r="I13" t="n">
         <v>425.53</v>
@@ -1057,7 +1057,7 @@
         <v>433.14</v>
       </c>
       <c r="H14" t="n">
-        <v>425.93</v>
+        <v>425.43</v>
       </c>
       <c r="I14" t="n">
         <v>420.35</v>
@@ -1105,7 +1105,7 @@
         <v>451.99</v>
       </c>
       <c r="H15" t="n">
-        <v>441.76</v>
+        <v>442.51</v>
       </c>
       <c r="I15" t="n">
         <v>434.09</v>
@@ -1153,7 +1153,7 @@
         <v>445.49</v>
       </c>
       <c r="H16" t="n">
-        <v>426.55</v>
+        <v>427.49</v>
       </c>
       <c r="I16" t="n">
         <v>420.95</v>
@@ -1199,7 +1199,7 @@
         <v>440.17</v>
       </c>
       <c r="H17" t="n">
-        <v>430.18</v>
+        <v>429.75</v>
       </c>
       <c r="I17" t="n">
         <v>428.22</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>424.79</v>
+        <v>424.41</v>
       </c>
       <c r="I18" t="n">
         <v>420.64</v>
@@ -1301,7 +1301,7 @@
         <v>444.73</v>
       </c>
       <c r="H20" t="n">
-        <v>432.17</v>
+        <v>432.8</v>
       </c>
       <c r="I20" t="n">
         <v>429.81</v>
@@ -1347,7 +1347,7 @@
         <v>446.37</v>
       </c>
       <c r="H21" t="n">
-        <v>435.2</v>
+        <v>434.98</v>
       </c>
       <c r="I21" t="n">
         <v>431.4</v>
@@ -1395,7 +1395,7 @@
         <v>438.35</v>
       </c>
       <c r="H22" t="n">
-        <v>419.27</v>
+        <v>419.99</v>
       </c>
       <c r="I22" t="n">
         <v>417.95</v>
@@ -1443,7 +1443,7 @@
         <v>450.66</v>
       </c>
       <c r="H23" t="n">
-        <v>438.88</v>
+        <v>439.64</v>
       </c>
       <c r="I23" t="n">
         <v>432.84</v>
@@ -1491,7 +1491,7 @@
         <v>451.36</v>
       </c>
       <c r="H24" t="n">
-        <v>436.88</v>
+        <v>437.03</v>
       </c>
       <c r="I24" t="n">
         <v>437.56</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>421.14</v>
+        <v>420.64</v>
       </c>
       <c r="I25" t="n">
         <v>413.88</v>
@@ -1609,7 +1609,7 @@
         <v>421.61</v>
       </c>
       <c r="H27" t="n">
-        <v>408.27</v>
+        <v>408.73</v>
       </c>
       <c r="I27" t="n">
         <v>404.46</v>
@@ -1655,7 +1655,7 @@
         <v>440.77</v>
       </c>
       <c r="H28" t="n">
-        <v>427.92</v>
+        <v>427.97</v>
       </c>
       <c r="I28" t="n">
         <v>424.47</v>
@@ -1703,7 +1703,7 @@
         <v>438.77</v>
       </c>
       <c r="H29" t="n">
-        <v>429.44</v>
+        <v>428.99</v>
       </c>
       <c r="I29" t="n">
         <v>429.38</v>
@@ -1749,7 +1749,7 @@
         <v>436.84</v>
       </c>
       <c r="H30" t="n">
-        <v>418.5</v>
+        <v>419.14</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1787,7 +1787,7 @@
         <v>431.5</v>
       </c>
       <c r="H31" t="n">
-        <v>418.65</v>
+        <v>418.36</v>
       </c>
       <c r="I31" t="n">
         <v>418.36</v>
@@ -1835,7 +1835,7 @@
         <v>435.73</v>
       </c>
       <c r="H32" t="n">
-        <v>425.45</v>
+        <v>425.47</v>
       </c>
       <c r="I32" t="n">
         <v>422.81</v>
@@ -1883,7 +1883,7 @@
         <v>448.83</v>
       </c>
       <c r="H33" t="n">
-        <v>431.2</v>
+        <v>432.13</v>
       </c>
       <c r="I33" t="n">
         <v>428.44</v>
@@ -1931,7 +1931,7 @@
         <v>437.45</v>
       </c>
       <c r="H34" t="n">
-        <v>429.77</v>
+        <v>429.82</v>
       </c>
       <c r="I34" t="n">
         <v>425.22</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>424.7</v>
+        <v>424.22</v>
       </c>
       <c r="I35" t="n">
         <v>420.07</v>
@@ -2017,7 +2017,7 @@
         <v>425.99</v>
       </c>
       <c r="H36" t="n">
-        <v>411.89</v>
+        <v>412</v>
       </c>
       <c r="I36" t="n">
         <v>410.41</v>
@@ -2065,7 +2065,7 @@
         <v>422.05</v>
       </c>
       <c r="H37" t="n">
-        <v>414.03</v>
+        <v>413.68</v>
       </c>
       <c r="I37" t="n">
         <v>414.84</v>
@@ -2145,7 +2145,7 @@
         <v>432.86</v>
       </c>
       <c r="H39" t="n">
-        <v>421.28</v>
+        <v>422.03</v>
       </c>
       <c r="I39" t="n">
         <v>420.07</v>
@@ -2189,7 +2189,7 @@
         <v>438.49</v>
       </c>
       <c r="H40" t="n">
-        <v>422.94</v>
+        <v>423.52</v>
       </c>
       <c r="I40" t="n">
         <v>419.13</v>
@@ -2269,7 +2269,7 @@
         <v>437.6</v>
       </c>
       <c r="H42" t="n">
-        <v>424.92</v>
+        <v>424.42</v>
       </c>
       <c r="I42" t="n">
         <v>419.48</v>
@@ -2311,7 +2311,7 @@
         <v>447.73</v>
       </c>
       <c r="H43" t="n">
-        <v>437.74</v>
+        <v>437.16</v>
       </c>
       <c r="I43" t="n">
         <v>437.09</v>
@@ -2349,7 +2349,7 @@
         <v>427.42</v>
       </c>
       <c r="H44" t="n">
-        <v>419.39</v>
+        <v>419.51</v>
       </c>
       <c r="I44" t="n">
         <v>416.28</v>
@@ -2397,7 +2397,7 @@
         <v>427.33</v>
       </c>
       <c r="H45" t="n">
-        <v>412.62</v>
+        <v>413.24</v>
       </c>
       <c r="I45" t="n">
         <v>407.43</v>
@@ -2477,7 +2477,7 @@
         <v>438.18</v>
       </c>
       <c r="H47" t="n">
-        <v>425.4</v>
+        <v>425.15</v>
       </c>
       <c r="I47" t="n">
         <v>425.98</v>
@@ -2525,7 +2525,7 @@
         <v>429.01</v>
       </c>
       <c r="H48" t="n">
-        <v>416.61</v>
+        <v>416.78</v>
       </c>
       <c r="I48" t="n">
         <v>411.67</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>424.26</v>
+        <v>423.69</v>
       </c>
       <c r="I49" t="n">
         <v>420.58</v>
@@ -2609,7 +2609,7 @@
         <v>427.96</v>
       </c>
       <c r="H50" t="n">
-        <v>416.86</v>
+        <v>416.26</v>
       </c>
       <c r="I50" t="n">
         <v>422.03</v>
@@ -2653,7 +2653,7 @@
         <v>416.26</v>
       </c>
       <c r="H51" t="n">
-        <v>410.44</v>
+        <v>409.84</v>
       </c>
       <c r="I51" t="n">
         <v>406.14</v>
@@ -2687,7 +2687,7 @@
         <v>422.42</v>
       </c>
       <c r="H52" t="n">
-        <v>410.79</v>
+        <v>410.64</v>
       </c>
       <c r="I52" t="n">
         <v>410.72</v>
@@ -2731,7 +2731,7 @@
         <v>423.56</v>
       </c>
       <c r="H53" t="n">
-        <v>411.82</v>
+        <v>411.94</v>
       </c>
       <c r="I53" t="n">
         <v>414.08</v>
@@ -2777,7 +2777,7 @@
         <v>435.41</v>
       </c>
       <c r="H54" t="n">
-        <v>416.79</v>
+        <v>417.16</v>
       </c>
       <c r="I54" t="n">
         <v>415.76</v>
@@ -2823,7 +2823,7 @@
         <v>434.81</v>
       </c>
       <c r="H55" t="n">
-        <v>419.27</v>
+        <v>419.97</v>
       </c>
       <c r="I55" t="n">
         <v>416.72</v>
@@ -2899,7 +2899,7 @@
         <v>423.16</v>
       </c>
       <c r="H57" t="n">
-        <v>411.55</v>
+        <v>412.38</v>
       </c>
       <c r="I57" t="n">
         <v>407.87</v>
@@ -2939,7 +2939,7 @@
         <v>444.86</v>
       </c>
       <c r="H58" t="n">
-        <v>426.73</v>
+        <v>427.35</v>
       </c>
       <c r="I58" t="n">
         <v>418.92</v>
@@ -2977,7 +2977,7 @@
         <v>441.34</v>
       </c>
       <c r="H59" t="n">
-        <v>427.46</v>
+        <v>427.89</v>
       </c>
       <c r="I59" t="n">
         <v>426.58</v>
@@ -3025,7 +3025,7 @@
         <v>442.85</v>
       </c>
       <c r="H60" t="n">
-        <v>430.99</v>
+        <v>431.16</v>
       </c>
       <c r="I60" t="n">
         <v>428.9</v>
@@ -3073,7 +3073,7 @@
         <v>436.65</v>
       </c>
       <c r="H61" t="n">
-        <v>426.07</v>
+        <v>426.1</v>
       </c>
       <c r="I61" t="n">
         <v>424.13</v>
@@ -3115,7 +3115,7 @@
         <v>443.38</v>
       </c>
       <c r="H62" t="n">
-        <v>428.9</v>
+        <v>429.85</v>
       </c>
       <c r="I62" t="n">
         <v>424.84</v>
@@ -3163,7 +3163,7 @@
         <v>431.59</v>
       </c>
       <c r="H63" t="n">
-        <v>422.54</v>
+        <v>422.31</v>
       </c>
       <c r="I63" t="n">
         <v>419.9</v>
@@ -3211,7 +3211,7 @@
         <v>450.41</v>
       </c>
       <c r="H64" t="n">
-        <v>432.81</v>
+        <v>433.07</v>
       </c>
       <c r="I64" t="n">
         <v>421.43</v>
@@ -3259,7 +3259,7 @@
         <v>440.58</v>
       </c>
       <c r="H65" t="n">
-        <v>426.13</v>
+        <v>426.31</v>
       </c>
       <c r="I65" t="n">
         <v>427.86</v>
@@ -3307,7 +3307,7 @@
         <v>451.32</v>
       </c>
       <c r="H66" t="n">
-        <v>445.37</v>
+        <v>445.79</v>
       </c>
       <c r="I66" t="n">
         <v>436.9</v>
@@ -3355,7 +3355,7 @@
         <v>456.57</v>
       </c>
       <c r="H67" t="n">
-        <v>447.06</v>
+        <v>447.31</v>
       </c>
       <c r="I67" t="n">
         <v>447.81</v>
@@ -3403,7 +3403,7 @@
         <v>450.32</v>
       </c>
       <c r="H68" t="n">
-        <v>440.87</v>
+        <v>440.41</v>
       </c>
       <c r="I68" t="n">
         <v>440.35</v>
@@ -3451,7 +3451,7 @@
         <v>450.63</v>
       </c>
       <c r="H69" t="n">
-        <v>441.59</v>
+        <v>441.21</v>
       </c>
       <c r="I69" t="n">
         <v>439.78</v>
@@ -3499,7 +3499,7 @@
         <v>448.85</v>
       </c>
       <c r="H70" t="n">
-        <v>440.14</v>
+        <v>440.87</v>
       </c>
       <c r="I70" t="n">
         <v>431.1</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>416.37</v>
+        <v>416.44</v>
       </c>
       <c r="I71" t="n">
         <v>413.37</v>
@@ -3585,7 +3585,7 @@
         <v>442.18</v>
       </c>
       <c r="H72" t="n">
-        <v>430.15</v>
+        <v>430.25</v>
       </c>
       <c r="I72" t="n">
         <v>429.92</v>
@@ -3633,7 +3633,7 @@
         <v>428.23</v>
       </c>
       <c r="H73" t="n">
-        <v>415.41</v>
+        <v>415.28</v>
       </c>
       <c r="I73" t="n">
         <v>416.29</v>
@@ -3677,7 +3677,7 @@
         <v>426.18</v>
       </c>
       <c r="H74" t="n">
-        <v>415.61</v>
+        <v>415.09</v>
       </c>
       <c r="I74" t="n">
         <v>408.27</v>
@@ -3721,7 +3721,7 @@
         <v>425.77</v>
       </c>
       <c r="H75" t="n">
-        <v>411.6</v>
+        <v>411.78</v>
       </c>
       <c r="I75" t="n">
         <v>413.81</v>
@@ -3769,7 +3769,7 @@
         <v>430.5</v>
       </c>
       <c r="H76" t="n">
-        <v>419.94</v>
+        <v>420.19</v>
       </c>
       <c r="I76" t="n">
         <v>417.99</v>
@@ -3817,7 +3817,7 @@
         <v>436.15</v>
       </c>
       <c r="H77" t="n">
-        <v>428.32</v>
+        <v>427.95</v>
       </c>
       <c r="I77" t="n">
         <v>422.66</v>
@@ -3865,7 +3865,7 @@
         <v>442.55</v>
       </c>
       <c r="H78" t="n">
-        <v>433.57</v>
+        <v>433.12</v>
       </c>
       <c r="I78" t="n">
         <v>431.06</v>
@@ -3951,7 +3951,7 @@
         <v>440.27</v>
       </c>
       <c r="H80" t="n">
-        <v>429.87</v>
+        <v>429.44</v>
       </c>
       <c r="I80" t="n">
         <v>430.67</v>
@@ -3999,7 +3999,7 @@
         <v>418.87</v>
       </c>
       <c r="H81" t="n">
-        <v>407.77</v>
+        <v>408.77</v>
       </c>
       <c r="I81" t="n">
         <v>406.85</v>
@@ -4085,7 +4085,7 @@
         <v>443.85</v>
       </c>
       <c r="H83" t="n">
-        <v>433.49</v>
+        <v>434.13</v>
       </c>
       <c r="I83" t="n">
         <v>429.73</v>
@@ -4173,7 +4173,7 @@
         <v>423.4</v>
       </c>
       <c r="H85" t="n">
-        <v>409.92</v>
+        <v>409.64</v>
       </c>
       <c r="I85" t="n">
         <v>408.43</v>
@@ -4245,7 +4245,7 @@
         <v>432.6</v>
       </c>
       <c r="H87" t="n">
-        <v>420.54</v>
+        <v>421.26</v>
       </c>
       <c r="I87" t="n">
         <v>419.17</v>
@@ -4291,7 +4291,7 @@
         <v>433.76</v>
       </c>
       <c r="H88" t="n">
-        <v>423.3</v>
+        <v>422.83</v>
       </c>
       <c r="I88" t="n">
         <v>421.79</v>
@@ -4339,7 +4339,7 @@
         <v>441.37</v>
       </c>
       <c r="H89" t="n">
-        <v>428.23</v>
+        <v>428.83</v>
       </c>
       <c r="I89" t="n">
         <v>424.57</v>
@@ -4383,7 +4383,7 @@
         <v>438.08</v>
       </c>
       <c r="H90" t="n">
-        <v>415.42</v>
+        <v>415.52</v>
       </c>
       <c r="I90" t="n">
         <v>413.83</v>
@@ -4427,7 +4427,7 @@
         <v>419.96</v>
       </c>
       <c r="H91" t="n">
-        <v>406.37</v>
+        <v>406.16</v>
       </c>
       <c r="I91" t="n">
         <v>406.57</v>
@@ -4471,7 +4471,7 @@
         <v>435.51</v>
       </c>
       <c r="H92" t="n">
-        <v>420.69</v>
+        <v>421.19</v>
       </c>
       <c r="I92" t="n">
         <v>420.72</v>
@@ -4519,7 +4519,7 @@
         <v>425.65</v>
       </c>
       <c r="H93" t="n">
-        <v>421.77</v>
+        <v>421.23</v>
       </c>
       <c r="I93" t="n">
         <v>412.75</v>
@@ -4565,7 +4565,7 @@
         <v>428.28</v>
       </c>
       <c r="H94" t="n">
-        <v>414.24</v>
+        <v>414.29</v>
       </c>
       <c r="I94" t="n">
         <v>413.62</v>
@@ -4613,7 +4613,7 @@
         <v>441.81</v>
       </c>
       <c r="H95" t="n">
-        <v>428.51</v>
+        <v>429.16</v>
       </c>
       <c r="I95" t="n">
         <v>422.23</v>
@@ -4659,7 +4659,7 @@
         <v>487.03</v>
       </c>
       <c r="H96" t="n">
-        <v>470.89</v>
+        <v>471.51</v>
       </c>
       <c r="I96" t="n">
         <v>473.82</v>
@@ -4703,7 +4703,7 @@
         <v>470.96</v>
       </c>
       <c r="H97" t="n">
-        <v>454.95</v>
+        <v>454.52</v>
       </c>
       <c r="I97" t="n">
         <v>453.99</v>
@@ -4747,7 +4747,7 @@
         <v>444.08</v>
       </c>
       <c r="H98" t="n">
-        <v>436.55</v>
+        <v>436.93</v>
       </c>
       <c r="I98" t="n">
         <v>428.35</v>
@@ -4853,7 +4853,7 @@
         <v>444.85</v>
       </c>
       <c r="H101" t="n">
-        <v>433.33</v>
+        <v>433.91</v>
       </c>
       <c r="I101" t="n">
         <v>426.53</v>
@@ -4901,7 +4901,7 @@
         <v>437.6</v>
       </c>
       <c r="H102" t="n">
-        <v>428.55</v>
+        <v>428.28</v>
       </c>
       <c r="I102" t="n">
         <v>424.65</v>
@@ -4947,7 +4947,7 @@
         <v>447.5</v>
       </c>
       <c r="H103" t="n">
-        <v>438.54</v>
+        <v>438.22</v>
       </c>
       <c r="I103" t="n">
         <v>437.45</v>
@@ -4995,7 +4995,7 @@
         <v>438.59</v>
       </c>
       <c r="H104" t="n">
-        <v>431.76</v>
+        <v>431.54</v>
       </c>
       <c r="I104" t="n">
         <v>429.32</v>
@@ -5107,7 +5107,7 @@
         <v>427.76</v>
       </c>
       <c r="H107" t="n">
-        <v>420.65</v>
+        <v>420.4</v>
       </c>
       <c r="I107" t="n">
         <v>411.06</v>
@@ -5149,7 +5149,7 @@
         <v>423.37</v>
       </c>
       <c r="H108" t="n">
-        <v>427.09</v>
+        <v>426.49</v>
       </c>
       <c r="I108" t="n">
         <v>416.4</v>
@@ -5191,7 +5191,7 @@
         <v>422.06</v>
       </c>
       <c r="H109" t="n">
-        <v>406.61</v>
+        <v>406.83</v>
       </c>
       <c r="I109" t="n">
         <v>405.31</v>
@@ -5239,7 +5239,7 @@
         <v>418.12</v>
       </c>
       <c r="H110" t="n">
-        <v>407.03</v>
+        <v>407.16</v>
       </c>
       <c r="I110" t="n">
         <v>403.63</v>
@@ -5327,7 +5327,7 @@
         <v>428.6</v>
       </c>
       <c r="H112" t="n">
-        <v>419.45</v>
+        <v>419.38</v>
       </c>
       <c r="I112" t="n">
         <v>417.06</v>
@@ -5369,7 +5369,7 @@
         <v>434.44</v>
       </c>
       <c r="H113" t="n">
-        <v>422.27</v>
+        <v>422.65</v>
       </c>
       <c r="I113" t="n">
         <v>421.05</v>
@@ -5403,7 +5403,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>419.88</v>
+        <v>420.23</v>
       </c>
       <c r="I114" t="n">
         <v>418.23</v>
@@ -5485,7 +5485,7 @@
         <v>430.36</v>
       </c>
       <c r="H116" t="n">
-        <v>418.88</v>
+        <v>419.65</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
         <v>432.62</v>
       </c>
       <c r="H117" t="n">
-        <v>420.18</v>
+        <v>419.87</v>
       </c>
       <c r="I117" t="n">
         <v>419.96</v>
@@ -5585,7 +5585,7 @@
         <v>429.26</v>
       </c>
       <c r="H119" t="n">
-        <v>419.42</v>
+        <v>419.25</v>
       </c>
       <c r="I119" t="n">
         <v>415.98</v>
@@ -5633,7 +5633,7 @@
         <v>427.34</v>
       </c>
       <c r="H120" t="n">
-        <v>414.87</v>
+        <v>414.17</v>
       </c>
       <c r="I120" t="n">
         <v>407.26</v>
@@ -5677,7 +5677,7 @@
         <v>411.08</v>
       </c>
       <c r="H121" t="n">
-        <v>404.26</v>
+        <v>403.96</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5749,7 +5749,7 @@
         <v>413.68</v>
       </c>
       <c r="H123" t="n">
-        <v>410.44</v>
+        <v>409.94</v>
       </c>
       <c r="I123" t="n">
         <v>411.88</v>
@@ -5851,7 +5851,7 @@
         <v>419.13</v>
       </c>
       <c r="H126" t="n">
-        <v>410.56</v>
+        <v>410.97</v>
       </c>
       <c r="I126" t="n">
         <v>411.39</v>
@@ -5899,7 +5899,7 @@
         <v>417.44</v>
       </c>
       <c r="H127" t="n">
-        <v>410.79</v>
+        <v>410.29</v>
       </c>
       <c r="I127" t="n">
         <v>408.87</v>
@@ -5941,7 +5941,7 @@
         <v>412.84</v>
       </c>
       <c r="H128" t="n">
-        <v>405.5</v>
+        <v>406.15</v>
       </c>
       <c r="I128" t="n">
         <v>399.53</v>
@@ -5989,7 +5989,7 @@
         <v>403.3</v>
       </c>
       <c r="H129" t="n">
-        <v>393.8</v>
+        <v>394.78</v>
       </c>
       <c r="I129" t="n">
         <v>387.05</v>
@@ -6025,7 +6025,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>415.86</v>
+        <v>416.54</v>
       </c>
       <c r="I130" t="n">
         <v>416.95</v>
@@ -6073,7 +6073,7 @@
         <v>438.1</v>
       </c>
       <c r="H131" t="n">
-        <v>430.71</v>
+        <v>430.88</v>
       </c>
       <c r="I131" t="n">
         <v>425.94</v>
@@ -6121,7 +6121,7 @@
         <v>436.37</v>
       </c>
       <c r="H132" t="n">
-        <v>425.49</v>
+        <v>425.36</v>
       </c>
       <c r="I132" t="n">
         <v>423.91</v>
@@ -6199,7 +6199,7 @@
         <v>435.53</v>
       </c>
       <c r="H134" t="n">
-        <v>428.04</v>
+        <v>427.69</v>
       </c>
       <c r="I134" t="n">
         <v>425.93</v>
@@ -6311,7 +6311,7 @@
         <v>425.1</v>
       </c>
       <c r="H137" t="n">
-        <v>418.51</v>
+        <v>418.38</v>
       </c>
       <c r="I137" t="n">
         <v>414.01</v>
@@ -6353,7 +6353,7 @@
         <v>427.36</v>
       </c>
       <c r="H138" t="n">
-        <v>413.53</v>
+        <v>413.6</v>
       </c>
       <c r="I138" t="n">
         <v>412.53</v>
@@ -6393,7 +6393,7 @@
         <v>427.9</v>
       </c>
       <c r="H139" t="n">
-        <v>417.69</v>
+        <v>417.03</v>
       </c>
       <c r="I139" t="n">
         <v>419.75</v>
@@ -6441,7 +6441,7 @@
         <v>423.5</v>
       </c>
       <c r="H140" t="n">
-        <v>406.87</v>
+        <v>407.32</v>
       </c>
       <c r="I140" t="n">
         <v>402.11</v>
@@ -6483,7 +6483,7 @@
         <v>411.14</v>
       </c>
       <c r="H141" t="n">
-        <v>399.37</v>
+        <v>398.97</v>
       </c>
       <c r="I141" t="n">
         <v>395.59</v>
@@ -6531,7 +6531,7 @@
         <v>412.22</v>
       </c>
       <c r="H142" t="n">
-        <v>405.06</v>
+        <v>404.68</v>
       </c>
       <c r="I142" t="n">
         <v>404.52</v>
@@ -6571,7 +6571,7 @@
         <v>416.88</v>
       </c>
       <c r="H143" t="n">
-        <v>411.28</v>
+        <v>410.73</v>
       </c>
       <c r="I143" t="n">
         <v>405.69</v>
@@ -6633,7 +6633,7 @@
         <v>438.83</v>
       </c>
       <c r="H145" t="n">
-        <v>426.99</v>
+        <v>426.76</v>
       </c>
       <c r="I145" t="n">
         <v>424.97</v>
@@ -6681,7 +6681,7 @@
         <v>430.47</v>
       </c>
       <c r="H146" t="n">
-        <v>419.29</v>
+        <v>418.87</v>
       </c>
       <c r="I146" t="n">
         <v>417.76</v>
@@ -6723,7 +6723,7 @@
         <v>441.9</v>
       </c>
       <c r="H147" t="n">
-        <v>429.88</v>
+        <v>429.51</v>
       </c>
       <c r="I147" t="n">
         <v>429.03</v>
@@ -6771,7 +6771,7 @@
         <v>434.53</v>
       </c>
       <c r="H148" t="n">
-        <v>421.75</v>
+        <v>422.18</v>
       </c>
       <c r="I148" t="n">
         <v>421.61</v>
@@ -6819,7 +6819,7 @@
         <v>447.42</v>
       </c>
       <c r="H149" t="n">
-        <v>431.06</v>
+        <v>431.21</v>
       </c>
       <c r="I149" t="n">
         <v>429.43</v>
@@ -6901,7 +6901,7 @@
         <v>444.76</v>
       </c>
       <c r="H151" t="n">
-        <v>432.39</v>
+        <v>432.74</v>
       </c>
       <c r="I151" t="n">
         <v>429.79</v>
@@ -6997,7 +6997,7 @@
         <v>435.98</v>
       </c>
       <c r="H154" t="n">
-        <v>430.08</v>
+        <v>429.73</v>
       </c>
       <c r="I154" t="n">
         <v>424.46</v>
@@ -7037,7 +7037,7 @@
         <v>441.44</v>
       </c>
       <c r="H155" t="n">
-        <v>431.63</v>
+        <v>431.21</v>
       </c>
       <c r="I155" t="n">
         <v>431.66</v>
@@ -7085,7 +7085,7 @@
         <v>444.67</v>
       </c>
       <c r="H156" t="n">
-        <v>432.63</v>
+        <v>432.76</v>
       </c>
       <c r="I156" t="n">
         <v>434.29</v>
@@ -7167,7 +7167,7 @@
         <v>420.56</v>
       </c>
       <c r="H158" t="n">
-        <v>406.55</v>
+        <v>406.72</v>
       </c>
       <c r="I158" t="n">
         <v>404.86</v>
@@ -7215,7 +7215,7 @@
         <v>422.51</v>
       </c>
       <c r="H159" t="n">
-        <v>411.14</v>
+        <v>411.97</v>
       </c>
       <c r="I159" t="n">
         <v>403.62</v>
@@ -7263,7 +7263,7 @@
         <v>422.33</v>
       </c>
       <c r="H160" t="n">
-        <v>410.74</v>
+        <v>410.26</v>
       </c>
       <c r="I160" t="n">
         <v>407.41</v>
@@ -7311,7 +7311,7 @@
         <v>430.49</v>
       </c>
       <c r="H161" t="n">
-        <v>416.31</v>
+        <v>417.04</v>
       </c>
       <c r="I161" t="n">
         <v>415.48</v>
@@ -7385,7 +7385,7 @@
         <v>445.59</v>
       </c>
       <c r="H163" t="n">
-        <v>433</v>
+        <v>433.37</v>
       </c>
       <c r="I163" t="n">
         <v>431.28</v>
@@ -7425,7 +7425,7 @@
         <v>433.87</v>
       </c>
       <c r="H164" t="n">
-        <v>423.04</v>
+        <v>422.74</v>
       </c>
       <c r="I164" t="n">
         <v>421.06</v>
@@ -7499,7 +7499,7 @@
         <v>429.2</v>
       </c>
       <c r="H166" t="n">
-        <v>418.94</v>
+        <v>419.59</v>
       </c>
       <c r="I166" t="n">
         <v>417.44</v>
@@ -7547,7 +7547,7 @@
         <v>430.45</v>
       </c>
       <c r="H167" t="n">
-        <v>414.5</v>
+        <v>414.15</v>
       </c>
       <c r="I167" t="n">
         <v>411.63</v>
@@ -7593,7 +7593,7 @@
         <v>405.36</v>
       </c>
       <c r="H168" t="n">
-        <v>395.59</v>
+        <v>396.02</v>
       </c>
       <c r="I168" t="n">
         <v>401.01</v>
@@ -7641,7 +7641,7 @@
         <v>440.93</v>
       </c>
       <c r="H169" t="n">
-        <v>426.79</v>
+        <v>427.04</v>
       </c>
       <c r="I169" t="n">
         <v>424.55</v>
@@ -7757,7 +7757,7 @@
         <v>432.08</v>
       </c>
       <c r="H172" t="n">
-        <v>415.86</v>
+        <v>415.55</v>
       </c>
       <c r="I172" t="n">
         <v>414.53</v>
@@ -7799,7 +7799,7 @@
         <v>428.25</v>
       </c>
       <c r="H173" t="n">
-        <v>410.62</v>
+        <v>411.24</v>
       </c>
       <c r="I173" t="n">
         <v>407.76</v>
@@ -7845,7 +7845,7 @@
         <v>419.83</v>
       </c>
       <c r="H174" t="n">
-        <v>402.1</v>
+        <v>402.92</v>
       </c>
       <c r="I174" t="n">
         <v>395.14</v>
@@ -7935,7 +7935,7 @@
         <v>435.54</v>
       </c>
       <c r="H176" t="n">
-        <v>428.02</v>
+        <v>427.6</v>
       </c>
       <c r="I176" t="n">
         <v>423.66</v>
@@ -7983,7 +7983,7 @@
         <v>432.1</v>
       </c>
       <c r="H177" t="n">
-        <v>419.17</v>
+        <v>418.6</v>
       </c>
       <c r="I177" t="n">
         <v>420.8</v>
@@ -8031,7 +8031,7 @@
         <v>434.08</v>
       </c>
       <c r="H178" t="n">
-        <v>421.66</v>
+        <v>421.81</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -8069,7 +8069,7 @@
         <v>426.34</v>
       </c>
       <c r="H179" t="n">
-        <v>416.69</v>
+        <v>417.63</v>
       </c>
       <c r="I179" t="n">
         <v>411.86</v>
@@ -8117,7 +8117,7 @@
         <v>441.24</v>
       </c>
       <c r="H180" t="n">
-        <v>431.08</v>
+        <v>431.51</v>
       </c>
       <c r="I180" t="n">
         <v>424.81</v>
@@ -8159,7 +8159,7 @@
         <v>431.76</v>
       </c>
       <c r="H181" t="n">
-        <v>417.38</v>
+        <v>417.75</v>
       </c>
       <c r="I181" t="n">
         <v>416.95</v>
@@ -8201,7 +8201,7 @@
         <v>402.31</v>
       </c>
       <c r="H182" t="n">
-        <v>386.79</v>
+        <v>386.38</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
@@ -8311,7 +8311,7 @@
         <v>426.11</v>
       </c>
       <c r="H185" t="n">
-        <v>418.8</v>
+        <v>418.25</v>
       </c>
       <c r="I185" t="n">
         <v>415.68</v>
@@ -8353,7 +8353,7 @@
         <v>429.39</v>
       </c>
       <c r="H186" t="n">
-        <v>421.58</v>
+        <v>420.84</v>
       </c>
       <c r="I186" t="n">
         <v>419.15</v>
@@ -8489,7 +8489,7 @@
         <v>440.06</v>
       </c>
       <c r="H190" t="n">
-        <v>425.31</v>
+        <v>425.67</v>
       </c>
       <c r="I190" t="n">
         <v>421.97</v>
@@ -8525,7 +8525,7 @@
         <v>430.63</v>
       </c>
       <c r="H191" t="n">
-        <v>420.79</v>
+        <v>420.31</v>
       </c>
       <c r="I191" t="n">
         <v>421.59</v>
@@ -8567,7 +8567,7 @@
         <v>434.83</v>
       </c>
       <c r="H192" t="n">
-        <v>419.62</v>
+        <v>419.74</v>
       </c>
       <c r="I192" t="n">
         <v>418.38</v>
@@ -8615,7 +8615,7 @@
         <v>444.21</v>
       </c>
       <c r="H193" t="n">
-        <v>426.6</v>
+        <v>427.08</v>
       </c>
       <c r="I193" t="n">
         <v>423.99</v>
@@ -8663,7 +8663,7 @@
         <v>429.33</v>
       </c>
       <c r="H194" t="n">
-        <v>419.62</v>
+        <v>419.17</v>
       </c>
       <c r="I194" t="n">
         <v>417.18</v>
@@ -8709,7 +8709,7 @@
         <v>434.9</v>
       </c>
       <c r="H195" t="n">
-        <v>428.44</v>
+        <v>427.84</v>
       </c>
       <c r="I195" t="n">
         <v>423.78</v>
@@ -8757,7 +8757,7 @@
         <v>410.46</v>
       </c>
       <c r="H196" t="n">
-        <v>401.68</v>
+        <v>401.08</v>
       </c>
       <c r="I196" t="n">
         <v>404.4</v>
@@ -8805,7 +8805,7 @@
         <v>417.33</v>
       </c>
       <c r="H197" t="n">
-        <v>408.07</v>
+        <v>407.34</v>
       </c>
       <c r="I197" t="n">
         <v>401.88</v>
@@ -8853,7 +8853,7 @@
         <v>436.35</v>
       </c>
       <c r="H198" t="n">
-        <v>417.12</v>
+        <v>417.52</v>
       </c>
       <c r="I198" t="n">
         <v>418.41</v>
@@ -8899,7 +8899,7 @@
         <v>430.74</v>
       </c>
       <c r="H199" t="n">
-        <v>418.86</v>
+        <v>418.66</v>
       </c>
       <c r="I199" t="n">
         <v>413.99</v>
@@ -8943,7 +8943,7 @@
         <v>432.06</v>
       </c>
       <c r="H200" t="n">
-        <v>417.51</v>
+        <v>417.79</v>
       </c>
       <c r="I200" t="n">
         <v>414.31</v>
@@ -8979,7 +8979,7 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>413.45</v>
+        <v>414.28</v>
       </c>
       <c r="I201" t="n">
         <v>406.95</v>
@@ -9027,7 +9027,7 @@
         <v>440.15</v>
       </c>
       <c r="H202" t="n">
-        <v>429.55</v>
+        <v>429</v>
       </c>
       <c r="I202" t="n">
         <v>429.38</v>
@@ -9075,7 +9075,7 @@
         <v>436.03</v>
       </c>
       <c r="H203" t="n">
-        <v>429.06</v>
+        <v>428.68</v>
       </c>
       <c r="I203" t="n">
         <v>425.11</v>
@@ -9123,7 +9123,7 @@
         <v>429.86</v>
       </c>
       <c r="H204" t="n">
-        <v>416.05</v>
+        <v>416.14</v>
       </c>
       <c r="I204" t="n">
         <v>415.19</v>
@@ -9243,7 +9243,7 @@
         <v>438.84</v>
       </c>
       <c r="H207" t="n">
-        <v>421.9</v>
+        <v>422.13</v>
       </c>
       <c r="I207" t="n">
         <v>421.28</v>
@@ -9317,7 +9317,7 @@
         <v>424.34</v>
       </c>
       <c r="H209" t="n">
-        <v>409.31</v>
+        <v>410.3</v>
       </c>
       <c r="I209" t="n">
         <v>401.85</v>
@@ -9355,7 +9355,7 @@
         <v>440.27</v>
       </c>
       <c r="H210" t="n">
-        <v>428.75</v>
+        <v>429.3</v>
       </c>
       <c r="I210" t="n">
         <v>430.95</v>
@@ -9397,7 +9397,7 @@
         <v>447.14</v>
       </c>
       <c r="H211" t="n">
-        <v>429.71</v>
+        <v>430.26</v>
       </c>
       <c r="I211" t="n">
         <v>425.79</v>
@@ -9445,7 +9445,7 @@
         <v>435.79</v>
       </c>
       <c r="H212" t="n">
-        <v>424.12</v>
+        <v>423.94</v>
       </c>
       <c r="I212" t="n">
         <v>419.51</v>
@@ -9493,7 +9493,7 @@
         <v>440.95</v>
       </c>
       <c r="H213" t="n">
-        <v>433.8</v>
+        <v>433.57</v>
       </c>
       <c r="I213" t="n">
         <v>424.69</v>
@@ -9535,7 +9535,7 @@
         <v>429.3</v>
       </c>
       <c r="H214" t="n">
-        <v>417.91</v>
+        <v>417.43</v>
       </c>
       <c r="I214" t="n">
         <v>411.94</v>
@@ -9605,7 +9605,7 @@
         <v>431.18</v>
       </c>
       <c r="H216" t="n">
-        <v>424.49</v>
+        <v>423.89</v>
       </c>
       <c r="I216" t="n">
         <v>420.97</v>
@@ -9685,7 +9685,7 @@
         <v>433.61</v>
       </c>
       <c r="H218" t="n">
-        <v>423.93</v>
+        <v>423.61</v>
       </c>
       <c r="I218" t="n">
         <v>421.17</v>
@@ -9733,7 +9733,7 @@
         <v>423.22</v>
       </c>
       <c r="H219" t="n">
-        <v>408.7</v>
+        <v>408.72</v>
       </c>
       <c r="I219" t="n">
         <v>406.85</v>
@@ -9813,7 +9813,7 @@
         <v>431.26</v>
       </c>
       <c r="H221" t="n">
-        <v>418.25</v>
+        <v>418.35</v>
       </c>
       <c r="I221" t="n">
         <v>420.06</v>
@@ -9855,7 +9855,7 @@
         <v>429.75</v>
       </c>
       <c r="H222" t="n">
-        <v>413.54</v>
+        <v>414.01</v>
       </c>
       <c r="I222" t="n">
         <v>414.13</v>
@@ -9903,7 +9903,7 @@
         <v>433.77</v>
       </c>
       <c r="H223" t="n">
-        <v>416.18</v>
+        <v>416.7</v>
       </c>
       <c r="I223" t="n">
         <v>418.51</v>
@@ -9983,7 +9983,7 @@
         <v>419.74</v>
       </c>
       <c r="H225" t="n">
-        <v>410.88</v>
+        <v>411.41</v>
       </c>
       <c r="I225" t="n">
         <v>405.88</v>
@@ -10031,7 +10031,7 @@
         <v>421.76</v>
       </c>
       <c r="H226" t="n">
-        <v>408.06</v>
+        <v>408.49</v>
       </c>
       <c r="I226" t="n">
         <v>411.29</v>
@@ -10079,7 +10079,7 @@
         <v>414.75</v>
       </c>
       <c r="H227" t="n">
-        <v>410.93</v>
+        <v>410.47</v>
       </c>
       <c r="I227" t="n">
         <v>408.13</v>
@@ -10149,7 +10149,7 @@
         <v>444.36</v>
       </c>
       <c r="H229" t="n">
-        <v>425.3</v>
+        <v>425.87</v>
       </c>
       <c r="I229" t="n">
         <v>424.63</v>
@@ -10217,7 +10217,7 @@
         <v>405.34</v>
       </c>
       <c r="H231" t="n">
-        <v>395.69</v>
+        <v>395.22</v>
       </c>
       <c r="I231" t="n">
         <v>395.54</v>
@@ -10263,7 +10263,7 @@
         <v>437.38</v>
       </c>
       <c r="H232" t="n">
-        <v>426.14</v>
+        <v>425.47</v>
       </c>
       <c r="I232" t="n">
         <v>424.25</v>
@@ -10339,7 +10339,7 @@
         <v>427.21</v>
       </c>
       <c r="H234" t="n">
-        <v>413.82</v>
+        <v>414.57</v>
       </c>
       <c r="I234" t="n">
         <v>414.18</v>
@@ -10417,7 +10417,7 @@
         <v>436.25</v>
       </c>
       <c r="H236" t="n">
-        <v>412.06</v>
+        <v>412.6</v>
       </c>
       <c r="I236" t="n">
         <v>413.35</v>
@@ -10465,7 +10465,7 @@
         <v>425.43</v>
       </c>
       <c r="H237" t="n">
-        <v>410.44</v>
+        <v>410.89</v>
       </c>
       <c r="I237" t="n">
         <v>405.57</v>
@@ -10549,7 +10549,7 @@
         <v>437.79</v>
       </c>
       <c r="H239" t="n">
-        <v>433.33</v>
+        <v>432.93</v>
       </c>
       <c r="I239" t="n">
         <v>425.62</v>
@@ -10597,7 +10597,7 @@
         <v>426.1</v>
       </c>
       <c r="H240" t="n">
-        <v>418.31</v>
+        <v>417.71</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -10635,7 +10635,7 @@
         <v>433.77</v>
       </c>
       <c r="H241" t="n">
-        <v>423.61</v>
+        <v>422.91</v>
       </c>
       <c r="I241" t="n">
         <v>420.04</v>
@@ -10673,7 +10673,7 @@
         <v>433.18</v>
       </c>
       <c r="H242" t="n">
-        <v>420.95</v>
+        <v>421.1</v>
       </c>
       <c r="I242" t="n">
         <v>419.75</v>
@@ -10721,7 +10721,7 @@
         <v>442.43</v>
       </c>
       <c r="H243" t="n">
-        <v>427.32</v>
+        <v>427.69</v>
       </c>
       <c r="I243" t="n">
         <v>428.15</v>
@@ -10769,7 +10769,7 @@
         <v>448.68</v>
       </c>
       <c r="H244" t="n">
-        <v>434</v>
+        <v>434.84</v>
       </c>
       <c r="I244" t="n">
         <v>430.96</v>
@@ -10817,7 +10817,7 @@
         <v>425.63</v>
       </c>
       <c r="H245" t="n">
-        <v>414.23</v>
+        <v>415.15</v>
       </c>
       <c r="I245" t="n">
         <v>404.5</v>
@@ -10895,7 +10895,7 @@
         <v>431.17</v>
       </c>
       <c r="H247" t="n">
-        <v>420.02</v>
+        <v>420.72</v>
       </c>
       <c r="I247" t="n">
         <v>417.39</v>
@@ -10943,7 +10943,7 @@
         <v>424.98</v>
       </c>
       <c r="H248" t="n">
-        <v>416.29</v>
+        <v>416.46</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10981,7 +10981,7 @@
         <v>434.81</v>
       </c>
       <c r="H249" t="n">
-        <v>430.26</v>
+        <v>429.76</v>
       </c>
       <c r="I249" t="n">
         <v>423.39</v>
@@ -11029,7 +11029,7 @@
         <v>436.2</v>
       </c>
       <c r="H250" t="n">
-        <v>426.65</v>
+        <v>426.38</v>
       </c>
       <c r="I250" t="n">
         <v>424.41</v>
@@ -11077,7 +11077,7 @@
         <v>435.21</v>
       </c>
       <c r="H251" t="n">
-        <v>415.11</v>
+        <v>415.66</v>
       </c>
       <c r="I251" t="n">
         <v>415.38</v>
@@ -11125,7 +11125,7 @@
         <v>432.87</v>
       </c>
       <c r="H252" t="n">
-        <v>419.34</v>
+        <v>419.42</v>
       </c>
       <c r="I252" t="n">
         <v>419.15</v>
@@ -11165,7 +11165,7 @@
         <v>430.68</v>
       </c>
       <c r="H253" t="n">
-        <v>409.62</v>
+        <v>409.45</v>
       </c>
       <c r="I253" t="n">
         <v>411.47</v>
@@ -11211,7 +11211,7 @@
         <v>428.45</v>
       </c>
       <c r="H254" t="n">
-        <v>423.36</v>
+        <v>422.94</v>
       </c>
       <c r="I254" t="n">
         <v>416.58</v>
@@ -11259,7 +11259,7 @@
         <v>443.24</v>
       </c>
       <c r="H255" t="n">
-        <v>433.9</v>
+        <v>433.53</v>
       </c>
       <c r="I255" t="n">
         <v>429.7</v>
@@ -11341,7 +11341,7 @@
         <v>439.54</v>
       </c>
       <c r="H257" t="n">
-        <v>431.41</v>
+        <v>430.86</v>
       </c>
       <c r="I257" t="n">
         <v>430.29</v>
@@ -11479,7 +11479,7 @@
         <v>447.67</v>
       </c>
       <c r="H261" t="n">
-        <v>440.04</v>
+        <v>440.48</v>
       </c>
       <c r="I261" t="n">
         <v>433.15</v>
@@ -11515,7 +11515,7 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
-        <v>433.08</v>
+        <v>433.74</v>
       </c>
       <c r="I262" t="n">
         <v>423.32</v>
@@ -11563,7 +11563,7 @@
         <v>453.86</v>
       </c>
       <c r="H263" t="n">
-        <v>442.56</v>
+        <v>443.41</v>
       </c>
       <c r="I263" t="n">
         <v>432.59</v>
@@ -11605,7 +11605,7 @@
         <v>442.04</v>
       </c>
       <c r="H264" t="n">
-        <v>427.76</v>
+        <v>428.18</v>
       </c>
       <c r="I264" t="n">
         <v>425.44</v>
@@ -11641,7 +11641,7 @@
         <v>445.63</v>
       </c>
       <c r="H265" t="n">
-        <v>432.35</v>
+        <v>432.55</v>
       </c>
       <c r="I265" t="n">
         <v>429.33</v>
@@ -11689,7 +11689,7 @@
         <v>441.13</v>
       </c>
       <c r="H266" t="n">
-        <v>430.5</v>
+        <v>430.64</v>
       </c>
       <c r="I266" t="n">
         <v>425.14</v>
@@ -11737,7 +11737,7 @@
         <v>444.58</v>
       </c>
       <c r="H267" t="n">
-        <v>433.44</v>
+        <v>432.89</v>
       </c>
       <c r="I267" t="n">
         <v>430.76</v>
@@ -11785,7 +11785,7 @@
         <v>443.28</v>
       </c>
       <c r="H268" t="n">
-        <v>431.71</v>
+        <v>431.47</v>
       </c>
       <c r="I268" t="n">
         <v>425.31</v>
@@ -11861,7 +11861,7 @@
         <v>433.59</v>
       </c>
       <c r="H270" t="n">
-        <v>417.06</v>
+        <v>417.31</v>
       </c>
       <c r="I270" t="n">
         <v>416.21</v>
@@ -11937,7 +11937,7 @@
         <v>422.48</v>
       </c>
       <c r="H272" t="n">
-        <v>409.49</v>
+        <v>409.61</v>
       </c>
       <c r="I272" t="n">
         <v>410.29</v>
@@ -12089,7 +12089,7 @@
         <v>435.5</v>
       </c>
       <c r="H276" t="n">
-        <v>424.52</v>
+        <v>424.68</v>
       </c>
       <c r="I276" t="n">
         <v>421.62</v>
@@ -12129,7 +12129,7 @@
         <v>425.64</v>
       </c>
       <c r="H277" t="n">
-        <v>414.5</v>
+        <v>415.3</v>
       </c>
       <c r="I277" t="n">
         <v>407.55</v>
@@ -12177,7 +12177,7 @@
         <v>446.08</v>
       </c>
       <c r="H278" t="n">
-        <v>436.89</v>
+        <v>436.94</v>
       </c>
       <c r="I278" t="n">
         <v>429.22</v>
@@ -12225,7 +12225,7 @@
         <v>448.33</v>
       </c>
       <c r="H279" t="n">
-        <v>435.51</v>
+        <v>435.11</v>
       </c>
       <c r="I279" t="n">
         <v>433.65</v>
@@ -12273,7 +12273,7 @@
         <v>433.6</v>
       </c>
       <c r="H280" t="n">
-        <v>427.67</v>
+        <v>427.04</v>
       </c>
       <c r="I280" t="n">
         <v>421.29</v>
@@ -12321,7 +12321,7 @@
         <v>435.99</v>
       </c>
       <c r="H281" t="n">
-        <v>426.48</v>
+        <v>426.25</v>
       </c>
       <c r="I281" t="n">
         <v>420.79</v>
@@ -12369,7 +12369,7 @@
         <v>433.62</v>
       </c>
       <c r="H282" t="n">
-        <v>419.44</v>
+        <v>419.34</v>
       </c>
       <c r="I282" t="n">
         <v>416.5</v>
@@ -12405,7 +12405,7 @@
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="n">
-        <v>413.7</v>
+        <v>414.51</v>
       </c>
       <c r="I283" t="n">
         <v>401.24</v>
@@ -12447,7 +12447,7 @@
         <v>435.89</v>
       </c>
       <c r="H284" t="n">
-        <v>428.04</v>
+        <v>427.58</v>
       </c>
       <c r="I284" t="n">
         <v>422.69</v>
@@ -12495,7 +12495,7 @@
         <v>446.8</v>
       </c>
       <c r="H285" t="n">
-        <v>435.49</v>
+        <v>435.53</v>
       </c>
       <c r="I285" t="n">
         <v>432.03</v>
@@ -12543,7 +12543,7 @@
         <v>440.16</v>
       </c>
       <c r="H286" t="n">
-        <v>425.96</v>
+        <v>426.54</v>
       </c>
       <c r="I286" t="n">
         <v>423.87</v>
@@ -12591,7 +12591,7 @@
         <v>450.08</v>
       </c>
       <c r="H287" t="n">
-        <v>443.2</v>
+        <v>443.83</v>
       </c>
       <c r="I287" t="n">
         <v>435.18</v>
@@ -12639,7 +12639,7 @@
         <v>452.84</v>
       </c>
       <c r="H288" t="n">
-        <v>443.47</v>
+        <v>443.4</v>
       </c>
       <c r="I288" t="n">
         <v>440.44</v>
@@ -12679,7 +12679,7 @@
         <v>434.18</v>
       </c>
       <c r="H289" t="n">
-        <v>425.62</v>
+        <v>425.29</v>
       </c>
       <c r="I289" t="n">
         <v>422.06</v>
@@ -12727,7 +12727,7 @@
         <v>435.7</v>
       </c>
       <c r="H290" t="n">
-        <v>429.1</v>
+        <v>428.62</v>
       </c>
       <c r="I290" t="n">
         <v>423.1</v>
@@ -12773,7 +12773,7 @@
         <v>435.6</v>
       </c>
       <c r="H291" t="n">
-        <v>426.23</v>
+        <v>425.62</v>
       </c>
       <c r="I291" t="n">
         <v>422.89</v>
@@ -12821,7 +12821,7 @@
         <v>435.34</v>
       </c>
       <c r="H292" t="n">
-        <v>423.64</v>
+        <v>423.55</v>
       </c>
       <c r="I292" t="n">
         <v>420.72</v>
@@ -12869,7 +12869,7 @@
         <v>441.12</v>
       </c>
       <c r="H293" t="n">
-        <v>425.18</v>
+        <v>425.57</v>
       </c>
       <c r="I293" t="n">
         <v>423.99</v>
@@ -12917,7 +12917,7 @@
         <v>433.58</v>
       </c>
       <c r="H294" t="n">
-        <v>417.44</v>
+        <v>417.89</v>
       </c>
       <c r="I294" t="n">
         <v>414.66</v>
@@ -12965,7 +12965,7 @@
         <v>441.31</v>
       </c>
       <c r="H295" t="n">
-        <v>434.25</v>
+        <v>434.12</v>
       </c>
       <c r="I295" t="n">
         <v>426.89</v>
@@ -13013,7 +13013,7 @@
         <v>431.13</v>
       </c>
       <c r="H296" t="n">
-        <v>431.08</v>
+        <v>430.78</v>
       </c>
       <c r="I296" t="n">
         <v>422.13</v>
@@ -13061,7 +13061,7 @@
         <v>430.07</v>
       </c>
       <c r="H297" t="n">
-        <v>419.68</v>
+        <v>419.1</v>
       </c>
       <c r="I297" t="n">
         <v>418.69</v>
@@ -13109,7 +13109,7 @@
         <v>448.82</v>
       </c>
       <c r="H298" t="n">
-        <v>436.12</v>
+        <v>436.22</v>
       </c>
       <c r="I298" t="n">
         <v>430.2</v>
@@ -13157,7 +13157,7 @@
         <v>450.54</v>
       </c>
       <c r="H299" t="n">
-        <v>438.75</v>
+        <v>438.95</v>
       </c>
       <c r="I299" t="n">
         <v>435.58</v>
@@ -13205,7 +13205,7 @@
         <v>452.33</v>
       </c>
       <c r="H300" t="n">
-        <v>445.62</v>
+        <v>446.24</v>
       </c>
       <c r="I300" t="n">
         <v>436.37</v>
@@ -13253,7 +13253,7 @@
         <v>453.73</v>
       </c>
       <c r="H301" t="n">
-        <v>440.25</v>
+        <v>441.2</v>
       </c>
       <c r="I301" t="n">
         <v>434.73</v>
@@ -13301,7 +13301,7 @@
         <v>453.47</v>
       </c>
       <c r="H302" t="n">
-        <v>446.9</v>
+        <v>447.58</v>
       </c>
       <c r="I302" t="n">
         <v>436.26</v>
@@ -13349,7 +13349,7 @@
         <v>435.85</v>
       </c>
       <c r="H303" t="n">
-        <v>429.81</v>
+        <v>429.04</v>
       </c>
       <c r="I303" t="n">
         <v>420.88</v>
@@ -13397,7 +13397,7 @@
         <v>419.02</v>
       </c>
       <c r="H304" t="n">
-        <v>402.36</v>
+        <v>402.31</v>
       </c>
       <c r="I304" t="n">
         <v>400.35</v>
@@ -13445,7 +13445,7 @@
         <v>432.2</v>
       </c>
       <c r="H305" t="n">
-        <v>415.68</v>
+        <v>416.15</v>
       </c>
       <c r="I305" t="n">
         <v>416.84</v>
@@ -13493,7 +13493,7 @@
         <v>432.86</v>
       </c>
       <c r="H306" t="n">
-        <v>417.48</v>
+        <v>418.33</v>
       </c>
       <c r="I306" t="n">
         <v>413.47</v>
@@ -13541,7 +13541,7 @@
         <v>435.79</v>
       </c>
       <c r="H307" t="n">
-        <v>425.68</v>
+        <v>425.45</v>
       </c>
       <c r="I307" t="n">
         <v>422.05</v>
@@ -13589,7 +13589,7 @@
         <v>435.19</v>
       </c>
       <c r="H308" t="n">
-        <v>426.41</v>
+        <v>426.01</v>
       </c>
       <c r="I308" t="n">
         <v>422.26</v>
@@ -13637,7 +13637,7 @@
         <v>445.5</v>
       </c>
       <c r="H309" t="n">
-        <v>432.96</v>
+        <v>432.74</v>
       </c>
       <c r="I309" t="n">
         <v>431.68</v>
@@ -13685,7 +13685,7 @@
         <v>435.36</v>
       </c>
       <c r="H310" t="n">
-        <v>420.25</v>
+        <v>420.47</v>
       </c>
       <c r="I310" t="n">
         <v>418.9</v>
@@ -13729,7 +13729,7 @@
         <v>450.94</v>
       </c>
       <c r="H311" t="n">
-        <v>442.01</v>
+        <v>442.66</v>
       </c>
       <c r="I311" t="n">
         <v>436.7</v>
@@ -13777,7 +13777,7 @@
         <v>433.9</v>
       </c>
       <c r="H312" t="n">
-        <v>416.39</v>
+        <v>417.27</v>
       </c>
       <c r="I312" t="n">
         <v>412.8</v>
@@ -13825,7 +13825,7 @@
         <v>449.89</v>
       </c>
       <c r="H313" t="n">
-        <v>435.25</v>
+        <v>435.88</v>
       </c>
       <c r="I313" t="n">
         <v>429.59</v>
@@ -13873,7 +13873,7 @@
         <v>447.66</v>
       </c>
       <c r="H314" t="n">
-        <v>441.2</v>
+        <v>441.76</v>
       </c>
       <c r="I314" t="n">
         <v>434.28</v>
@@ -13921,7 +13921,7 @@
         <v>441.91</v>
       </c>
       <c r="H315" t="n">
-        <v>429.15</v>
+        <v>429.45</v>
       </c>
       <c r="I315" t="n">
         <v>424.29</v>
@@ -13969,7 +13969,7 @@
         <v>432.81</v>
       </c>
       <c r="H316" t="n">
-        <v>416.67</v>
+        <v>416.96</v>
       </c>
       <c r="I316" t="n">
         <v>414.9</v>
@@ -14015,7 +14015,7 @@
         <v>435.98</v>
       </c>
       <c r="H317" t="n">
-        <v>424.13</v>
+        <v>424.53</v>
       </c>
       <c r="I317" t="n">
         <v>420.1</v>
@@ -14063,7 +14063,7 @@
         <v>439.04</v>
       </c>
       <c r="H318" t="n">
-        <v>431.36</v>
+        <v>430.78</v>
       </c>
       <c r="I318" t="n">
         <v>428.81</v>
@@ -14111,7 +14111,7 @@
         <v>419.58</v>
       </c>
       <c r="H319" t="n">
-        <v>409.96</v>
+        <v>410.53</v>
       </c>
       <c r="I319" t="n">
         <v>401.7</v>
@@ -14159,7 +14159,7 @@
         <v>426.81</v>
       </c>
       <c r="H320" t="n">
-        <v>415.65</v>
+        <v>416.3</v>
       </c>
       <c r="I320" t="n">
         <v>408.52</v>
@@ -14207,7 +14207,7 @@
         <v>446.17</v>
       </c>
       <c r="H321" t="n">
-        <v>428.66</v>
+        <v>429.11</v>
       </c>
       <c r="I321" t="n">
         <v>423.29</v>
@@ -14255,7 +14255,7 @@
         <v>430.04</v>
       </c>
       <c r="H322" t="n">
-        <v>412.62</v>
+        <v>413.27</v>
       </c>
       <c r="I322" t="n">
         <v>409.11</v>
@@ -14303,7 +14303,7 @@
         <v>431.6</v>
       </c>
       <c r="H323" t="n">
-        <v>417.08</v>
+        <v>417.73</v>
       </c>
       <c r="I323" t="n">
         <v>420.55</v>
@@ -14387,7 +14387,7 @@
         <v>437.93</v>
       </c>
       <c r="H325" t="n">
-        <v>430.36</v>
+        <v>430.93</v>
       </c>
       <c r="I325" t="n">
         <v>424.77</v>
@@ -14435,7 +14435,7 @@
         <v>439.08</v>
       </c>
       <c r="H326" t="n">
-        <v>427.11</v>
+        <v>426.53</v>
       </c>
       <c r="I326" t="n">
         <v>427.7</v>
@@ -14471,7 +14471,7 @@
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="n">
-        <v>413.69</v>
+        <v>413.23</v>
       </c>
       <c r="I327" t="n">
         <v>419.76</v>
@@ -14519,7 +14519,7 @@
         <v>437.41</v>
       </c>
       <c r="H328" t="n">
-        <v>423.92</v>
+        <v>424.12</v>
       </c>
       <c r="I328" t="n">
         <v>420.18</v>
@@ -14567,7 +14567,7 @@
         <v>431.08</v>
       </c>
       <c r="H329" t="n">
-        <v>416.54</v>
+        <v>416.31</v>
       </c>
       <c r="I329" t="n">
         <v>414.46</v>
@@ -14615,7 +14615,7 @@
         <v>434.89</v>
       </c>
       <c r="H330" t="n">
-        <v>421.75</v>
+        <v>421.97</v>
       </c>
       <c r="I330" t="n">
         <v>415.17</v>
@@ -14663,7 +14663,7 @@
         <v>434.57</v>
       </c>
       <c r="H331" t="n">
-        <v>425.69</v>
+        <v>425.37</v>
       </c>
       <c r="I331" t="n">
         <v>419.59</v>
@@ -14707,7 +14707,7 @@
         <v>424.96</v>
       </c>
       <c r="H332" t="n">
-        <v>412.94</v>
+        <v>412.38</v>
       </c>
       <c r="I332" t="n">
         <v>410.56</v>
@@ -14755,7 +14755,7 @@
         <v>431.24</v>
       </c>
       <c r="H333" t="n">
-        <v>412.98</v>
+        <v>413.65</v>
       </c>
       <c r="I333" t="n">
         <v>412.24</v>
@@ -14833,7 +14833,7 @@
         <v>430.37</v>
       </c>
       <c r="H335" t="n">
-        <v>411.94</v>
+        <v>412.49</v>
       </c>
       <c r="I335" t="n">
         <v>410.62</v>
@@ -14869,7 +14869,7 @@
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="n">
-        <v>398.75</v>
+        <v>399.3</v>
       </c>
       <c r="I336" t="n">
         <v>394.4</v>
@@ -14917,7 +14917,7 @@
         <v>423.82</v>
       </c>
       <c r="H337" t="n">
-        <v>416.04</v>
+        <v>415.38</v>
       </c>
       <c r="I337" t="n">
         <v>410.63</v>
@@ -14965,7 +14965,7 @@
         <v>418.71</v>
       </c>
       <c r="H338" t="n">
-        <v>398.56</v>
+        <v>398.39</v>
       </c>
       <c r="I338" t="n">
         <v>394.71</v>
@@ -15013,7 +15013,7 @@
         <v>419.81</v>
       </c>
       <c r="H339" t="n">
-        <v>407.05</v>
+        <v>406.79</v>
       </c>
       <c r="I339" t="n">
         <v>406.58</v>
@@ -15053,7 +15053,7 @@
         <v>417.51</v>
       </c>
       <c r="H340" t="n">
-        <v>404.24</v>
+        <v>404.09</v>
       </c>
       <c r="I340" t="n">
         <v>402.92</v>
@@ -15101,7 +15101,7 @@
         <v>428.79</v>
       </c>
       <c r="H341" t="n">
-        <v>409.24</v>
+        <v>409.21</v>
       </c>
       <c r="I341" t="n">
         <v>412.33</v>
@@ -15147,7 +15147,7 @@
         <v>417.98</v>
       </c>
       <c r="H342" t="n">
-        <v>409.12</v>
+        <v>409.77</v>
       </c>
       <c r="I342" t="n">
         <v>397.29</v>
@@ -15195,7 +15195,7 @@
         <v>428.83</v>
       </c>
       <c r="H343" t="n">
-        <v>416.46</v>
+        <v>416.06</v>
       </c>
       <c r="I343" t="n">
         <v>414.48</v>
@@ -15243,7 +15243,7 @@
         <v>416.99</v>
       </c>
       <c r="H344" t="n">
-        <v>410.37</v>
+        <v>411.04</v>
       </c>
       <c r="I344" t="n">
         <v>402.02</v>
@@ -15291,7 +15291,7 @@
         <v>429.72</v>
       </c>
       <c r="H345" t="n">
-        <v>417.94</v>
+        <v>417.99</v>
       </c>
       <c r="I345" t="n">
         <v>415.69</v>
@@ -15339,7 +15339,7 @@
         <v>427.77</v>
       </c>
       <c r="H346" t="n">
-        <v>416.02</v>
+        <v>415.83</v>
       </c>
       <c r="I346" t="n">
         <v>417.97</v>
@@ -15387,7 +15387,7 @@
         <v>437.61</v>
       </c>
       <c r="H347" t="n">
-        <v>426.95</v>
+        <v>426.86</v>
       </c>
       <c r="I347" t="n">
         <v>425.66</v>
@@ -15435,7 +15435,7 @@
         <v>424.02</v>
       </c>
       <c r="H348" t="n">
-        <v>417.72</v>
+        <v>417.37</v>
       </c>
       <c r="I348" t="n">
         <v>413.45</v>
@@ -15519,7 +15519,7 @@
         <v>432.89</v>
       </c>
       <c r="H350" t="n">
-        <v>426.71</v>
+        <v>427.46</v>
       </c>
       <c r="I350" t="n">
         <v>422.27</v>
@@ -15567,7 +15567,7 @@
         <v>426.84</v>
       </c>
       <c r="H351" t="n">
-        <v>417.82</v>
+        <v>417.35</v>
       </c>
       <c r="I351" t="n">
         <v>416.16</v>
@@ -15615,7 +15615,7 @@
         <v>420.53</v>
       </c>
       <c r="H352" t="n">
-        <v>409.46</v>
+        <v>409.11</v>
       </c>
       <c r="I352" t="n">
         <v>410.32</v>
@@ -15697,7 +15697,7 @@
         <v>422.31</v>
       </c>
       <c r="H354" t="n">
-        <v>411.74</v>
+        <v>411.63</v>
       </c>
       <c r="I354" t="n">
         <v>410.84</v>
@@ -15745,7 +15745,7 @@
         <v>432.58</v>
       </c>
       <c r="H355" t="n">
-        <v>419.67</v>
+        <v>419.69</v>
       </c>
       <c r="I355" t="n">
         <v>420.63</v>
@@ -15793,7 +15793,7 @@
         <v>441.06</v>
       </c>
       <c r="H356" t="n">
-        <v>426.65</v>
+        <v>427</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -15831,7 +15831,7 @@
         <v>427.54</v>
       </c>
       <c r="H357" t="n">
-        <v>423.37</v>
+        <v>423.24</v>
       </c>
       <c r="I357" t="n">
         <v>425.3</v>
@@ -15879,7 +15879,7 @@
         <v>426.22</v>
       </c>
       <c r="H358" t="n">
-        <v>424.76</v>
+        <v>424.11</v>
       </c>
       <c r="I358" t="n">
         <v>417.08</v>
@@ -15927,7 +15927,7 @@
         <v>418.74</v>
       </c>
       <c r="H359" t="n">
-        <v>411.42</v>
+        <v>411.95</v>
       </c>
       <c r="I359" t="n">
         <v>406.99</v>
@@ -15975,7 +15975,7 @@
         <v>427.52</v>
       </c>
       <c r="H360" t="n">
-        <v>419.4</v>
+        <v>418.83</v>
       </c>
       <c r="I360" t="n">
         <v>417.19</v>
@@ -16023,7 +16023,7 @@
         <v>422.87</v>
       </c>
       <c r="H361" t="n">
-        <v>410.99</v>
+        <v>411.51</v>
       </c>
       <c r="I361" t="n">
         <v>410.67</v>
@@ -16071,7 +16071,7 @@
         <v>416.32</v>
       </c>
       <c r="H362" t="n">
-        <v>403.15</v>
+        <v>402.92</v>
       </c>
       <c r="I362" t="n">
         <v>402.57</v>
@@ -16119,7 +16119,7 @@
         <v>432.72</v>
       </c>
       <c r="H363" t="n">
-        <v>426.73</v>
+        <v>426.41</v>
       </c>
       <c r="I363" t="n">
         <v>414.01</v>
@@ -16167,7 +16167,7 @@
         <v>427.7</v>
       </c>
       <c r="H364" t="n">
-        <v>425.05</v>
+        <v>424.47</v>
       </c>
       <c r="I364" t="n">
         <v>408.63</v>
@@ -16213,7 +16213,7 @@
         <v>430.91</v>
       </c>
       <c r="H365" t="n">
-        <v>420.68</v>
+        <v>420.05</v>
       </c>
       <c r="I365" t="n">
         <v>421.69</v>
@@ -16287,7 +16287,7 @@
         <v>434.71</v>
       </c>
       <c r="H367" t="n">
-        <v>418.06</v>
+        <v>418.53</v>
       </c>
       <c r="I367" t="n">
         <v>416.26</v>
@@ -16335,7 +16335,7 @@
         <v>421.59</v>
       </c>
       <c r="H368" t="n">
-        <v>408.95</v>
+        <v>408.8</v>
       </c>
       <c r="I368" t="n">
         <v>409.1</v>
@@ -16383,7 +16383,7 @@
         <v>428.86</v>
       </c>
       <c r="H369" t="n">
-        <v>416.15</v>
+        <v>416.35</v>
       </c>
       <c r="I369" t="n">
         <v>417.46</v>
@@ -16431,7 +16431,7 @@
         <v>435.53</v>
       </c>
       <c r="H370" t="n">
-        <v>420.89</v>
+        <v>421.35</v>
       </c>
       <c r="I370" t="n">
         <v>418.83</v>
@@ -16479,7 +16479,7 @@
         <v>430.92</v>
       </c>
       <c r="H371" t="n">
-        <v>420.51</v>
+        <v>420.31</v>
       </c>
       <c r="I371" t="n">
         <v>420.98</v>
@@ -16527,7 +16527,7 @@
         <v>425.45</v>
       </c>
       <c r="H372" t="n">
-        <v>412.77</v>
+        <v>413.49</v>
       </c>
       <c r="I372" t="n">
         <v>414.62</v>
@@ -16575,7 +16575,7 @@
         <v>433.91</v>
       </c>
       <c r="H373" t="n">
-        <v>422.62</v>
+        <v>423.29</v>
       </c>
       <c r="I373" t="n">
         <v>423.59</v>
@@ -16621,7 +16621,7 @@
         <v>442.17</v>
       </c>
       <c r="H374" t="n">
-        <v>428.72</v>
+        <v>429.04</v>
       </c>
       <c r="I374" t="n">
         <v>432.59</v>
@@ -16663,7 +16663,7 @@
         <v>435.23</v>
       </c>
       <c r="H375" t="n">
-        <v>424.62</v>
+        <v>424.5</v>
       </c>
       <c r="I375" t="n">
         <v>421.96</v>
@@ -16711,7 +16711,7 @@
         <v>442.37</v>
       </c>
       <c r="H376" t="n">
-        <v>433.04</v>
+        <v>432.78</v>
       </c>
       <c r="I376" t="n">
         <v>431.36</v>
@@ -16759,7 +16759,7 @@
         <v>443.32</v>
       </c>
       <c r="H377" t="n">
-        <v>432.06</v>
+        <v>432.99</v>
       </c>
       <c r="I377" t="n">
         <v>433.33</v>
@@ -16807,7 +16807,7 @@
         <v>446.26</v>
       </c>
       <c r="H378" t="n">
-        <v>435.32</v>
+        <v>434.97</v>
       </c>
       <c r="I378" t="n">
         <v>437.55</v>
@@ -16855,7 +16855,7 @@
         <v>447.21</v>
       </c>
       <c r="H379" t="n">
-        <v>432.69</v>
+        <v>433.42</v>
       </c>
       <c r="I379" t="n">
         <v>431.87</v>
@@ -16903,7 +16903,7 @@
         <v>443.9</v>
       </c>
       <c r="H380" t="n">
-        <v>428.44</v>
+        <v>428.09</v>
       </c>
       <c r="I380" t="n">
         <v>430.51</v>
@@ -16951,7 +16951,7 @@
         <v>436.01</v>
       </c>
       <c r="H381" t="n">
-        <v>427.83</v>
+        <v>427.94</v>
       </c>
       <c r="I381" t="n">
         <v>423.28</v>
@@ -16999,7 +16999,7 @@
         <v>450.38</v>
       </c>
       <c r="H382" t="n">
-        <v>443.71</v>
+        <v>444.21</v>
       </c>
       <c r="I382" t="n">
         <v>434.76</v>
@@ -17045,7 +17045,7 @@
         <v>441.63</v>
       </c>
       <c r="H383" t="n">
-        <v>430.46</v>
+        <v>430.79</v>
       </c>
       <c r="I383" t="n">
         <v>429.39</v>
@@ -17093,7 +17093,7 @@
         <v>440.56</v>
       </c>
       <c r="H384" t="n">
-        <v>430.88</v>
+        <v>430.84</v>
       </c>
       <c r="I384" t="n">
         <v>426.67</v>
@@ -17141,7 +17141,7 @@
         <v>443.38</v>
       </c>
       <c r="H385" t="n">
-        <v>436.73</v>
+        <v>436.91</v>
       </c>
       <c r="I385" t="n">
         <v>430.85</v>
@@ -17189,7 +17189,7 @@
         <v>440.48</v>
       </c>
       <c r="H386" t="n">
-        <v>434.56</v>
+        <v>434.41</v>
       </c>
       <c r="I386" t="n">
         <v>430.26</v>
@@ -17237,7 +17237,7 @@
         <v>448.09</v>
       </c>
       <c r="H387" t="n">
-        <v>433.78</v>
+        <v>434.36</v>
       </c>
       <c r="I387" t="n">
         <v>432.61</v>
@@ -17285,7 +17285,7 @@
         <v>438.37</v>
       </c>
       <c r="H388" t="n">
-        <v>428.12</v>
+        <v>427.65</v>
       </c>
       <c r="I388" t="n">
         <v>427.65</v>
@@ -17367,7 +17367,7 @@
         <v>444.78</v>
       </c>
       <c r="H390" t="n">
-        <v>426.61</v>
+        <v>427.13</v>
       </c>
       <c r="I390" t="n">
         <v>424.98</v>
@@ -17415,7 +17415,7 @@
         <v>441.94</v>
       </c>
       <c r="H391" t="n">
-        <v>434.56</v>
+        <v>434.66</v>
       </c>
       <c r="I391" t="n">
         <v>427.94</v>
@@ -17463,7 +17463,7 @@
         <v>419.56</v>
       </c>
       <c r="H392" t="n">
-        <v>411.31</v>
+        <v>410.75</v>
       </c>
       <c r="I392" t="n">
         <v>408.33</v>
@@ -17511,7 +17511,7 @@
         <v>426.23</v>
       </c>
       <c r="H393" t="n">
-        <v>414.27</v>
+        <v>414.65</v>
       </c>
       <c r="I393" t="n">
         <v>415.77</v>
@@ -17585,7 +17585,7 @@
         <v>432.04</v>
       </c>
       <c r="H395" t="n">
-        <v>419.6</v>
+        <v>420.32</v>
       </c>
       <c r="I395" t="n">
         <v>419.7</v>
@@ -17633,7 +17633,7 @@
         <v>433.84</v>
       </c>
       <c r="H396" t="n">
-        <v>428.58</v>
+        <v>427.96</v>
       </c>
       <c r="I396" t="n">
         <v>421.61</v>
@@ -17681,7 +17681,7 @@
         <v>437.1</v>
       </c>
       <c r="H397" t="n">
-        <v>423.85</v>
+        <v>424.54</v>
       </c>
       <c r="I397" t="n">
         <v>423.59</v>
@@ -17729,7 +17729,7 @@
         <v>431.94</v>
       </c>
       <c r="H398" t="n">
-        <v>421.56</v>
+        <v>421.87</v>
       </c>
       <c r="I398" t="n">
         <v>417.27</v>
@@ -17807,7 +17807,7 @@
         <v>429.77</v>
       </c>
       <c r="H400" t="n">
-        <v>418.82</v>
+        <v>419.6</v>
       </c>
       <c r="I400" t="n">
         <v>415.81</v>
@@ -17855,7 +17855,7 @@
         <v>437.14</v>
       </c>
       <c r="H401" t="n">
-        <v>421.75</v>
+        <v>422.65</v>
       </c>
       <c r="I401" t="n">
         <v>421.94</v>
@@ -17903,7 +17903,7 @@
         <v>444.14</v>
       </c>
       <c r="H402" t="n">
-        <v>432.74</v>
+        <v>432.31</v>
       </c>
       <c r="I402" t="n">
         <v>432.4</v>
@@ -17951,7 +17951,7 @@
         <v>436.39</v>
       </c>
       <c r="H403" t="n">
-        <v>422.95</v>
+        <v>423.65</v>
       </c>
       <c r="I403" t="n">
         <v>421.42</v>
@@ -17999,7 +17999,7 @@
         <v>438.12</v>
       </c>
       <c r="H404" t="n">
-        <v>424.46</v>
+        <v>425.21</v>
       </c>
       <c r="I404" t="n">
         <v>419.74</v>
@@ -18047,7 +18047,7 @@
         <v>441.03</v>
       </c>
       <c r="H405" t="n">
-        <v>432.62</v>
+        <v>432.63</v>
       </c>
       <c r="I405" t="n">
         <v>425.53</v>
@@ -18095,7 +18095,7 @@
         <v>446.17</v>
       </c>
       <c r="H406" t="n">
-        <v>437.58</v>
+        <v>437.19</v>
       </c>
       <c r="I406" t="n">
         <v>436.76</v>
@@ -18143,7 +18143,7 @@
         <v>452.78</v>
       </c>
       <c r="H407" t="n">
-        <v>442.56</v>
+        <v>442.11</v>
       </c>
       <c r="I407" t="n">
         <v>441.96</v>
@@ -18191,7 +18191,7 @@
         <v>432.6</v>
       </c>
       <c r="H408" t="n">
-        <v>424.49</v>
+        <v>424.34</v>
       </c>
       <c r="I408" t="n">
         <v>422.91</v>
@@ -18239,7 +18239,7 @@
         <v>421.52</v>
       </c>
       <c r="H409" t="n">
-        <v>406.56</v>
+        <v>406.72</v>
       </c>
       <c r="I409" t="n">
         <v>409.85</v>
@@ -18283,7 +18283,7 @@
         <v>433.54</v>
       </c>
       <c r="H410" t="n">
-        <v>425.32</v>
+        <v>425.15</v>
       </c>
       <c r="I410" t="n">
         <v>422.23</v>
@@ -18387,7 +18387,7 @@
         <v>417.71</v>
       </c>
       <c r="H413" t="n">
-        <v>412.05</v>
+        <v>411.5</v>
       </c>
       <c r="I413" t="n">
         <v>407.99</v>
@@ -18435,7 +18435,7 @@
         <v>418.45</v>
       </c>
       <c r="H414" t="n">
-        <v>427.94</v>
+        <v>427.17</v>
       </c>
       <c r="I414" t="n">
         <v>411.77</v>
@@ -18483,7 +18483,7 @@
         <v>425.46</v>
       </c>
       <c r="H415" t="n">
-        <v>411.06</v>
+        <v>411.61</v>
       </c>
       <c r="I415" t="n">
         <v>410.42</v>
@@ -18531,7 +18531,7 @@
         <v>420.97</v>
       </c>
       <c r="H416" t="n">
-        <v>407.55</v>
+        <v>407.87</v>
       </c>
       <c r="I416" t="n">
         <v>407.63</v>
@@ -18579,7 +18579,7 @@
         <v>422.54</v>
       </c>
       <c r="H417" t="n">
-        <v>417.36</v>
+        <v>417.04</v>
       </c>
       <c r="I417" t="n">
         <v>416.72</v>
@@ -18627,7 +18627,7 @@
         <v>398.39</v>
       </c>
       <c r="H418" t="n">
-        <v>379.57</v>
+        <v>379.05</v>
       </c>
       <c r="I418" t="n">
         <v>391.25</v>
@@ -18701,7 +18701,7 @@
         <v>431.43</v>
       </c>
       <c r="H420" t="n">
-        <v>422.23</v>
+        <v>422.01</v>
       </c>
       <c r="I420" t="n">
         <v>422.76</v>
@@ -18739,7 +18739,7 @@
         <v>419.44</v>
       </c>
       <c r="H421" t="n">
-        <v>414.49</v>
+        <v>414.32</v>
       </c>
       <c r="I421" t="n">
         <v>420.04</v>
@@ -18787,7 +18787,7 @@
         <v>423.42</v>
       </c>
       <c r="H422" t="n">
-        <v>411.81</v>
+        <v>411.67</v>
       </c>
       <c r="I422" t="n">
         <v>412.88</v>
@@ -24430,7 +24430,7 @@
         <v>0.0958</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02821558464002623</v>
+        <v>-0.02886121258124319</v>
       </c>
       <c r="J8" t="n">
         <v>421</v>
@@ -24439,19 +24439,19 @@
         <v>349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003981555948421311</v>
+        <v>0.0004158615070508631</v>
       </c>
       <c r="M8" t="n">
-        <v>8.670821280294032</v>
+        <v>8.626547803661742</v>
       </c>
       <c r="N8" t="n">
-        <v>119.8863746997206</v>
+        <v>120.0928841419805</v>
       </c>
       <c r="O8" t="n">
-        <v>10.94926366016092</v>
+        <v>10.95868989167868</v>
       </c>
       <c r="P8" t="n">
-        <v>422.5439961717654</v>
+        <v>422.6289612045776</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-34.8007594395297,173.39380376500804</t>
+          <t>-34.800758113293924,173.39380283290208</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-34.80067924125877,173.39374740006605</t>
+          <t>-34.80067417035549,173.39374383613858</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-34.800698432676334,173.39376088816473</t>
+          <t>-34.80070077309301,173.39376253305525</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-34.80049785887973,173.3936199213946</t>
+          <t>-34.80049200783287,173.39361580918873</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-34.80052446163759,173.3936386182313</t>
+          <t>-34.80052820630707,173.39364125004505</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -25409,7 +25409,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-34.80059732665365,173.39368982898364</t>
+          <t>-34.80060005714097,173.39369174801791</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -25477,7 +25477,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-34.80069125539841,173.39375584383444</t>
+          <t>-34.800685248328676,173.39375162194992</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-34.80074867361557,173.39379619850166</t>
+          <t>-34.800744226824804,173.39379307320613</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-34.80065014207382,173.3937269486113</t>
+          <t>-34.80064983001819,173.3937267292928</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -25685,7 +25685,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-34.80055956791159,173.3936632914947</t>
+          <t>-34.800562376413275,173.39366526535667</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -25757,7 +25757,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-34.80058289407735,173.3936796855191</t>
+          <t>-34.80058679477374,173.39368242699567</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-34.800459397995645,173.3935928905054</t>
+          <t>-34.800453546947814,173.39358877830338</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-34.80057805721374,173.39367628608852</t>
+          <t>-34.8005707239042,173.3936711321139</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-34.80054973815541,173.3936563829788</t>
+          <t>-34.80055309275478,173.39365874064674</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -26025,7 +26025,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-34.80059178766502,173.393685936086</t>
+          <t>-34.800594752194165,173.39368801960865</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -26101,7 +26101,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-34.800534213380914,173.39364547191346</t>
+          <t>-34.800529298502326,173.39364201765744</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -26169,7 +26169,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-34.800510575154405,173.39362885859072</t>
+          <t>-34.80051229146135,173.39363006483822</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-34.80063485134781,173.39371620200814</t>
+          <t>-34.800629234346154,173.39371225427737</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-34.80048186601796,173.3936086813666</t>
+          <t>-34.80047593695673,173.39360451433294</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -26385,7 +26385,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-34.80049746880995,173.39361964724753</t>
+          <t>-34.80049629860058,173.3936188248063</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -26441,7 +26441,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-34.80062026274603,173.3937059488752</t>
+          <t>-34.80062416344178,173.39370869035423</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-34.800720666633715,173.39377651462843</t>
+          <t>-34.80071707799513,173.39377399246177</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-34.80056736930509,173.39366877444496</t>
+          <t>-34.80056697923542,173.39366850029742</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-34.80055551118687,173.39366044036095</t>
+          <t>-34.80055902181403,173.3936629076882</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -26757,7 +26757,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-34.80064085841885,173.3937204238875</t>
+          <t>-34.80063586552864,173.39371691479295</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -26809,7 +26809,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-34.80063968821022,173.3937196014434</t>
+          <t>-34.80064195061358,173.39372119150198</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-34.80058663874589,173.39368231733658</t>
+          <t>-34.80058648271803,173.3936822076775</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-34.80054178073343,173.39365079037194</t>
+          <t>-34.80053452543668,173.3936456912313</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -27025,7 +27025,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-34.800552936726916,173.39365863098777</t>
+          <t>-34.80055254665721,173.39365835684035</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -27085,7 +27085,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-34.80059248979035,173.3936864295519</t>
+          <t>-34.80059623445872,173.39368906137</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-34.80069242560679,173.3937566662795</t>
+          <t>-34.80069156745398,173.39375606315312</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -27221,7 +27221,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-34.800675730633436,173.3937449327316</t>
+          <t>-34.80067846111982,173.39374685176946</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -27333,7 +27333,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-34.800619170551194,173.3937051812611</t>
+          <t>-34.80061331950741,173.39370106904312</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-34.80060622024077,173.3936960795528</t>
+          <t>-34.800601695433336,173.3936928994385</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-34.80059077348399,173.39368522330201</t>
+          <t>-34.80059467418024,173.3936879647791</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -27569,7 +27569,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-34.80049075960953,173.39361493191822</t>
+          <t>-34.80049528441914,173.39361811202394</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-34.800633915180875,173.39371554405298</t>
+          <t>-34.80063297901395,173.39371488609783</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-34.80068673059265,173.39375266371357</t>
+          <t>-34.80068189373122,173.39374926427445</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-34.80058702881552,173.39368259148426</t>
+          <t>-34.80058897916369,173.39368396222264</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -27877,7 +27877,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-34.800655603047154,173.3937307866848</t>
+          <t>-34.800654276810775,173.39372985458118</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -27937,7 +27937,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-34.80059592240302,173.3936888420518</t>
+          <t>-34.80060036919665,173.3936919673361</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -27997,7 +27997,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-34.80065365269955,173.3937294159442</t>
+          <t>-34.80065833353376,173.39373270572176</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-34.80070373762075,173.39376461658338</t>
+          <t>-34.80070841845396,173.39376790636496</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -28105,7 +28105,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-34.80070100713468,173.3937626975443</t>
+          <t>-34.800702177343,173.39376351998962</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -28169,7 +28169,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-34.800692971704024,173.39375705008726</t>
+          <t>-34.80069203553733,173.39375639213114</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-34.80065419879688,173.39372979975155</t>
+          <t>-34.8006513122824,173.39372777105558</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-34.80063485134781,173.39371620200814</t>
+          <t>-34.800629390373985,173.39371236393657</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-34.80069507807908,173.3937585304885</t>
+          <t>-34.80068860292609,173.39375397962561</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -28465,7 +28465,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-34.800576652962995,173.39367529915714</t>
+          <t>-34.80057181609926,173.39367189972708</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-34.80057095794601,173.39367129660243</t>
+          <t>-34.800567603346884,173.39366893893347</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -28589,7 +28589,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-34.80054341902621,173.39365194179092</t>
+          <t>-34.8005420927892,173.39365100968985</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -28661,7 +28661,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-34.80058180188236,173.3936789179057</t>
+          <t>-34.80058156784057,173.3936787534171</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -28721,7 +28721,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-34.800559723939465,173.39366340115367</t>
+          <t>-34.80055231261541,173.39365819235186</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -28793,7 +28793,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-34.800609340797564,173.39369827273526</t>
+          <t>-34.8006111351177,173.39369953381524</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-34.80052922048838,173.39364196282799</t>
+          <t>-34.80052719212576,173.39364053726214</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-34.80058133379878,173.39367858892854</t>
+          <t>-34.800579929548064,173.39367760199707</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -29009,7 +29009,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-34.80043123495069,173.39357309711167</t>
+          <t>-34.800427958363535,173.39357079428</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -29081,7 +29081,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-34.80041805058775,173.3935638309569</t>
+          <t>-34.800416100238145,173.39356246022422</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-34.800466341238895,173.39359777031922</t>
+          <t>-34.80046992988138,173.39360029247052</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -29225,7 +29225,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-34.80046072423314,173.3935938226046</t>
+          <t>-34.800463688763976,173.3935959061206</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -29297,7 +29297,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-34.80047203625847,173.39360177286378</t>
+          <t>-34.800466341238895,173.39359777031922</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -29357,7 +29357,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-34.80065747538083,173.39373210259583</t>
+          <t>-34.800656929283505,173.39373171878847</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -29421,7 +29421,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-34.800549972197224,173.3936565474673</t>
+          <t>-34.80054919205783,173.39365599917244</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -29493,7 +29493,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-34.8006649647154,173.3937373662406</t>
+          <t>-34.80066597889612,173.3937380790259</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -29557,7 +29557,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-34.800663404437394,173.39373626964786</t>
+          <t>-34.80066746116022,173.39373912078904</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -29621,7 +29621,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-34.800694688009635,173.3937582563401</t>
+          <t>-34.80069328375959,173.39375726940594</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-34.80062962441572,173.39371252842534</t>
+          <t>-34.800627674067904,173.39371115768557</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-34.80056424874772,173.39366658126474</t>
+          <t>-34.800567135263286,173.39366860995645</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -29837,7 +29837,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-34.80052329142836,173.39363779578954</t>
+          <t>-34.80052680205603,173.39364026311486</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-34.800552156587514,173.3936580826929</t>
+          <t>-34.80055551118687,173.39366044036095</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -30033,7 +30033,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-34.80072456732777,173.39377925611416</t>
+          <t>-34.80071676593959,173.39377377314295</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -30157,7 +30157,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-34.800523915539955,173.39363823442517</t>
+          <t>-34.800518922647214,173.39363472534055</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-34.80070779434287,173.39376746772737</t>
+          <t>-34.80070997873167,173.39376900295886</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-34.80062494358092,173.39370923865008</t>
+          <t>-34.80061932657904,173.39370529092028</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-34.80060341173961,173.3936941056887</t>
+          <t>-34.80060707839389,173.39369668267793</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-34.80056495087312,173.39366707473027</t>
+          <t>-34.80056027003702,173.39366378496015</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -30585,7 +30585,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-34.80066488670151,173.39373731141094</t>
+          <t>-34.80066410656249,173.39373676311456</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-34.800735489270785,173.39378693227556</t>
+          <t>-34.80073712756218,173.39378808369992</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -30713,7 +30713,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-34.80062377337221,173.39370841620632</t>
+          <t>-34.80061987267644,173.3937056747273</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-34.80061534786928,173.39370249461197</t>
+          <t>-34.80061956062079,173.393705455409</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-34.8006740923416,173.39374378130893</t>
+          <t>-34.800673702272114,173.39374350716068</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -30925,7 +30925,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-34.800562766482955,173.39366553950418</t>
+          <t>-34.80055769557712,173.39366197558678</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-34.80023214318856,173.39343317300762</t>
+          <t>-34.80022730631759,173.393429773606</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -31057,7 +31057,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-34.80035649754605,173.3935205706642</t>
+          <t>-34.800359852148226,173.39352292832106</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -31121,7 +31121,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-34.80050004327052,173.3936214566183</t>
+          <t>-34.800497078740165,173.39361937310045</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-34.80052516376312,173.39363911169636</t>
+          <t>-34.800520638954104,173.39363593158834</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-34.80056245442722,173.3936653201862</t>
+          <t>-34.800564560803465,173.39366680058274</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-34.80048451849268,173.39361054556608</t>
+          <t>-34.800487014939435,173.39361230010684</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -31473,7 +31473,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-34.80053741195262,173.39364771992157</t>
+          <t>-34.80053912825937,173.3936489261699</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>-34.800624085427856,173.39370863552466</t>
+          <t>-34.800626035775714,173.39371000626426</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -31685,7 +31685,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-34.80057384446149,173.3936733252945</t>
+          <t>-34.80057852529732,173.39367661506566</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-34.80073361693773,173.393785616362</t>
+          <t>-34.80073190063243,173.393784410108</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-34.80073034035485,173.3937833135135</t>
+          <t>-34.80072932617443,173.3937826007271</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -31945,7 +31945,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-34.80063344709741,173.39371521507542</t>
+          <t>-34.80063399319478,173.39371559888258</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -32005,7 +32005,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-34.800611447173374,173.39369975313352</t>
+          <t>-34.800608482644435,173.39369766961005</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -32049,7 +32049,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>-34.8006300924992,173.39371285740287</t>
+          <t>-34.80062736201224,173.39371093836726</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-34.8006378938903,173.39371834036254</t>
+          <t>-34.800631886819176,173.3937141184835</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -32217,7 +32217,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-34.80062775208181,173.3937112125152</t>
+          <t>-34.80063017051311,173.39371291223247</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -32293,7 +32293,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-34.800633681139146,173.3937153795642</t>
+          <t>-34.800635007375625,173.39371631166736</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-34.800669177466006,173.39374032704117</t>
+          <t>-34.800674638438885,173.3937441651165</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-34.80075195019818,173.39379850135123</t>
+          <t>-34.80075429061431,173.39380014624388</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-34.80070373762075,173.39376461658338</t>
+          <t>-34.8007076383151,173.39376735806798</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>-34.800702801454094,173.39376395862712</t>
+          <t>-34.80069960288468,173.39376171061</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -32729,7 +32729,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>-34.80070100713468,173.3937626975443</t>
+          <t>-34.80070490782907,173.39376543902873</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -32789,7 +32789,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-34.80074227647796,173.39379170246258</t>
+          <t>-34.80073720557607,173.39378813852966</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-34.80083355269301,173.39385585333017</t>
+          <t>-34.800825907336204,173.39385048000418</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -32909,7 +32909,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-34.80066145408985,173.393734898907</t>
+          <t>-34.800656149144466,173.39373117049217</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-34.80054560341656,173.3936534770163</t>
+          <t>-34.80054427717957,173.39365254491517</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-34.80058632669018,173.39368209801845</t>
+          <t>-34.800587340871225,173.3936828108024</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>-34.800566433137874,173.39366811649086</t>
+          <t>-34.80056916362555,173.39367003552368</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-34.80064078040495,173.3937203690579</t>
+          <t>-34.800641794585765,173.39372108184276</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -33373,7 +33373,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>-34.800679631328265,173.39374767421432</t>
+          <t>-34.80067908523099,173.39374729040674</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>-34.800647177545386,173.3937248650859</t>
+          <t>-34.800652326463165,173.39372848384065</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -33501,7 +33501,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-34.80073158857691,173.3937841907891</t>
+          <t>-34.800728077952364,173.3937817234515</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -33561,7 +33561,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-34.800790098978034,173.3938253131131</t>
+          <t>-34.80079321953235,173.39382750630534</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -33633,7 +33633,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-34.8007457090884,173.39379411497126</t>
+          <t>-34.80074867361557,173.39379619850166</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -33689,7 +33689,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-34.800697184454116,173.39376001088985</t>
+          <t>-34.800701475218005,173.39376302652244</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-34.80057462460079,173.39367387358965</t>
+          <t>-34.80057641892122,173.39367513466857</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -33837,7 +33837,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-34.800634695319985,173.39371609234894</t>
+          <t>-34.800637971904216,173.39371839519214</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33897,7 +33897,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>-34.80055207857359,173.3936580278634</t>
+          <t>-34.8005549650893,173.3936600565545</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -33969,7 +33969,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>-34.80061550389711,173.3937026042711</t>
+          <t>-34.800612149298644,173.3937002465996</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -34041,7 +34041,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-34.80054287292863,173.39365155798458</t>
+          <t>-34.8005417027195,173.39365073554245</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -34157,7 +34157,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>-34.8005324970741,173.39364426566527</t>
+          <t>-34.80052976658601,173.3936423466342</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>-34.800550518294806,173.39365693127368</t>
+          <t>-34.80055324878266,173.39365885030574</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-34.80053842613389,173.39364843270468</t>
+          <t>-34.8005417027195,173.39365073554245</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -34405,7 +34405,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-34.80053062473941,173.39364294975823</t>
+          <t>-34.800529610558115,173.3936422369753</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -34521,7 +34521,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>-34.80073408502099,173.3937859453404</t>
+          <t>-34.800732758785074,173.393785013235</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-34.80069827664857,173.39376077850537</t>
+          <t>-34.80069180149566,173.39375622764214</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -34665,7 +34665,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-34.800701397204115,173.39376297169275</t>
+          <t>-34.80070514187072,173.3937656035178</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -34737,7 +34737,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-34.80065794346425,173.39373243157362</t>
+          <t>-34.80065224844925,173.39372842901102</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -34837,7 +34837,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>-34.80052773822339,173.39364092106834</t>
+          <t>-34.80052485170732,173.39363889237856</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -34893,7 +34893,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-34.800605440101556,173.39369553125718</t>
+          <t>-34.800607780519165,173.393697176144</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -34993,7 +34993,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-34.80063742580684,173.39371801138492</t>
+          <t>-34.800632354902646,173.39371444746106</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -35065,7 +35065,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>-34.80067206398026,173.39374235573806</t>
+          <t>-34.80067479446668,173.39374427477577</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -35133,7 +35133,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>-34.80081958821458,173.39384603878653</t>
+          <t>-34.800816233619074,173.39384368110336</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -35205,7 +35205,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>-34.80057618487942,173.39367497018003</t>
+          <t>-34.80057423453114,173.39367359944205</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -35365,7 +35365,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-34.80066145408985,173.393734898907</t>
+          <t>-34.80066387252079,173.39373659862568</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -35425,7 +35425,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>-34.80070233337078,173.393763629649</t>
+          <t>-34.80069749650967,173.39376023020856</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -35493,7 +35493,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>-34.80076880119375,173.3938103445804</t>
+          <t>-34.800762404056684,173.39380584853913</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -35625,7 +35625,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-34.800566589165754,173.39366822614988</t>
+          <t>-34.80056986575095,173.39367052898928</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -35697,7 +35697,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-34.800635631486905,173.39371675030412</t>
+          <t>-34.80064007827977,173.39371987559144</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -35769,7 +35769,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>-34.800616206022376,173.39370309773727</t>
+          <t>-34.8006150358136,173.3937022752937</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>-34.80065497893592,173.39373034804782</t>
+          <t>-34.80064764562882,173.3937251940636</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -35893,7 +35893,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>-34.80054271690074,173.39365144832564</t>
+          <t>-34.80053936230121,173.3936490906583</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -35953,7 +35953,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>-34.80064959597647,173.39372656480398</t>
+          <t>-34.800646709461944,173.3937245361082</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -36013,7 +36013,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>-34.800888240390854,173.393894289089</t>
+          <t>-34.80089143895768,173.39389653711638</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -36161,7 +36161,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>-34.800638518001584,173.39371877899936</t>
+          <t>-34.80064280876657,173.39372179462765</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -36221,7 +36221,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>-34.8006168301337,173.39370353637383</t>
+          <t>-34.80062260316348,173.3937075937626</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -36397,7 +36397,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>-34.80058773094087,173.39368308495006</t>
+          <t>-34.80058492243948,173.3936811110869</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>-34.80062299323305,173.3937078679105</t>
+          <t>-34.80062673790094,173.39371049973056</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -36505,7 +36505,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>-34.80063212086092,173.3937142829723</t>
+          <t>-34.80063118469396,173.39371362501717</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -36577,7 +36577,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>-34.8005776671441,173.3936760119409</t>
+          <t>-34.800573922475415,173.393673380124</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -36649,7 +36649,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-34.80063212086092,173.3937142829723</t>
+          <t>-34.800635631486905,173.39371675030412</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -36717,7 +36717,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>-34.8005633125805,173.3936659233107</t>
+          <t>-34.80056799341656,173.39366921308104</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -36789,7 +36789,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>-34.80077207777609,173.39381264743108</t>
+          <t>-34.80077675860788,173.39381593721808</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -36861,7 +36861,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-34.800722226911354,173.39377761122267</t>
+          <t>-34.80072792192461,173.39378161379207</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -36933,7 +36933,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>-34.80065162433802,173.39372799037406</t>
+          <t>-34.800648503781794,173.39372579718935</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-34.80063804991813,173.39371845002174</t>
+          <t>-34.80063961019631,173.3937195466138</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -37065,7 +37065,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-34.800648581795684,173.39372585201895</t>
+          <t>-34.80064639740631,173.39372431678976</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -37113,7 +37113,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>-34.80068025543942,173.3937481128516</t>
+          <t>-34.80067378028601,173.3937435619903</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -37185,7 +37185,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>-34.80055465303356,173.39365983723656</t>
+          <t>-34.800558943800105,173.3936628528587</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>-34.80055847571648,173.39366252388174</t>
+          <t>-34.80056144024605,173.39366460740266</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -37329,7 +37329,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>-34.80065997182572,173.39373385714399</t>
+          <t>-34.800659269700596,173.3937333636773</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -37497,7 +37497,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>-34.80061433368835,173.39370178182756</t>
+          <t>-34.800612539368245,173.39370052074744</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -37597,7 +37597,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>-34.80071255318987,173.39377081233894</t>
+          <t>-34.80070482981518,173.39376538419904</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -37649,7 +37649,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>-34.800560894148504,173.39366422359618</t>
+          <t>-34.80055660338199,173.39366120797385</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -37709,7 +37709,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-34.800553404810536,173.3936589599647</t>
+          <t>-34.80054911404389,173.39365594434295</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -37781,7 +37781,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>-34.80059701459797,173.39368960966547</t>
+          <t>-34.80059841884859,173.39369059659734</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -37853,7 +37853,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>-34.80052149710754,173.39363653471224</t>
+          <t>-34.80052329142836,173.39363779578954</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -37913,7 +37913,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-34.800645461239434,173.39372365883438</t>
+          <t>-34.80064920590696,173.39372629065588</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -38005,7 +38005,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>-34.80059412808277,173.39368758097228</t>
+          <t>-34.800598808918195,173.39369087074508</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -38117,7 +38117,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>-34.800598496862506,173.3936906514269</t>
+          <t>-34.80060099330803,173.3936924059725</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -38189,7 +38189,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>-34.80071731203679,173.3937741569509</t>
+          <t>-34.800717156009014,173.3937740472915</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -38301,7 +38301,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>-34.80064280876657,173.39372179462765</t>
+          <t>-34.80064202862748,173.39372124633158</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -38361,7 +38361,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>-34.80067955331437,173.39374761938467</t>
+          <t>-34.800675886661246,173.3937450423909</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -38433,7 +38433,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>-34.80065895764499,173.3937331443588</t>
+          <t>-34.800654900922005,173.39373029321817</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -38545,7 +38545,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>-34.80070030500969,173.39376220407715</t>
+          <t>-34.80069617027355,173.39375929810402</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -38617,7 +38617,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-34.80072230492523,173.3937776660524</t>
+          <t>-34.80071895032832,173.39377530837479</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>-34.80069991494023,173.39376192992873</t>
+          <t>-34.80070350357909,173.39376445209433</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>-34.800587808954795,173.39368313977963</t>
+          <t>-34.800583362160936,173.39368001449625</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -38869,7 +38869,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>-34.8008188080761,173.39384549048808</t>
+          <t>-34.80082247472694,173.3938480674908</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -38937,7 +38937,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>-34.800581255784856,173.39367853409902</t>
+          <t>-34.80058648271803,173.3936822076775</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-34.80067736892528,173.39374608415432</t>
+          <t>-34.80067151788296,173.39374197193052</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -39149,7 +39149,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>-34.80069109937064,173.39375573417507</t>
+          <t>-34.80068688662045,173.3937527733729</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -39221,7 +39221,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>-34.80070373762075,173.39376461658338</t>
+          <t>-34.80070022699578,173.39376214924746</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>-34.80052516376312,173.39363911169636</t>
+          <t>-34.800528284321025,173.3936413048745</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -39413,7 +39413,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>-34.80064234068312,173.39372146565</t>
+          <t>-34.80064702151757,173.39372475542663</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>-34.80060099330803,173.3936924059725</t>
+          <t>-34.80060645428252,173.39369624404145</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -39517,7 +39517,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>-34.80062174501043,173.39370699063718</t>
+          <t>-34.800620574801684,173.39370616819352</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -39589,7 +39589,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>-34.80057205014105,173.39367206421562</t>
+          <t>-34.80056916362555,173.39367003552368</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-34.80051993682856,173.39363543812334</t>
+          <t>-34.80051338365669,173.39363083245033</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>-34.80067417035549,173.39374383613858</t>
+          <t>-34.80066699307683,173.3937387918112</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -39841,7 +39841,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>-34.80062900030442,173.3937120897886</t>
+          <t>-34.800623539330466,173.39370825171758</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -39913,7 +39913,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>-34.800658099492054,173.39373254123288</t>
+          <t>-34.8006567732557,173.3937316091292</t>
         </is>
       </c>
       <c r="I248" t="inlineStr"/>
@@ -39965,7 +39965,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>-34.80054911404389,173.39365594434295</t>
+          <t>-34.80055301474085,173.39365868581726</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -40037,7 +40037,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>-34.80057727707445,173.3936757377933</t>
+          <t>-34.800579383450554,173.39367721819042</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>-34.80066730513242,173.39373901112978</t>
+          <t>-34.800663014367885,173.3937359954997</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>-34.800634305250426,173.39371581820095</t>
+          <t>-34.800633681139146,173.3937153795642</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -40237,7 +40237,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>-34.80071013475944,173.39376911261826</t>
+          <t>-34.80071146099549,173.39377004472314</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -40305,7 +40305,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>-34.800602943656074,173.3936937767114</t>
+          <t>-34.80060622024077,173.3936960795528</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -40377,7 +40377,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>-34.800520716968045,173.3936359864178</t>
+          <t>-34.80052360348415,173.39363801510734</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -40493,7 +40493,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>-34.80054014244063,173.393649638953</t>
+          <t>-34.80054443320745,173.3936526545741</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -40673,7 +40673,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>-34.800472816398134,173.3936023211576</t>
+          <t>-34.80046938378361,173.3935999086649</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -40721,7 +40721,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>-34.800527114111816,173.3936404824327</t>
+          <t>-34.80052196519124,173.39363686368895</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -40793,7 +40793,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>-34.80045315687795,173.39358850415658</t>
+          <t>-34.80044652569021,173.39358384366173</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -40853,7 +40853,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>-34.800568617528015,173.39366965171712</t>
+          <t>-34.800565340942796,173.39366734887778</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -40901,7 +40901,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>-34.8005328091299,173.39364448498313</t>
+          <t>-34.80053124885099,173.3936433883939</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -40973,7 +40973,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>-34.80054724170933,173.39365462843537</t>
+          <t>-34.80054614951416,173.39365386082264</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -41045,7 +41045,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>-34.80052430560969,173.39363850857242</t>
+          <t>-34.80052859637682,173.39364152419236</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>-34.80053780202234,173.3936479940689</t>
+          <t>-34.800539674356976,173.39364930997618</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -41221,7 +41221,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>-34.80065209242145,173.39372831935177</t>
+          <t>-34.80065014207382,173.3937269486113</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -41325,7 +41325,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-34.800711148939946,173.39376982540435</t>
+          <t>-34.80071021277332,173.39376916744794</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -41533,7 +41533,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>-34.80059389404099,173.39368741648366</t>
+          <t>-34.8005926458182,173.393686539211</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -41589,7 +41589,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-34.80067206398026,173.39374235573806</t>
+          <t>-34.800665822868304,173.39373796936664</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>-34.80049739079599,173.3936195924181</t>
+          <t>-34.80049700072621,173.39361931827105</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -41733,7 +41733,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>-34.800508156721854,173.39362715887833</t>
+          <t>-34.80051127727998,173.3936293520556</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -41805,7 +41805,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>-34.80056931965342,173.39367014518268</t>
+          <t>-34.80057423453114,173.39367359944205</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -41877,7 +41877,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>-34.80057860331126,173.39367666989517</t>
+          <t>-34.80058039763164,173.3936779309742</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -41949,7 +41949,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>-34.800633525111316,173.39371526990502</t>
+          <t>-34.800634305250426,173.39371581820095</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -41997,7 +41997,7 @@
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
         <is>
-          <t>-34.80067830509203,173.39374674211018</t>
+          <t>-34.80067198596636,173.3937423009084</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -42057,7 +42057,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>-34.800566433137874,173.39366811649086</t>
+          <t>-34.8005700217788,173.3936706386483</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>-34.80050831274976,173.39362726853722</t>
+          <t>-34.80050800069395,173.39362704921948</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -42201,7 +42201,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>-34.80058266003557,173.3936795210305</t>
+          <t>-34.800578135227674,173.39367634091803</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -42273,7 +42273,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>-34.800448163983674,173.39358499507802</t>
+          <t>-34.80044324910326,173.39358154082922</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -42345,7 +42345,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>-34.80044605760637,173.39358351468562</t>
+          <t>-34.80044660370418,173.39358389849104</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -42401,7 +42401,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>-34.80058531250913,173.39368138523454</t>
+          <t>-34.800587886968714,173.39368319460914</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -42473,7 +42473,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>-34.800558163660725,173.39366230456375</t>
+          <t>-34.800561908329676,173.39366493637965</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -42541,7 +42541,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>-34.80058055365949,173.3936780406333</t>
+          <t>-34.80058531250913,173.39368138523454</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -42613,7 +42613,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>-34.80060075926626,173.39369224148388</t>
+          <t>-34.800601461391565,173.39369273494984</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -42685,7 +42685,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-34.80058874512191,173.39368379773404</t>
+          <t>-34.80058570257876,173.3936816593822</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>-34.80064912789305,173.39372623582628</t>
+          <t>-34.80064561726724,173.39372376849363</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -42829,7 +42829,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>-34.800517986479804,173.39363406738724</t>
+          <t>-34.800519000661154,173.39363478017</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -42901,7 +42901,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>-34.80054271690074,173.39365144832564</t>
+          <t>-34.800545057318985,173.39365309320993</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>-34.80063165277744,173.39371395399473</t>
+          <t>-34.80063617758428,173.3937171341113</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -43045,7 +43045,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>-34.80050339787062,173.39362381428336</t>
+          <t>-34.80050261773108,173.39362326598913</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>-34.800482880199475,173.39360939414874</t>
+          <t>-34.80048131992022,173.39360829756086</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -43189,7 +43189,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>-34.800429284601194,173.39357172637852</t>
+          <t>-34.800424447734365,173.39356832696063</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>-34.800471178104836,173.3936011697406</t>
+          <t>-34.80046376677794,173.39359596094997</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -43333,7 +43333,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>-34.8004192988115,173.39356470822585</t>
+          <t>-34.800413993860545,173.39356097983298</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -43405,7 +43405,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>-34.80055262467116,173.3936584116698</t>
+          <t>-34.80055863174435,173.3936626335407</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -43477,7 +43477,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>-34.80076677283322,173.39380891900626</t>
+          <t>-34.80076716290257,173.39380919315514</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -43549,7 +43549,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>-34.80066285834009,173.3937358858404</t>
+          <t>-34.800659191686705,173.3937333088477</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -43621,7 +43621,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>-34.80064881583741,173.3937260165078</t>
+          <t>-34.8006421846553,173.3937213559908</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -43693,7 +43693,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>-34.800584844425565,173.39368105625735</t>
+          <t>-34.80058663874589,173.39368231733658</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -43765,7 +43765,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>-34.80057914940877,173.39367705370185</t>
+          <t>-34.80058226996592,173.39367924688287</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -43837,7 +43837,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>-34.800528050279176,173.39364114038614</t>
+          <t>-34.80052976658601,173.3936423466342</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -43909,7 +43909,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>-34.80062720598442,173.39371082870807</t>
+          <t>-34.80062548967831,173.39370962245715</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -43973,7 +43973,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>-34.800457447646394,173.39359151977132</t>
+          <t>-34.80045237673823,173.39358795586304</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -44045,7 +44045,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>-34.800657319353014,173.3937319929366</t>
+          <t>-34.800650454129446,173.39372716792977</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -44117,7 +44117,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>-34.80051018508463,173.39362858444355</t>
+          <t>-34.800505270205555,173.39362513018952</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -44189,7 +44189,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>-34.80046376677794,173.39359596094997</t>
+          <t>-34.800459397995645,173.3935928905054</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -44261,7 +44261,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>-34.80055777359106,173.3936620304163</t>
+          <t>-34.80055543317292,173.39366038553146</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -44333,7 +44333,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>-34.80065513496371,173.39373045770705</t>
+          <t>-34.800652872560505,173.39372886764798</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -44401,7 +44401,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>-34.800596936584036,173.39368955483593</t>
+          <t>-34.80059381602707,173.39368736165412</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -44473,7 +44473,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>-34.80054053251034,173.39364991310038</t>
+          <t>-34.800545057318985,173.39365309320993</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -44545,7 +44545,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>-34.80070748228733,173.39376724840858</t>
+          <t>-34.80070303549577,173.3937641231162</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -44617,7 +44617,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>-34.80066309238179,173.39373605032932</t>
+          <t>-34.80065802147816,173.39373248640325</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -44689,7 +44689,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>-34.800561596273916,173.39366471706165</t>
+          <t>-34.8005580856468,173.39366224973426</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -44761,7 +44761,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>-34.80068673059265,173.39375266371357</t>
+          <t>-34.80068165968953,173.39374909978545</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -44833,7 +44833,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>-34.80065193639364,173.39372820969254</t>
+          <t>-34.800646865489746,173.39372464576743</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -44953,7 +44953,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>-34.8005483339045,173.3936553960481</t>
+          <t>-34.80054388710986,173.39365227076777</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -45025,7 +45025,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>-34.800573688433616,173.39367321563546</t>
+          <t>-34.800578213241614,173.39367639574758</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -45073,7 +45073,7 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>-34.80067838310592,173.39374679693984</t>
+          <t>-34.800681971745114,173.3937493191041</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -45145,7 +45145,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>-34.800598574876425,173.39369070625642</t>
+          <t>-34.80059701459797,173.39368960966547</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>-34.800656149144466,173.39373117049217</t>
+          <t>-34.80065794346425,173.39373243157362</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -45289,7 +45289,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>-34.80061550389711,173.3937026042711</t>
+          <t>-34.80061378759092,173.39370139802054</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -45361,7 +45361,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>-34.800584766411625,173.3936810014278</t>
+          <t>-34.800587262857306,173.39368275597286</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -45425,7 +45425,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>-34.80068423414805,173.3937509091643</t>
+          <t>-34.80068860292609,173.39375397962561</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -45497,7 +45497,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>-34.800683922092475,173.39375068984563</t>
+          <t>-34.80067869516151,173.39374701625846</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -45605,7 +45605,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>-34.80069203553733,173.39375639213114</t>
+          <t>-34.80068774477327,173.39375337649923</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -45653,7 +45653,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>-34.8007949358372,173.39382871256117</t>
+          <t>-34.80079064507504,173.39382569692174</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -45725,7 +45725,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>-34.80066004983962,173.39373391197364</t>
+          <t>-34.80066519875711,173.3937375307295</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -45797,7 +45797,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>-34.80079641810046,173.39382975432758</t>
+          <t>-34.80079774433602,173.39383068643443</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -45869,7 +45869,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>-34.800730184327094,173.39378320385404</t>
+          <t>-34.80073221268793,173.3937846294269</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -45925,7 +45925,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>-34.80075210622593,173.39379861101074</t>
+          <t>-34.80075327643399,173.39379943345705</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -45997,7 +45997,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>-34.80071309928706,173.39377119614684</t>
+          <t>-34.80071333332873,173.39377136063595</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -46065,7 +46065,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>-34.80071403545368,173.39377185410328</t>
+          <t>-34.80070896455116,173.3937682901728</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -46137,7 +46137,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>-34.8006567732557,173.3937316091292</t>
+          <t>-34.800659893811805,173.39373380231436</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -46209,7 +46209,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>-34.80070428371797,173.39376500039123</t>
+          <t>-34.80069905678746,173.3937613268022</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -46281,7 +46281,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>-34.800645227197705,173.39372349434558</t>
+          <t>-34.80064483712817,173.3937232201975</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -46353,7 +46353,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>-34.800660205867416,173.39373402163287</t>
+          <t>-34.800661688131555,173.3937350633959</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>-34.80057493665652,173.39367409290773</t>
+          <t>-34.80057563878189,173.3936745863734</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -46497,7 +46497,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>-34.800646943503665,173.39372470059703</t>
+          <t>-34.80064967399039,173.39372661963358</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -46617,7 +46617,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>-34.80057680899087,173.3936754088162</t>
+          <t>-34.80057095794601,173.39367129660243</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -46689,7 +46689,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>-34.8006461633646,173.3937241523009</t>
+          <t>-34.80064983001819,173.3937267292928</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -46761,7 +46761,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>-34.800711382981596,173.39376998989346</t>
+          <t>-34.800714113467556,173.393771908933</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -46877,7 +46877,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>-34.800693595815154,173.39375748872465</t>
+          <t>-34.80069445396796,173.39375809185108</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -46949,7 +46949,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>-34.800631730791345,173.3937140088243</t>
+          <t>-34.800631574763536,173.39371389916514</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -47021,7 +47021,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>-34.80057727707445,173.3936757377933</t>
+          <t>-34.800574546586866,173.39367381876013</t>
         </is>
       </c>
       <c r="I356" t="inlineStr"/>
@@ -47073,7 +47073,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>-34.80060286564216,173.39369372188182</t>
+          <t>-34.800603879823136,173.39369443466603</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -47145,7 +47145,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>-34.800592021706784,173.39368610057466</t>
+          <t>-34.80059709261187,173.393689664495</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -47217,7 +47217,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>-34.800696092259656,173.39375924327433</t>
+          <t>-34.80069195752343,173.39375633730148</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -47289,7 +47289,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>-34.80063383716696,173.39371548922338</t>
+          <t>-34.800638283959856,173.39371861451053</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -47361,7 +47361,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>-34.8006994468569,173.39376160095063</t>
+          <t>-34.80069539013464,173.39375874980723</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -47433,7 +47433,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>-34.80076060973773,173.39380458745453</t>
+          <t>-34.800762404056684,173.39380584853913</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -47505,7 +47505,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>-34.800576652962995,173.39367529915714</t>
+          <t>-34.80057914940877,173.39367705370185</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -47577,7 +47577,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>-34.800589759302945,173.39368451051803</t>
+          <t>-34.800594284110616,173.39368769063137</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -47645,7 +47645,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>-34.80062385138612,173.39370847103592</t>
+          <t>-34.80062876626268,173.39371192529984</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -47745,7 +47745,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>-34.80064429103082,173.39372283639022</t>
+          <t>-34.80064062437714,173.39372025939866</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>-34.8007153616897,173.39377278620825</t>
+          <t>-34.80071653189795,173.39377360865382</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -47889,7 +47889,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>-34.800659191686705,173.3937333088477</t>
+          <t>-34.80065763140863,173.39373221225512</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -47961,7 +47961,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>-34.80062221309391,173.3937073196147</t>
+          <t>-34.8006186244538,173.3937047974541</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -48033,7 +48033,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>-34.80062517762266,173.39370940313884</t>
+          <t>-34.80062673790094,173.39371049973056</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -48105,7 +48105,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>-34.800685560384245,173.39375184126857</t>
+          <t>-34.80067994338384,173.39374789353295</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -48177,7 +48177,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>-34.8006087166862,173.39369783409876</t>
+          <t>-34.80060348975353,173.39369416051824</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -48245,7 +48245,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>-34.80056112819031,173.39366438808466</t>
+          <t>-34.80055863174435,173.3936626335407</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -48305,7 +48305,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>-34.80059311390174,173.3936868681882</t>
+          <t>-34.80059405006885,173.39368752614274</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -48377,7 +48377,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>-34.800527426167605,173.3936407017505</t>
+          <t>-34.80052945453022,173.39364212731635</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -48449,7 +48449,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>-34.8005350715343,173.39364607503757</t>
+          <t>-34.80052781623734,173.39364097589777</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>-34.800509638986966,173.3936282006375</t>
+          <t>-34.800512369475314,173.39363011966768</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -48593,7 +48593,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>-34.80053015665574,173.3936426207815</t>
+          <t>-34.80052446163759,173.3936386182313</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -48665,7 +48665,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>-34.8005633125805,173.3936659233107</t>
+          <t>-34.800566043068216,173.39366784234335</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -48737,7 +48737,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>-34.80056807143048,173.39366926791055</t>
+          <t>-34.80056721327722,173.39366866478596</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -48809,7 +48809,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>-34.80044418527097,173.39358219878133</t>
+          <t>-34.800440284572176,173.39357945731425</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -48877,7 +48877,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>-34.80054755376509,173.39365484775328</t>
+          <t>-34.80054497930505,173.39365303838045</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -48949,7 +48949,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>-34.80054427717957,173.39365254491517</t>
+          <t>-34.80054458923533,173.39365276423308</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -49021,7 +49021,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>-34.80049863901932,173.39362046968876</t>
+          <t>-34.80049723476808,173.39361948275928</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -49093,7 +49093,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>-34.800515568047324,173.39363236767457</t>
+          <t>-34.80051673825659,173.39363319011616</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -49165,7 +49165,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>-34.80052165313544,173.39363664437116</t>
+          <t>-34.800517128326355,173.39363346426336</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -49237,7 +49237,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>-34.800565809026416,173.39366767785484</t>
+          <t>-34.800569475681286,173.39367025484174</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>-34.800577589130164,173.3936759571114</t>
+          <t>-34.800573532405764,173.3936731059764</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -49425,7 +49425,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>-34.800515568047324,173.39363236767457</t>
+          <t>-34.80051478790783,173.3936318193802</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -49497,7 +49497,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>-34.800696950412444,173.3937598464008</t>
+          <t>-34.80070131919023,173.39376291686307</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -49569,7 +49569,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>-34.80067385829991,173.39374361682</t>
+          <t>-34.80067089377178,173.39374153329337</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -49669,7 +49669,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>-34.80063227688873,173.3937143926315</t>
+          <t>-34.80062665988702,173.39371044490096</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -49741,7 +49741,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>-34.80056222038541,173.39366515569765</t>
+          <t>-34.800567057249346,173.3936685551269</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -49813,7 +49813,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>-34.8005991209739,173.39369109006327</t>
+          <t>-34.80059373801315,173.39368730682457</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -49885,7 +49885,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>-34.800616986161536,173.39370364603298</t>
+          <t>-34.8006145677301,173.39370194631624</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -49993,7 +49993,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>-34.800638361973775,173.39371866934016</t>
+          <t>-34.80063227688873,173.3937143926315</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -50065,7 +50065,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>-34.80061550389711,173.3937026042711</t>
+          <t>-34.800608482644435,173.39369766961005</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -50137,7 +50137,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>-34.80052976658601,173.3936423466342</t>
+          <t>-34.800533121185666,173.39364470430098</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -50209,7 +50209,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>-34.80060614222684,173.39369602472323</t>
+          <t>-34.800600681252334,173.3936921866543</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>-34.80059436212455,173.39368774546094</t>
+          <t>-34.800588511080136,173.39368363324542</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -50353,7 +50353,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>-34.80053070275335,173.39364300458772</t>
+          <t>-34.80053062473941,173.39364294975823</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -50425,7 +50425,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>-34.80049200783287,173.39361580918873</t>
+          <t>-34.80049505037726,173.39361794753572</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -50497,7 +50497,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>-34.80045315687795,173.39358850415658</t>
+          <t>-34.80045666750669,173.3935909714777</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -50569,7 +50569,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>-34.80059412808277,173.39368758097228</t>
+          <t>-34.80059529829163,173.39368840341547</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -50641,7 +50641,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>-34.80073400700711,173.39378589051066</t>
+          <t>-34.800732758785074,173.393785013235</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -50705,7 +50705,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>-34.800587652926936,173.3936830301205</t>
+          <t>-34.80058897916369,173.39368396222264</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -50841,7 +50841,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>-34.80069117738452,173.39375578900476</t>
+          <t>-34.80069546814853,173.39375880463692</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -50913,7 +50913,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>-34.80056721327722,173.39366866478596</t>
+          <t>-34.80057322035003,173.39367288665832</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -50985,7 +50985,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>-34.80069890075967,173.39376121714284</t>
+          <t>-34.80069460999574,173.39375820151042</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -51057,7 +51057,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>-34.80072628363313,173.39378046236794</t>
+          <t>-34.800723787188964,173.39377870781698</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -51129,7 +51129,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>-34.8006497520043,173.3937266744632</t>
+          <t>-34.80065224844925,173.39372842901102</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -51201,7 +51201,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>-34.80094456636567,173.393933876329</t>
+          <t>-34.80094862308355,173.39393672748963</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -51301,7 +51301,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>-34.80061175922906,173.39369997245177</t>
+          <t>-34.80061347553526,173.39370117870226</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -51353,7 +51353,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>-34.800672141994156,173.3937424105677</t>
+          <t>-34.800673468230414,173.39374334267174</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -51425,7 +51425,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>-34.80069304971793,173.39375710491694</t>
+          <t>-34.80069414191238,173.39375787253238</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
